--- a/new_data/double_hit/20260205_203852_phrase44/20260205_203852_phrase44_keypoints.xlsx
+++ b/new_data/double_hit/20260205_203852_phrase44/20260205_203852_phrase44_keypoints.xlsx
@@ -491,1698 +491,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.083061618209946</v>
+        <v>2.981395069980323</v>
       </c>
       <c r="B2" t="n">
-        <v>8.093476008072194</v>
+        <v>2.968015624480853</v>
       </c>
       <c r="C2" t="n">
-        <v>8.106379888481824</v>
+        <v>2.971468282819883</v>
       </c>
       <c r="D2" t="n">
-        <v>8.165190151593096</v>
+        <v>2.820633461922474</v>
       </c>
       <c r="E2" t="n">
-        <v>8.190472578068809</v>
+        <v>2.924713635021289</v>
       </c>
       <c r="F2" t="n">
-        <v>8.130992213388156</v>
+        <v>2.762362404576717</v>
       </c>
       <c r="G2" t="n">
-        <v>8.345949417762338</v>
+        <v>2.89684809658311</v>
       </c>
       <c r="H2" t="n">
-        <v>7.994109427902366</v>
+        <v>2.90613190710324</v>
       </c>
       <c r="I2" t="n">
-        <v>8.44569593287858</v>
+        <v>2.97148034791273</v>
       </c>
       <c r="J2" t="n">
-        <v>7.832784371587756</v>
+        <v>3.032511712884944</v>
       </c>
       <c r="K2" t="n">
-        <v>8.467398373328439</v>
+        <v>3.051615024047586</v>
       </c>
       <c r="L2" t="n">
-        <v>8.190715964016178</v>
+        <v>2.735889177853019</v>
       </c>
       <c r="M2" t="n">
-        <v>8.370471342173932</v>
+        <v>2.890502971446751</v>
       </c>
       <c r="N2" t="n">
-        <v>7.909009689447434</v>
+        <v>2.775585931953247</v>
       </c>
       <c r="O2" t="n">
-        <v>8.369945375659098</v>
+        <v>3.273763453274587</v>
       </c>
       <c r="P2" t="n">
-        <v>7.799599171792391</v>
+        <v>2.622084354303145</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.556560444504923</v>
+        <v>3.373654626137112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.087734628399442</v>
+        <v>3.102006647680541</v>
       </c>
       <c r="B3" t="n">
-        <v>8.098764753099971</v>
+        <v>3.089496445716456</v>
       </c>
       <c r="C3" t="n">
-        <v>8.115382639849328</v>
+        <v>3.098400113003516</v>
       </c>
       <c r="D3" t="n">
-        <v>8.172298917770162</v>
+        <v>2.947607612739476</v>
       </c>
       <c r="E3" t="n">
-        <v>8.1991187848277</v>
+        <v>3.035584784841343</v>
       </c>
       <c r="F3" t="n">
-        <v>8.154182785059074</v>
+        <v>2.880147038214604</v>
       </c>
       <c r="G3" t="n">
-        <v>8.326888821141198</v>
+        <v>2.927439232303711</v>
       </c>
       <c r="H3" t="n">
-        <v>8.019289442628796</v>
+        <v>2.963073576834131</v>
       </c>
       <c r="I3" t="n">
-        <v>8.401613996525271</v>
+        <v>2.98956220975331</v>
       </c>
       <c r="J3" t="n">
-        <v>7.849771446371566</v>
+        <v>3.044538939901545</v>
       </c>
       <c r="K3" t="n">
-        <v>8.502691864382189</v>
+        <v>3.079602327115108</v>
       </c>
       <c r="L3" t="n">
-        <v>8.22676489976371</v>
+        <v>2.929398232148349</v>
       </c>
       <c r="M3" t="n">
-        <v>8.346182688969037</v>
+        <v>3.007268011930706</v>
       </c>
       <c r="N3" t="n">
-        <v>8.01783291997233</v>
+        <v>3.009401677196399</v>
       </c>
       <c r="O3" t="n">
-        <v>8.244720460966663</v>
+        <v>3.388126426581219</v>
       </c>
       <c r="P3" t="n">
-        <v>8.077693219599396</v>
+        <v>2.750158099120492</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.280267452708451</v>
+        <v>3.352935335000296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.087861694829108</v>
+        <v>3.142332642776917</v>
       </c>
       <c r="B4" t="n">
-        <v>8.100770000437779</v>
+        <v>3.128474120283036</v>
       </c>
       <c r="C4" t="n">
-        <v>8.117208982711537</v>
+        <v>3.142267305658733</v>
       </c>
       <c r="D4" t="n">
-        <v>8.184352527792225</v>
+        <v>2.995862415620917</v>
       </c>
       <c r="E4" t="n">
-        <v>8.211673706684216</v>
+        <v>3.076468372844038</v>
       </c>
       <c r="F4" t="n">
-        <v>8.176000280684054</v>
+        <v>2.906934885436375</v>
       </c>
       <c r="G4" t="n">
-        <v>8.333694145098168</v>
+        <v>2.977222404023578</v>
       </c>
       <c r="H4" t="n">
-        <v>8.053207328951437</v>
+        <v>3.054375888524482</v>
       </c>
       <c r="I4" t="n">
-        <v>8.40597408192529</v>
+        <v>3.055259424554468</v>
       </c>
       <c r="J4" t="n">
-        <v>7.885198325567899</v>
+        <v>3.230061830816586</v>
       </c>
       <c r="K4" t="n">
-        <v>8.504364589620474</v>
+        <v>3.240964591179897</v>
       </c>
       <c r="L4" t="n">
-        <v>8.25616276134949</v>
+        <v>2.939506181318299</v>
       </c>
       <c r="M4" t="n">
-        <v>8.324342435177551</v>
+        <v>3.03559072457936</v>
       </c>
       <c r="N4" t="n">
-        <v>8.047158714030836</v>
+        <v>3.054715010441874</v>
       </c>
       <c r="O4" t="n">
-        <v>8.123992812844582</v>
+        <v>3.461956998895394</v>
       </c>
       <c r="P4" t="n">
-        <v>7.890633734335388</v>
+        <v>2.811809238631388</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.370797542560537</v>
+        <v>3.407235677481878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.084076253133397</v>
+        <v>3.160184525386162</v>
       </c>
       <c r="B5" t="n">
-        <v>8.097344896378432</v>
+        <v>3.140168721970701</v>
       </c>
       <c r="C5" t="n">
-        <v>8.113379921196687</v>
+        <v>3.144299067294076</v>
       </c>
       <c r="D5" t="n">
-        <v>8.183423235993178</v>
+        <v>2.962378256252549</v>
       </c>
       <c r="E5" t="n">
-        <v>8.207354080246876</v>
+        <v>3.101224458430465</v>
       </c>
       <c r="F5" t="n">
-        <v>8.185810946962567</v>
+        <v>2.877125567732225</v>
       </c>
       <c r="G5" t="n">
-        <v>8.311802053260747</v>
+        <v>3.073260171847758</v>
       </c>
       <c r="H5" t="n">
-        <v>8.072718031532387</v>
+        <v>2.945455200175668</v>
       </c>
       <c r="I5" t="n">
-        <v>8.346343892648465</v>
+        <v>3.166760929071546</v>
       </c>
       <c r="J5" t="n">
-        <v>7.927771269047518</v>
+        <v>3.189966743035611</v>
       </c>
       <c r="K5" t="n">
-        <v>8.385623855868738</v>
+        <v>3.305398126717999</v>
       </c>
       <c r="L5" t="n">
-        <v>8.271448031015588</v>
+        <v>2.944115418019272</v>
       </c>
       <c r="M5" t="n">
-        <v>8.309264517695185</v>
+        <v>3.108900456116195</v>
       </c>
       <c r="N5" t="n">
-        <v>8.014715683332124</v>
+        <v>3.099170051543933</v>
       </c>
       <c r="O5" t="n">
-        <v>8.185890600545342</v>
+        <v>3.483387202426086</v>
       </c>
       <c r="P5" t="n">
-        <v>7.799575781454592</v>
+        <v>2.91858401100485</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.492441206884536</v>
+        <v>3.470154951059343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.084965718141056</v>
+        <v>3.121780035538195</v>
       </c>
       <c r="B6" t="n">
-        <v>8.092652921050181</v>
+        <v>3.095579108679201</v>
       </c>
       <c r="C6" t="n">
-        <v>8.1115984624962</v>
+        <v>3.09569697535547</v>
       </c>
       <c r="D6" t="n">
-        <v>8.164516889167254</v>
+        <v>2.938081015427913</v>
       </c>
       <c r="E6" t="n">
-        <v>8.202995891360731</v>
+        <v>3.043246675649283</v>
       </c>
       <c r="F6" t="n">
-        <v>8.150755784485852</v>
+        <v>2.903024310419618</v>
       </c>
       <c r="G6" t="n">
-        <v>8.322737352267495</v>
+        <v>3.072237980058443</v>
       </c>
       <c r="H6" t="n">
-        <v>8.042569782623159</v>
+        <v>2.886725669301745</v>
       </c>
       <c r="I6" t="n">
-        <v>8.367398357524158</v>
+        <v>3.191647688894342</v>
       </c>
       <c r="J6" t="n">
-        <v>7.906022047922061</v>
+        <v>3.03494774793905</v>
       </c>
       <c r="K6" t="n">
-        <v>8.438479697581897</v>
+        <v>3.306208529723655</v>
       </c>
       <c r="L6" t="n">
-        <v>8.208690490357887</v>
+        <v>2.980236449833437</v>
       </c>
       <c r="M6" t="n">
-        <v>8.367548182120331</v>
+        <v>3.117412100694151</v>
       </c>
       <c r="N6" t="n">
-        <v>7.917116021923068</v>
+        <v>3.125270374090269</v>
       </c>
       <c r="O6" t="n">
-        <v>8.364088940811225</v>
+        <v>3.506995062407157</v>
       </c>
       <c r="P6" t="n">
-        <v>7.809726555888131</v>
+        <v>2.946717023270594</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.567469824488704</v>
+        <v>3.60673996922102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.079528412859691</v>
+        <v>3.289223848864851</v>
       </c>
       <c r="B7" t="n">
-        <v>8.091253293809984</v>
+        <v>3.276827615623961</v>
       </c>
       <c r="C7" t="n">
-        <v>8.109868841841648</v>
+        <v>3.277680339262986</v>
       </c>
       <c r="D7" t="n">
-        <v>8.176170966932858</v>
+        <v>3.126732663343259</v>
       </c>
       <c r="E7" t="n">
-        <v>8.207160003660272</v>
+        <v>3.223765337285239</v>
       </c>
       <c r="F7" t="n">
-        <v>8.189249326619041</v>
+        <v>3.063009297731781</v>
       </c>
       <c r="G7" t="n">
-        <v>8.311729985733475</v>
+        <v>3.168481596928264</v>
       </c>
       <c r="H7" t="n">
-        <v>8.064183719092158</v>
+        <v>3.169244110796161</v>
       </c>
       <c r="I7" t="n">
-        <v>8.338566289244602</v>
+        <v>3.217661885239436</v>
       </c>
       <c r="J7" t="n">
-        <v>7.915909206926891</v>
+        <v>3.328726076545033</v>
       </c>
       <c r="K7" t="n">
-        <v>8.353505129042755</v>
+        <v>3.362279285367845</v>
       </c>
       <c r="L7" t="n">
-        <v>8.286241471416613</v>
+        <v>3.022974721031851</v>
       </c>
       <c r="M7" t="n">
-        <v>8.320475443385188</v>
+        <v>3.151759007009448</v>
       </c>
       <c r="N7" t="n">
-        <v>8.025254610938871</v>
+        <v>3.124152960875874</v>
       </c>
       <c r="O7" t="n">
-        <v>8.203295540553077</v>
+        <v>3.564162442182683</v>
       </c>
       <c r="P7" t="n">
-        <v>7.795269430614381</v>
+        <v>2.933837443848594</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.497221054022356</v>
+        <v>3.71112195525781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.085422777985077</v>
+        <v>3.327197707706606</v>
       </c>
       <c r="B8" t="n">
-        <v>8.098721133280831</v>
+        <v>3.310121332142169</v>
       </c>
       <c r="C8" t="n">
-        <v>8.115029256097174</v>
+        <v>3.318698685071935</v>
       </c>
       <c r="D8" t="n">
-        <v>8.18737809959511</v>
+        <v>3.137115696630108</v>
       </c>
       <c r="E8" t="n">
-        <v>8.209589437934923</v>
+        <v>3.27954690193474</v>
       </c>
       <c r="F8" t="n">
-        <v>8.197254511687978</v>
+        <v>3.073996513745018</v>
       </c>
       <c r="G8" t="n">
-        <v>8.3097765764416</v>
+        <v>3.216993293478929</v>
       </c>
       <c r="H8" t="n">
-        <v>8.071690121011809</v>
+        <v>3.127792535345618</v>
       </c>
       <c r="I8" t="n">
-        <v>8.327052553505792</v>
+        <v>3.271915823517761</v>
       </c>
       <c r="J8" t="n">
-        <v>7.925354478198704</v>
+        <v>3.279416598931998</v>
       </c>
       <c r="K8" t="n">
-        <v>8.292702262019512</v>
+        <v>3.342437961756625</v>
       </c>
       <c r="L8" t="n">
-        <v>8.282948491157267</v>
+        <v>3.053930408173228</v>
       </c>
       <c r="M8" t="n">
-        <v>8.307140422154506</v>
+        <v>3.205275675306449</v>
       </c>
       <c r="N8" t="n">
-        <v>7.991720452590393</v>
+        <v>3.142860908226778</v>
       </c>
       <c r="O8" t="n">
-        <v>8.213885041863174</v>
+        <v>3.590887922155278</v>
       </c>
       <c r="P8" t="n">
-        <v>7.762859904994137</v>
+        <v>2.93182591444587</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.533137233798596</v>
+        <v>3.81355533599149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.09084301464156</v>
+        <v>3.346869748784349</v>
       </c>
       <c r="B9" t="n">
-        <v>8.103961833290425</v>
+        <v>3.326391388270836</v>
       </c>
       <c r="C9" t="n">
-        <v>8.117493459792879</v>
+        <v>3.33100990581246</v>
       </c>
       <c r="D9" t="n">
-        <v>8.189280303012344</v>
+        <v>3.163843775238086</v>
       </c>
       <c r="E9" t="n">
-        <v>8.211452446732062</v>
+        <v>3.281024411766398</v>
       </c>
       <c r="F9" t="n">
-        <v>8.213348960607668</v>
+        <v>3.084804980767314</v>
       </c>
       <c r="G9" t="n">
-        <v>8.315585598442583</v>
+        <v>3.277244139752383</v>
       </c>
       <c r="H9" t="n">
-        <v>8.09571010141766</v>
+        <v>3.100120038392982</v>
       </c>
       <c r="I9" t="n">
-        <v>8.335911169818752</v>
+        <v>3.399063340438126</v>
       </c>
       <c r="J9" t="n">
-        <v>7.937815206532732</v>
+        <v>3.226441189261771</v>
       </c>
       <c r="K9" t="n">
-        <v>8.222040051528282</v>
+        <v>3.407130989599333</v>
       </c>
       <c r="L9" t="n">
-        <v>8.285010001740051</v>
+        <v>3.126349179007555</v>
       </c>
       <c r="M9" t="n">
-        <v>8.33562985359387</v>
+        <v>3.303512631131318</v>
       </c>
       <c r="N9" t="n">
-        <v>8.121512172695288</v>
+        <v>3.188700093903546</v>
       </c>
       <c r="O9" t="n">
-        <v>8.131485306995813</v>
+        <v>3.651620629675339</v>
       </c>
       <c r="P9" t="n">
-        <v>8.140112548615948</v>
+        <v>2.948981548389468</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.145099115766209</v>
+        <v>3.837668816171234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.08687171458604</v>
+        <v>3.411728346824273</v>
       </c>
       <c r="B10" t="n">
-        <v>8.102912428945922</v>
+        <v>3.393674884356085</v>
       </c>
       <c r="C10" t="n">
-        <v>8.114300994768941</v>
+        <v>3.396237138843047</v>
       </c>
       <c r="D10" t="n">
-        <v>8.204746373667916</v>
+        <v>3.230828428254369</v>
       </c>
       <c r="E10" t="n">
-        <v>8.212998105540681</v>
+        <v>3.334649109048578</v>
       </c>
       <c r="F10" t="n">
-        <v>8.227419197050795</v>
+        <v>3.177090875949871</v>
       </c>
       <c r="G10" t="n">
-        <v>8.294775151685551</v>
+        <v>3.300065726913491</v>
       </c>
       <c r="H10" t="n">
-        <v>8.103409315581331</v>
+        <v>3.335075285251278</v>
       </c>
       <c r="I10" t="n">
-        <v>8.347890815799667</v>
+        <v>3.395626459528203</v>
       </c>
       <c r="J10" t="n">
-        <v>7.953670694704096</v>
+        <v>3.470686186378213</v>
       </c>
       <c r="K10" t="n">
-        <v>8.381449628828529</v>
+        <v>3.473647888246799</v>
       </c>
       <c r="L10" t="n">
-        <v>8.298919034503751</v>
+        <v>3.179329414714921</v>
       </c>
       <c r="M10" t="n">
-        <v>8.317073097492351</v>
+        <v>3.33053881034101</v>
       </c>
       <c r="N10" t="n">
-        <v>8.004737491661265</v>
+        <v>3.186074729700156</v>
       </c>
       <c r="O10" t="n">
-        <v>8.308473671409057</v>
+        <v>3.719718983569757</v>
       </c>
       <c r="P10" t="n">
-        <v>7.758217239026652</v>
+        <v>2.953587815221432</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.591474000612259</v>
+        <v>3.848468373586505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.093625200497076</v>
+        <v>3.493389350012613</v>
       </c>
       <c r="B11" t="n">
-        <v>8.109156384795712</v>
+        <v>3.471782439275924</v>
       </c>
       <c r="C11" t="n">
-        <v>8.11628285176895</v>
+        <v>3.477096648632756</v>
       </c>
       <c r="D11" t="n">
-        <v>8.202565382710969</v>
+        <v>3.301778598864062</v>
       </c>
       <c r="E11" t="n">
-        <v>8.226350827567536</v>
+        <v>3.406681054444567</v>
       </c>
       <c r="F11" t="n">
-        <v>8.245215451088196</v>
+        <v>3.242299547299155</v>
       </c>
       <c r="G11" t="n">
-        <v>8.288851074509447</v>
+        <v>3.362954188099995</v>
       </c>
       <c r="H11" t="n">
-        <v>8.156686183374875</v>
+        <v>3.374857423085497</v>
       </c>
       <c r="I11" t="n">
-        <v>8.335969961748896</v>
+        <v>3.438186909819742</v>
       </c>
       <c r="J11" t="n">
-        <v>8.043705794434649</v>
+        <v>3.489218911457625</v>
       </c>
       <c r="K11" t="n">
-        <v>8.371465115444751</v>
+        <v>3.50052111920256</v>
       </c>
       <c r="L11" t="n">
-        <v>8.296495921942018</v>
+        <v>3.260500760750508</v>
       </c>
       <c r="M11" t="n">
-        <v>8.324128129109607</v>
+        <v>3.411008524823372</v>
       </c>
       <c r="N11" t="n">
-        <v>8.018990425607742</v>
+        <v>3.244443050255938</v>
       </c>
       <c r="O11" t="n">
-        <v>8.331704069871364</v>
+        <v>3.784753546348425</v>
       </c>
       <c r="P11" t="n">
-        <v>7.766705402962576</v>
+        <v>2.972246017266447</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.57334079927629</v>
+        <v>3.86781447154058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.105568180543063</v>
+        <v>3.528043266536648</v>
       </c>
       <c r="B12" t="n">
-        <v>8.115069082888562</v>
+        <v>3.506989865136392</v>
       </c>
       <c r="C12" t="n">
-        <v>8.129151330586232</v>
+        <v>3.511889406532932</v>
       </c>
       <c r="D12" t="n">
-        <v>8.193602458134851</v>
+        <v>3.341437858368061</v>
       </c>
       <c r="E12" t="n">
-        <v>8.217270319131131</v>
+        <v>3.462942995406169</v>
       </c>
       <c r="F12" t="n">
-        <v>8.184491605476437</v>
+        <v>3.292269449532923</v>
       </c>
       <c r="G12" t="n">
-        <v>8.331865905722083</v>
+        <v>3.414428328986497</v>
       </c>
       <c r="H12" t="n">
-        <v>8.094694834322919</v>
+        <v>3.433682361001313</v>
       </c>
       <c r="I12" t="n">
-        <v>8.382775924198869</v>
+        <v>3.448897371164762</v>
       </c>
       <c r="J12" t="n">
-        <v>7.986295790734866</v>
+        <v>3.533923607173199</v>
       </c>
       <c r="K12" t="n">
-        <v>8.423440974719629</v>
+        <v>3.587879816083437</v>
       </c>
       <c r="L12" t="n">
-        <v>8.213833835988531</v>
+        <v>3.314620683689832</v>
       </c>
       <c r="M12" t="n">
-        <v>8.360591769224605</v>
+        <v>3.461531936393573</v>
       </c>
       <c r="N12" t="n">
-        <v>7.938456860393979</v>
+        <v>3.323614931981647</v>
       </c>
       <c r="O12" t="n">
-        <v>8.404287448918584</v>
+        <v>3.834460243941328</v>
       </c>
       <c r="P12" t="n">
-        <v>7.809631098023059</v>
+        <v>3.024838870685036</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.549762074432165</v>
+        <v>3.862854790296621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.110562965920121</v>
+        <v>3.576985222859899</v>
       </c>
       <c r="B13" t="n">
-        <v>8.120108120256049</v>
+        <v>3.555527919274506</v>
       </c>
       <c r="C13" t="n">
-        <v>8.135150003974777</v>
+        <v>3.558699368141807</v>
       </c>
       <c r="D13" t="n">
-        <v>8.20255590014159</v>
+        <v>3.369284463891312</v>
       </c>
       <c r="E13" t="n">
-        <v>8.22244843418283</v>
+        <v>3.51181924337761</v>
       </c>
       <c r="F13" t="n">
-        <v>8.207507065699508</v>
+        <v>3.335790652448666</v>
       </c>
       <c r="G13" t="n">
-        <v>8.31010151248562</v>
+        <v>3.43971416495729</v>
       </c>
       <c r="H13" t="n">
-        <v>8.130353088212075</v>
+        <v>3.450615069152472</v>
       </c>
       <c r="I13" t="n">
-        <v>8.347904723568089</v>
+        <v>3.451213497757656</v>
       </c>
       <c r="J13" t="n">
-        <v>8.015507793960836</v>
+        <v>3.553156107637705</v>
       </c>
       <c r="K13" t="n">
-        <v>8.357061092559517</v>
+        <v>3.61428455020313</v>
       </c>
       <c r="L13" t="n">
-        <v>8.229869492978079</v>
+        <v>3.344994647739196</v>
       </c>
       <c r="M13" t="n">
-        <v>8.324322837867502</v>
+        <v>3.472584675141807</v>
       </c>
       <c r="N13" t="n">
-        <v>8.017656544181898</v>
+        <v>3.387647163969995</v>
       </c>
       <c r="O13" t="n">
-        <v>8.293271216182195</v>
+        <v>3.874324053173277</v>
       </c>
       <c r="P13" t="n">
-        <v>8.003475045591403</v>
+        <v>3.110764791386192</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.3468464688255</v>
+        <v>3.887333564364393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.115617807569903</v>
+        <v>3.627444411012794</v>
       </c>
       <c r="B14" t="n">
-        <v>8.126615059363255</v>
+        <v>3.611589394078044</v>
       </c>
       <c r="C14" t="n">
-        <v>8.141282697677196</v>
+        <v>3.618096377075358</v>
       </c>
       <c r="D14" t="n">
-        <v>8.195531212746344</v>
+        <v>3.446719714714383</v>
       </c>
       <c r="E14" t="n">
-        <v>8.225315330991455</v>
+        <v>3.566823073580546</v>
       </c>
       <c r="F14" t="n">
-        <v>8.214053831598102</v>
+        <v>3.364887944058062</v>
       </c>
       <c r="G14" t="n">
-        <v>8.328673440698145</v>
+        <v>3.51211771521295</v>
       </c>
       <c r="H14" t="n">
-        <v>8.108287149269392</v>
+        <v>3.394897356686651</v>
       </c>
       <c r="I14" t="n">
-        <v>8.345998094951812</v>
+        <v>3.524309398725889</v>
       </c>
       <c r="J14" t="n">
-        <v>7.930973848812126</v>
+        <v>3.549002374595889</v>
       </c>
       <c r="K14" t="n">
-        <v>8.222873253290965</v>
+        <v>3.609606264047712</v>
       </c>
       <c r="L14" t="n">
-        <v>8.279616316277826</v>
+        <v>3.365045718349132</v>
       </c>
       <c r="M14" t="n">
-        <v>8.342960511894383</v>
+        <v>3.512623335411623</v>
       </c>
       <c r="N14" t="n">
-        <v>8.168152506266793</v>
+        <v>3.466266278826523</v>
       </c>
       <c r="O14" t="n">
-        <v>8.193708030740593</v>
+        <v>3.953972970108454</v>
       </c>
       <c r="P14" t="n">
-        <v>8.183779780601792</v>
+        <v>3.208635339622155</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.193311659340592</v>
+        <v>3.881560881479396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.115435742237846</v>
+        <v>3.324481762498462</v>
       </c>
       <c r="B15" t="n">
-        <v>8.125820420049376</v>
+        <v>3.308726607409118</v>
       </c>
       <c r="C15" t="n">
-        <v>8.14098937019777</v>
+        <v>3.311000042135017</v>
       </c>
       <c r="D15" t="n">
-        <v>8.218224265610562</v>
+        <v>3.255751940206142</v>
       </c>
       <c r="E15" t="n">
-        <v>8.225226194839301</v>
+        <v>3.366994694885867</v>
       </c>
       <c r="F15" t="n">
-        <v>8.238958851812569</v>
+        <v>3.323785328216001</v>
       </c>
       <c r="G15" t="n">
-        <v>8.311501139725818</v>
+        <v>3.485149819682547</v>
       </c>
       <c r="H15" t="n">
-        <v>8.117121743073259</v>
+        <v>3.522021857122201</v>
       </c>
       <c r="I15" t="n">
-        <v>8.307668285183217</v>
+        <v>3.655203405400298</v>
       </c>
       <c r="J15" t="n">
-        <v>7.919666200914468</v>
+        <v>3.568979198480615</v>
       </c>
       <c r="K15" t="n">
-        <v>8.178828615043875</v>
+        <v>3.584283304714314</v>
       </c>
       <c r="L15" t="n">
-        <v>8.315579908900956</v>
+        <v>3.421620980491116</v>
       </c>
       <c r="M15" t="n">
-        <v>8.31624432092871</v>
+        <v>3.570916295541317</v>
       </c>
       <c r="N15" t="n">
-        <v>8.058505556548591</v>
+        <v>3.556044305248334</v>
       </c>
       <c r="O15" t="n">
-        <v>8.294111371829088</v>
+        <v>3.977829927852601</v>
       </c>
       <c r="P15" t="n">
-        <v>7.964203300597924</v>
+        <v>3.319473820883116</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.408672188998986</v>
+        <v>3.948187665280171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.113425437529703</v>
+        <v>3.311187143882543</v>
       </c>
       <c r="B16" t="n">
-        <v>8.122698758210127</v>
+        <v>3.306187740640597</v>
       </c>
       <c r="C16" t="n">
-        <v>8.142536925520265</v>
+        <v>3.313580115836028</v>
       </c>
       <c r="D16" t="n">
-        <v>8.194038024154949</v>
+        <v>3.287399606826467</v>
       </c>
       <c r="E16" t="n">
-        <v>8.232541048857517</v>
+        <v>3.403364081995856</v>
       </c>
       <c r="F16" t="n">
-        <v>8.204707811219112</v>
+        <v>3.360466180338242</v>
       </c>
       <c r="G16" t="n">
-        <v>8.326520897449331</v>
+        <v>3.507550799145346</v>
       </c>
       <c r="H16" t="n">
-        <v>8.091724893593719</v>
+        <v>3.445690283869361</v>
       </c>
       <c r="I16" t="n">
-        <v>8.349609057370968</v>
+        <v>3.590561236564359</v>
       </c>
       <c r="J16" t="n">
-        <v>7.923741809233146</v>
+        <v>3.526084266692009</v>
       </c>
       <c r="K16" t="n">
-        <v>8.240203597086259</v>
+        <v>3.660992422564842</v>
       </c>
       <c r="L16" t="n">
-        <v>8.275688636041444</v>
+        <v>3.450066757086804</v>
       </c>
       <c r="M16" t="n">
-        <v>8.314828889406217</v>
+        <v>3.584687206899451</v>
       </c>
       <c r="N16" t="n">
-        <v>8.084488428815694</v>
+        <v>3.608801800780073</v>
       </c>
       <c r="O16" t="n">
-        <v>8.250925854367647</v>
+        <v>4.002979892316263</v>
       </c>
       <c r="P16" t="n">
-        <v>8.009036888617265</v>
+        <v>3.432220071748323</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.349349867141301</v>
+        <v>4.013066681169527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.102555884337308</v>
+        <v>3.822598215888317</v>
       </c>
       <c r="B17" t="n">
-        <v>8.117455529515366</v>
+        <v>3.799996399033827</v>
       </c>
       <c r="C17" t="n">
-        <v>8.135364310042721</v>
+        <v>3.820589099504162</v>
       </c>
       <c r="D17" t="n">
-        <v>8.20960840307368</v>
+        <v>3.641748785091555</v>
       </c>
       <c r="E17" t="n">
-        <v>8.229161461131184</v>
+        <v>3.719713415065366</v>
       </c>
       <c r="F17" t="n">
-        <v>8.228388315641229</v>
+        <v>3.495799769946522</v>
       </c>
       <c r="G17" t="n">
-        <v>8.292190835444391</v>
+        <v>3.657178368290857</v>
       </c>
       <c r="H17" t="n">
-        <v>8.125169915790043</v>
+        <v>3.392115331893071</v>
       </c>
       <c r="I17" t="n">
-        <v>8.280677099705581</v>
+        <v>3.646013888221184</v>
       </c>
       <c r="J17" t="n">
-        <v>7.969316302006559</v>
+        <v>3.460955039338699</v>
       </c>
       <c r="K17" t="n">
-        <v>8.164371489770126</v>
+        <v>3.757242907256745</v>
       </c>
       <c r="L17" t="n">
-        <v>8.273713100754355</v>
+        <v>3.480235057707339</v>
       </c>
       <c r="M17" t="n">
-        <v>8.284896210907515</v>
+        <v>3.615018479081821</v>
       </c>
       <c r="N17" t="n">
-        <v>8.018606697633578</v>
+        <v>3.649837594569446</v>
       </c>
       <c r="O17" t="n">
-        <v>8.286398882068287</v>
+        <v>4.026770028007721</v>
       </c>
       <c r="P17" t="n">
-        <v>7.775697407418119</v>
+        <v>3.570399167100236</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.582588200933749</v>
+        <v>4.145099632608642</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.110167226691409</v>
+        <v>3.819520317894779</v>
       </c>
       <c r="B18" t="n">
-        <v>8.127699865300102</v>
+        <v>3.805453162103061</v>
       </c>
       <c r="C18" t="n">
-        <v>8.141635449258061</v>
+        <v>3.81693059211949</v>
       </c>
       <c r="D18" t="n">
-        <v>8.224765974138821</v>
+        <v>3.621745974853005</v>
       </c>
       <c r="E18" t="n">
-        <v>8.230729878106311</v>
+        <v>3.741314014830412</v>
       </c>
       <c r="F18" t="n">
-        <v>8.24488545767384</v>
+        <v>3.513573693494298</v>
       </c>
       <c r="G18" t="n">
-        <v>8.293960282890332</v>
+        <v>3.666932531815186</v>
       </c>
       <c r="H18" t="n">
-        <v>8.166302140895493</v>
+        <v>3.515602114027007</v>
       </c>
       <c r="I18" t="n">
-        <v>8.280928703879745</v>
+        <v>3.691691958504248</v>
       </c>
       <c r="J18" t="n">
-        <v>8.008589311342623</v>
+        <v>3.626874196163189</v>
       </c>
       <c r="K18" t="n">
-        <v>8.133833191173814</v>
+        <v>3.80177015329907</v>
       </c>
       <c r="L18" t="n">
-        <v>8.261986955461477</v>
+        <v>3.511178865372683</v>
       </c>
       <c r="M18" t="n">
-        <v>8.279578386000313</v>
+        <v>3.655525636187706</v>
       </c>
       <c r="N18" t="n">
-        <v>8.00830736294645</v>
+        <v>3.680450633073983</v>
       </c>
       <c r="O18" t="n">
-        <v>8.267931894290212</v>
+        <v>4.078097160378309</v>
       </c>
       <c r="P18" t="n">
-        <v>7.782096245234416</v>
+        <v>3.594529724026779</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.581767642596903</v>
+        <v>4.216682385317116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.101582972719122</v>
+        <v>3.82792541842206</v>
       </c>
       <c r="B19" t="n">
-        <v>8.117355014279958</v>
+        <v>3.80675136609334</v>
       </c>
       <c r="C19" t="n">
-        <v>8.134212493948935</v>
+        <v>3.819619437272933</v>
       </c>
       <c r="D19" t="n">
-        <v>8.204814648167439</v>
+        <v>3.631763714251826</v>
       </c>
       <c r="E19" t="n">
-        <v>8.229237953857501</v>
+        <v>3.735149680469937</v>
       </c>
       <c r="F19" t="n">
-        <v>8.214755541732076</v>
+        <v>3.533207868742184</v>
       </c>
       <c r="G19" t="n">
-        <v>8.314996414798561</v>
+        <v>3.681529809224896</v>
       </c>
       <c r="H19" t="n">
-        <v>8.108600074058867</v>
+        <v>3.484723272246221</v>
       </c>
       <c r="I19" t="n">
-        <v>8.295251176668328</v>
+        <v>3.715666597307851</v>
       </c>
       <c r="J19" t="n">
-        <v>7.990863228318619</v>
+        <v>3.566887296997852</v>
       </c>
       <c r="K19" t="n">
-        <v>8.134923686652288</v>
+        <v>3.822516173256961</v>
       </c>
       <c r="L19" t="n">
-        <v>8.264975229158143</v>
+        <v>3.557577871357525</v>
       </c>
       <c r="M19" t="n">
-        <v>8.282939008587888</v>
+        <v>3.692670901576128</v>
       </c>
       <c r="N19" t="n">
-        <v>8.027725768518787</v>
+        <v>3.726012507232095</v>
       </c>
       <c r="O19" t="n">
-        <v>8.228792273096733</v>
+        <v>4.153325427294544</v>
       </c>
       <c r="P19" t="n">
-        <v>7.776505954500419</v>
+        <v>3.585013521256744</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.563054740186292</v>
+        <v>4.247998911543008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.101868081971755</v>
+        <v>3.892675245009553</v>
       </c>
       <c r="B20" t="n">
-        <v>8.119061876768006</v>
+        <v>3.876552197396798</v>
       </c>
       <c r="C20" t="n">
-        <v>8.13342923371831</v>
+        <v>3.887284932759381</v>
       </c>
       <c r="D20" t="n">
-        <v>8.211399344343544</v>
+        <v>3.692911089732179</v>
       </c>
       <c r="E20" t="n">
-        <v>8.229958629130232</v>
+        <v>3.829650541082291</v>
       </c>
       <c r="F20" t="n">
-        <v>8.227627813577111</v>
+        <v>3.544348961093417</v>
       </c>
       <c r="G20" t="n">
-        <v>8.312126989304769</v>
+        <v>3.748826669720682</v>
       </c>
       <c r="H20" t="n">
-        <v>8.129219605085755</v>
+        <v>3.464794337499255</v>
       </c>
       <c r="I20" t="n">
-        <v>8.276403621772548</v>
+        <v>3.742424003372286</v>
       </c>
       <c r="J20" t="n">
-        <v>7.987936275237265</v>
+        <v>3.537940355007004</v>
       </c>
       <c r="K20" t="n">
-        <v>8.087575953405183</v>
+        <v>3.837332849739663</v>
       </c>
       <c r="L20" t="n">
-        <v>8.278268527083561</v>
+        <v>3.59439533745415</v>
       </c>
       <c r="M20" t="n">
-        <v>8.288505908984087</v>
+        <v>3.769263452068078</v>
       </c>
       <c r="N20" t="n">
-        <v>8.026185799251794</v>
+        <v>3.779248894141432</v>
       </c>
       <c r="O20" t="n">
-        <v>8.215990172265096</v>
+        <v>4.202262557580656</v>
       </c>
       <c r="P20" t="n">
-        <v>7.772986656918586</v>
+        <v>3.562422470177411</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.556873369294397</v>
+        <v>4.255024879149533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.107365443525847</v>
+        <v>3.909124235745975</v>
       </c>
       <c r="B21" t="n">
-        <v>8.124824750264683</v>
+        <v>3.887754543296328</v>
       </c>
       <c r="C21" t="n">
-        <v>8.134596221923101</v>
+        <v>3.892480347355879</v>
       </c>
       <c r="D21" t="n">
-        <v>8.226988688401033</v>
+        <v>3.6928472375485</v>
       </c>
       <c r="E21" t="n">
-        <v>8.230950505887174</v>
+        <v>3.836402167039169</v>
       </c>
       <c r="F21" t="n">
-        <v>8.258394326009787</v>
+        <v>3.598139599806439</v>
       </c>
       <c r="G21" t="n">
-        <v>8.311447405166009</v>
+        <v>3.767903994529501</v>
       </c>
       <c r="H21" t="n">
-        <v>8.169307483217038</v>
+        <v>3.4844136634021</v>
       </c>
       <c r="I21" t="n">
-        <v>8.291418954297018</v>
+        <v>3.762754984136259</v>
       </c>
       <c r="J21" t="n">
-        <v>8.013029682496709</v>
+        <v>3.548189372954851</v>
       </c>
       <c r="K21" t="n">
-        <v>8.129524311648435</v>
+        <v>3.827814790801499</v>
       </c>
       <c r="L21" t="n">
-        <v>8.297942329857813</v>
+        <v>3.626081612371583</v>
       </c>
       <c r="M21" t="n">
-        <v>8.311542863031081</v>
+        <v>3.764567717932236</v>
       </c>
       <c r="N21" t="n">
-        <v>8.036691853951362</v>
+        <v>3.79596851419124</v>
       </c>
       <c r="O21" t="n">
-        <v>8.268043788608875</v>
+        <v>4.222642541183267</v>
       </c>
       <c r="P21" t="n">
-        <v>7.762530543751073</v>
+        <v>3.55455231730526</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.563372722346102</v>
+        <v>4.236011406524394</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.109509136376575</v>
+        <v>3.913215230304989</v>
       </c>
       <c r="B22" t="n">
-        <v>8.127470387121154</v>
+        <v>3.890636429935314</v>
       </c>
       <c r="C22" t="n">
-        <v>8.135760681442722</v>
+        <v>3.899278377516013</v>
       </c>
       <c r="D22" t="n">
-        <v>8.22922404608908</v>
+        <v>3.711348779003323</v>
       </c>
       <c r="E22" t="n">
-        <v>8.231530839133109</v>
+        <v>3.84991618472808</v>
       </c>
       <c r="F22" t="n">
-        <v>8.256932113811693</v>
+        <v>3.620635986311131</v>
       </c>
       <c r="G22" t="n">
-        <v>8.318253993465561</v>
+        <v>3.791511854510572</v>
       </c>
       <c r="H22" t="n">
-        <v>8.164858261664865</v>
+        <v>3.502542115062749</v>
       </c>
       <c r="I22" t="n">
-        <v>8.298141463814753</v>
+        <v>3.792090978967202</v>
       </c>
       <c r="J22" t="n">
-        <v>8.0057300005895</v>
+        <v>3.549588181257788</v>
       </c>
       <c r="K22" t="n">
-        <v>8.145292560181522</v>
+        <v>3.87603581142297</v>
       </c>
       <c r="L22" t="n">
-        <v>8.300017116037727</v>
+        <v>3.657072195473808</v>
       </c>
       <c r="M22" t="n">
-        <v>8.305850792719093</v>
+        <v>3.795980393667274</v>
       </c>
       <c r="N22" t="n">
-        <v>8.024753299104418</v>
+        <v>3.812987348543641</v>
       </c>
       <c r="O22" t="n">
-        <v>8.268187923663421</v>
+        <v>4.248266570987386</v>
       </c>
       <c r="P22" t="n">
-        <v>7.767305965689851</v>
+        <v>3.555274737941543</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.551169287727864</v>
+        <v>4.251778441089771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.109969989248347</v>
+        <v>3.977949836313813</v>
       </c>
       <c r="B23" t="n">
-        <v>8.125748352522102</v>
+        <v>3.965888827037242</v>
       </c>
       <c r="C23" t="n">
-        <v>8.137906902978617</v>
+        <v>3.97014093698996</v>
       </c>
       <c r="D23" t="n">
-        <v>8.22072007787086</v>
+        <v>3.784725332592846</v>
       </c>
       <c r="E23" t="n">
-        <v>8.231277970616363</v>
+        <v>3.920175118326078</v>
       </c>
       <c r="F23" t="n">
-        <v>8.242071663253732</v>
+        <v>3.639415581751863</v>
       </c>
       <c r="G23" t="n">
-        <v>8.32764047280723</v>
+        <v>3.847917462885454</v>
       </c>
       <c r="H23" t="n">
-        <v>8.136349865086745</v>
+        <v>3.530216839417141</v>
       </c>
       <c r="I23" t="n">
-        <v>8.300898994989884</v>
+        <v>3.816414577379287</v>
       </c>
       <c r="J23" t="n">
-        <v>7.985573851119551</v>
+        <v>3.597366691397013</v>
       </c>
       <c r="K23" t="n">
-        <v>8.110146365038778</v>
+        <v>3.90382710313594</v>
       </c>
       <c r="L23" t="n">
-        <v>8.308232814146855</v>
+        <v>3.656238775983338</v>
       </c>
       <c r="M23" t="n">
-        <v>8.317304472185175</v>
+        <v>3.83589988794313</v>
       </c>
       <c r="N23" t="n">
-        <v>8.042228410125551</v>
+        <v>3.794157265329768</v>
       </c>
       <c r="O23" t="n">
-        <v>8.257313945271983</v>
+        <v>4.263739959754562</v>
       </c>
       <c r="P23" t="n">
-        <v>7.770529407107091</v>
+        <v>3.548384270608524</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.548043832860865</v>
+        <v>4.286807674809738</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.111874089179455</v>
+        <v>3.983564744907742</v>
       </c>
       <c r="B24" t="n">
-        <v>8.125083308323056</v>
+        <v>3.973460508074053</v>
       </c>
       <c r="C24" t="n">
-        <v>8.135165176085781</v>
+        <v>3.974056338043855</v>
       </c>
       <c r="D24" t="n">
-        <v>8.223224108357952</v>
+        <v>3.809257564302769</v>
       </c>
       <c r="E24" t="n">
-        <v>8.227440058703426</v>
+        <v>3.92358675534943</v>
       </c>
       <c r="F24" t="n">
-        <v>8.241785289658516</v>
+        <v>3.677119553747483</v>
       </c>
       <c r="G24" t="n">
-        <v>8.34671118416904</v>
+        <v>3.839912180973423</v>
       </c>
       <c r="H24" t="n">
-        <v>8.141517865397773</v>
+        <v>3.540648133075376</v>
       </c>
       <c r="I24" t="n">
-        <v>8.33039737181107</v>
+        <v>3.816627665480637</v>
       </c>
       <c r="J24" t="n">
-        <v>7.999190820746408</v>
+        <v>3.617119290171608</v>
       </c>
       <c r="K24" t="n">
-        <v>8.153602451813139</v>
+        <v>3.898198087664222</v>
       </c>
       <c r="L24" t="n">
-        <v>8.305752173997561</v>
+        <v>3.705338877831283</v>
       </c>
       <c r="M24" t="n">
-        <v>8.349753192425514</v>
+        <v>3.85590826668607</v>
       </c>
       <c r="N24" t="n">
-        <v>8.128976219138385</v>
+        <v>3.833319814242118</v>
       </c>
       <c r="O24" t="n">
-        <v>8.206409616336824</v>
+        <v>4.317649764461545</v>
       </c>
       <c r="P24" t="n">
-        <v>7.914114472629275</v>
+        <v>3.554537467960218</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.354780850709746</v>
+        <v>4.362658129283224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.11754782652398</v>
+        <v>4.034327230933116</v>
       </c>
       <c r="B25" t="n">
-        <v>8.128217613588143</v>
+        <v>4.021381943159306</v>
       </c>
       <c r="C25" t="n">
-        <v>8.141244767399686</v>
+        <v>4.026520187777392</v>
       </c>
       <c r="D25" t="n">
-        <v>8.223322094908193</v>
+        <v>3.843518344416823</v>
       </c>
       <c r="E25" t="n">
-        <v>8.229194334038363</v>
+        <v>3.970243397470748</v>
       </c>
       <c r="F25" t="n">
-        <v>8.251905087698752</v>
+        <v>3.732463805185503</v>
       </c>
       <c r="G25" t="n">
-        <v>8.338996165723072</v>
+        <v>3.855790585626614</v>
       </c>
       <c r="H25" t="n">
-        <v>8.151226119927003</v>
+        <v>3.775431127531187</v>
       </c>
       <c r="I25" t="n">
-        <v>8.312667495759316</v>
+        <v>3.849100955685285</v>
       </c>
       <c r="J25" t="n">
-        <v>7.976739889486976</v>
+        <v>3.959765328375632</v>
       </c>
       <c r="K25" t="n">
-        <v>8.123044555906779</v>
+        <v>3.999859302455729</v>
       </c>
       <c r="L25" t="n">
-        <v>8.325821083829233</v>
+        <v>3.723914666011316</v>
       </c>
       <c r="M25" t="n">
-        <v>8.333687823385249</v>
+        <v>3.869256342944139</v>
       </c>
       <c r="N25" t="n">
-        <v>8.035827675795378</v>
+        <v>3.837233359127883</v>
       </c>
       <c r="O25" t="n">
-        <v>8.275773979165846</v>
+        <v>4.324295960068627</v>
       </c>
       <c r="P25" t="n">
-        <v>7.746386153299325</v>
+        <v>3.533200072836038</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.508279626431019</v>
+        <v>4.478135174701617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.127149876276176</v>
+        <v>4.050883879421091</v>
       </c>
       <c r="B26" t="n">
-        <v>8.139054926044651</v>
+        <v>4.039558655191341</v>
       </c>
       <c r="C26" t="n">
-        <v>8.150435905812166</v>
+        <v>4.041517655035979</v>
       </c>
       <c r="D26" t="n">
-        <v>8.231257741135023</v>
+        <v>3.86701297814195</v>
       </c>
       <c r="E26" t="n">
-        <v>8.236868893521651</v>
+        <v>3.986491179581853</v>
       </c>
       <c r="F26" t="n">
-        <v>8.224118630735948</v>
+        <v>3.748938411042122</v>
       </c>
       <c r="G26" t="n">
-        <v>8.370605994659101</v>
+        <v>3.89857377609378</v>
       </c>
       <c r="H26" t="n">
-        <v>8.111561164389981</v>
+        <v>3.781841961019356</v>
       </c>
       <c r="I26" t="n">
-        <v>8.433745998948384</v>
+        <v>3.913740154652216</v>
       </c>
       <c r="J26" t="n">
-        <v>7.986195275499459</v>
+        <v>4.025037109441343</v>
       </c>
       <c r="K26" t="n">
-        <v>8.454526733654697</v>
+        <v>4.226482210577449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.257912611485382</v>
+        <v>3.740024349213532</v>
       </c>
       <c r="M26" t="n">
-        <v>8.352313486157582</v>
+        <v>3.910811492576348</v>
       </c>
       <c r="N26" t="n">
-        <v>8.081167000848216</v>
+        <v>3.789713227592385</v>
       </c>
       <c r="O26" t="n">
-        <v>8.214604452793321</v>
+        <v>4.340636179352617</v>
       </c>
       <c r="P26" t="n">
-        <v>8.064171075666321</v>
+        <v>3.516526485755858</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.081387628629079</v>
+        <v>4.562842149791654</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.141488153347055</v>
+        <v>4.091047274189259</v>
       </c>
       <c r="B27" t="n">
-        <v>8.147016491294448</v>
+        <v>4.066493510929025</v>
       </c>
       <c r="C27" t="n">
-        <v>8.169232254833306</v>
+        <v>4.069448159358716</v>
       </c>
       <c r="D27" t="n">
-        <v>8.206331859267923</v>
+        <v>3.902409361918075</v>
       </c>
       <c r="E27" t="n">
-        <v>8.255956041337049</v>
+        <v>3.993367540037083</v>
       </c>
       <c r="F27" t="n">
-        <v>8.208457219151187</v>
+        <v>3.822557751423078</v>
       </c>
       <c r="G27" t="n">
-        <v>8.36383354360931</v>
+        <v>3.941586388941841</v>
       </c>
       <c r="H27" t="n">
-        <v>8.104853194811961</v>
+        <v>3.928388291068694</v>
       </c>
       <c r="I27" t="n">
-        <v>8.404910137641075</v>
+        <v>4.004194197507055</v>
       </c>
       <c r="J27" t="n">
-        <v>8.01555331029385</v>
+        <v>4.211893100307512</v>
       </c>
       <c r="K27" t="n">
-        <v>8.364152157940412</v>
+        <v>4.344271299018848</v>
       </c>
       <c r="L27" t="n">
-        <v>8.267029153685424</v>
+        <v>3.784366720910087</v>
       </c>
       <c r="M27" t="n">
-        <v>8.346010106206357</v>
+        <v>3.941389263886411</v>
       </c>
       <c r="N27" t="n">
-        <v>8.167880040439998</v>
+        <v>3.792759199494083</v>
       </c>
       <c r="O27" t="n">
-        <v>8.180732082803692</v>
+        <v>4.389150474538663</v>
       </c>
       <c r="P27" t="n">
-        <v>8.155639307715539</v>
+        <v>3.532504752254455</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.232147206142683</v>
+        <v>4.645184737917413</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.141488153347055</v>
+        <v>4.163540291748794</v>
       </c>
       <c r="B28" t="n">
-        <v>8.147016491294448</v>
+        <v>4.14029883935663</v>
       </c>
       <c r="C28" t="n">
-        <v>8.169232254833306</v>
+        <v>4.141212445310326</v>
       </c>
       <c r="D28" t="n">
-        <v>8.206331859267923</v>
+        <v>3.927499186534317</v>
       </c>
       <c r="E28" t="n">
-        <v>8.255956041337049</v>
+        <v>4.078097902845562</v>
       </c>
       <c r="F28" t="n">
-        <v>8.208457219151187</v>
+        <v>3.84786437647693</v>
       </c>
       <c r="G28" t="n">
-        <v>8.36383354360931</v>
+        <v>4.003971086097802</v>
       </c>
       <c r="H28" t="n">
-        <v>8.104853194811961</v>
+        <v>4.060750897967737</v>
       </c>
       <c r="I28" t="n">
-        <v>8.404910137641075</v>
+        <v>4.123308218759809</v>
       </c>
       <c r="J28" t="n">
-        <v>8.01555331029385</v>
+        <v>4.350392199045076</v>
       </c>
       <c r="K28" t="n">
-        <v>8.364152157940412</v>
+        <v>4.502171438287143</v>
       </c>
       <c r="L28" t="n">
-        <v>8.267029153685424</v>
+        <v>3.803589198066689</v>
       </c>
       <c r="M28" t="n">
-        <v>8.346010106206357</v>
+        <v>3.995854434097957</v>
       </c>
       <c r="N28" t="n">
-        <v>8.167880040439998</v>
+        <v>3.830416767286447</v>
       </c>
       <c r="O28" t="n">
-        <v>8.180732082803692</v>
+        <v>4.44113951646449</v>
       </c>
       <c r="P28" t="n">
-        <v>8.155639307715539</v>
+        <v>3.523952271977634</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.232147206142683</v>
+        <v>4.68344927268836</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.141488153347055</v>
+        <v>4.225820672255836</v>
       </c>
       <c r="B29" t="n">
-        <v>8.147016491294448</v>
+        <v>4.200662169418776</v>
       </c>
       <c r="C29" t="n">
-        <v>8.169232254833306</v>
+        <v>4.203769766102398</v>
       </c>
       <c r="D29" t="n">
-        <v>8.206331859267923</v>
+        <v>4.018333743855852</v>
       </c>
       <c r="E29" t="n">
-        <v>8.255956041337049</v>
+        <v>4.148756283825183</v>
       </c>
       <c r="F29" t="n">
-        <v>8.208457219151187</v>
+        <v>3.944774543322314</v>
       </c>
       <c r="G29" t="n">
-        <v>8.36383354360931</v>
+        <v>4.067623917320332</v>
       </c>
       <c r="H29" t="n">
-        <v>8.104853194811961</v>
+        <v>4.243253432101277</v>
       </c>
       <c r="I29" t="n">
-        <v>8.404910137641075</v>
+        <v>4.323602124421549</v>
       </c>
       <c r="J29" t="n">
-        <v>8.01555331029385</v>
+        <v>4.479212494684399</v>
       </c>
       <c r="K29" t="n">
-        <v>8.364152157940412</v>
+        <v>4.648459018499128</v>
       </c>
       <c r="L29" t="n">
-        <v>8.267029153685424</v>
+        <v>3.867614376616142</v>
       </c>
       <c r="M29" t="n">
-        <v>8.346010106206357</v>
+        <v>4.023773801411913</v>
       </c>
       <c r="N29" t="n">
-        <v>8.167880040439998</v>
+        <v>3.921272856158292</v>
       </c>
       <c r="O29" t="n">
-        <v>8.180732082803692</v>
+        <v>4.505576764338852</v>
       </c>
       <c r="P29" t="n">
-        <v>8.155639307715539</v>
+        <v>3.573224254994438</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.232147206142683</v>
+        <v>4.69064749269737</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.141488153347055</v>
+        <v>4.263659773291337</v>
       </c>
       <c r="B30" t="n">
-        <v>8.147016491294448</v>
+        <v>4.239447544967065</v>
       </c>
       <c r="C30" t="n">
-        <v>8.169232254833306</v>
+        <v>4.24332916376099</v>
       </c>
       <c r="D30" t="n">
-        <v>8.206331859267923</v>
+        <v>4.037844669539891</v>
       </c>
       <c r="E30" t="n">
-        <v>8.255956041337049</v>
+        <v>4.187912892999518</v>
       </c>
       <c r="F30" t="n">
-        <v>8.208457219151187</v>
+        <v>3.940657562409477</v>
       </c>
       <c r="G30" t="n">
-        <v>8.36383354360931</v>
+        <v>4.13722205506397</v>
       </c>
       <c r="H30" t="n">
-        <v>8.104853194811961</v>
+        <v>4.246861451712807</v>
       </c>
       <c r="I30" t="n">
-        <v>8.404910137641075</v>
+        <v>4.542833399815088</v>
       </c>
       <c r="J30" t="n">
-        <v>8.01555331029385</v>
+        <v>4.501790923820447</v>
       </c>
       <c r="K30" t="n">
-        <v>8.364152157940412</v>
+        <v>4.850989977991414</v>
       </c>
       <c r="L30" t="n">
-        <v>8.267029153685424</v>
+        <v>3.873349936138535</v>
       </c>
       <c r="M30" t="n">
-        <v>8.346010106206357</v>
+        <v>4.075923216264191</v>
       </c>
       <c r="N30" t="n">
-        <v>8.167880040439998</v>
+        <v>3.94435727672664</v>
       </c>
       <c r="O30" t="n">
-        <v>8.180732082803692</v>
+        <v>4.552124263774113</v>
       </c>
       <c r="P30" t="n">
-        <v>8.155639307715539</v>
+        <v>3.574255170773965</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.232147206142683</v>
+        <v>4.732659630923242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.369913609051681</v>
+        <v>4.327728757408663</v>
       </c>
       <c r="B31" t="n">
-        <v>7.331021799004614</v>
+        <v>4.304903086677669</v>
       </c>
       <c r="C31" t="n">
-        <v>7.33633077351373</v>
+        <v>4.307998432651631</v>
       </c>
       <c r="D31" t="n">
-        <v>6.988848972539902</v>
+        <v>4.104070149790912</v>
       </c>
       <c r="E31" t="n">
-        <v>7.235028484848198</v>
+        <v>4.248529404394627</v>
       </c>
       <c r="F31" t="n">
-        <v>6.831946586583207</v>
+        <v>4.011954465225896</v>
       </c>
       <c r="G31" t="n">
-        <v>7.19917046483081</v>
+        <v>4.227530574337399</v>
       </c>
       <c r="H31" t="n">
-        <v>7.287833752858007</v>
+        <v>4.279596832857443</v>
       </c>
       <c r="I31" t="n">
-        <v>7.862178440145785</v>
+        <v>4.616800957337275</v>
       </c>
       <c r="J31" t="n">
-        <v>7.694737126582345</v>
+        <v>4.518381725802017</v>
       </c>
       <c r="K31" t="n">
-        <v>8.209532542518655</v>
+        <v>4.821002468146763</v>
       </c>
       <c r="L31" t="n">
-        <v>6.755229439458457</v>
+        <v>3.966966147020024</v>
       </c>
       <c r="M31" t="n">
-        <v>7.122867389902233</v>
+        <v>4.182845182770379</v>
       </c>
       <c r="N31" t="n">
-        <v>6.722034757093713</v>
+        <v>3.947388770516922</v>
       </c>
       <c r="O31" t="n">
-        <v>7.895627255369861</v>
+        <v>4.636859081386104</v>
       </c>
       <c r="P31" t="n">
-        <v>6.073284773095549</v>
+        <v>3.566408034386628</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.098548550518151</v>
+        <v>4.756111944014999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.429588840533054</v>
+        <v>4.950192141244</v>
       </c>
       <c r="B32" t="n">
-        <v>8.354215689574815</v>
+        <v>4.905919932702768</v>
       </c>
       <c r="C32" t="n">
-        <v>8.404079464563559</v>
+        <v>4.935199871256178</v>
       </c>
       <c r="D32" t="n">
-        <v>7.983177921923368</v>
+        <v>4.687997998308289</v>
       </c>
       <c r="E32" t="n">
-        <v>8.316192482882776</v>
+        <v>4.883534545052263</v>
       </c>
       <c r="F32" t="n">
-        <v>7.760030306291732</v>
+        <v>4.556978885901902</v>
       </c>
       <c r="G32" t="n">
-        <v>8.411413283720531</v>
+        <v>4.939492816907761</v>
       </c>
       <c r="H32" t="n">
-        <v>7.708589263929776</v>
+        <v>4.526854762082865</v>
       </c>
       <c r="I32" t="n">
-        <v>8.608132978495588</v>
+        <v>5.054999189782611</v>
       </c>
       <c r="J32" t="n">
-        <v>7.832133867328424</v>
+        <v>4.599346665941524</v>
       </c>
       <c r="K32" t="n">
-        <v>8.481524873016543</v>
+        <v>4.980560536788974</v>
       </c>
       <c r="L32" t="n">
-        <v>8.003574928655519</v>
+        <v>4.699990329364041</v>
       </c>
       <c r="M32" t="n">
-        <v>8.431597880898613</v>
+        <v>4.951345935353747</v>
       </c>
       <c r="N32" t="n">
-        <v>8.517387950404265</v>
+        <v>5.001752408331745</v>
       </c>
       <c r="O32" t="n">
-        <v>8.991270504673405</v>
+        <v>5.280071455048341</v>
       </c>
       <c r="P32" t="n">
-        <v>8.146519604659039</v>
+        <v>4.783990104396464</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.738506928360295</v>
+        <v>5.131541623735044</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.366122635857167</v>
+        <v>4.912954438682692</v>
       </c>
       <c r="B33" t="n">
-        <v>8.304935408688467</v>
+        <v>4.876991181159596</v>
       </c>
       <c r="C33" t="n">
-        <v>8.353220019790122</v>
+        <v>4.905381272711377</v>
       </c>
       <c r="D33" t="n">
-        <v>8.089024890006145</v>
+        <v>4.750128029196782</v>
       </c>
       <c r="E33" t="n">
-        <v>8.413204857161686</v>
+        <v>4.940498860034343</v>
       </c>
       <c r="F33" t="n">
-        <v>7.985210984798019</v>
+        <v>4.689192256883275</v>
       </c>
       <c r="G33" t="n">
-        <v>8.561373796721211</v>
+        <v>5.027520848016397</v>
       </c>
       <c r="H33" t="n">
-        <v>7.890051504575577</v>
+        <v>4.633346468816468</v>
       </c>
       <c r="I33" t="n">
-        <v>8.834863108838245</v>
+        <v>5.188172570920936</v>
       </c>
       <c r="J33" t="n">
-        <v>8.013687772811545</v>
+        <v>4.706006541507724</v>
       </c>
       <c r="K33" t="n">
-        <v>8.796200776970126</v>
+        <v>5.165500590911124</v>
       </c>
       <c r="L33" t="n">
-        <v>8.280430552901754</v>
+        <v>4.862549450639199</v>
       </c>
       <c r="M33" t="n">
-        <v>8.688248678485426</v>
+        <v>5.102006276446915</v>
       </c>
       <c r="N33" t="n">
-        <v>8.360861074194942</v>
+        <v>4.909868373549381</v>
       </c>
       <c r="O33" t="n">
-        <v>9.088405520182938</v>
+        <v>5.336979342519262</v>
       </c>
       <c r="P33" t="n">
-        <v>8.176706416017071</v>
+        <v>4.801754747103589</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.281415633817307</v>
+        <v>5.450404579686504</v>
       </c>
     </row>
   </sheetData>
@@ -2259,1698 +2259,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.832634072863115</v>
+        <v>2.931696168293567</v>
       </c>
       <c r="B2" t="n">
-        <v>4.800596580048136</v>
+        <v>2.903655964434334</v>
       </c>
       <c r="C2" t="n">
-        <v>4.812307553230008</v>
+        <v>2.897194828789836</v>
       </c>
       <c r="D2" t="n">
-        <v>4.804411101623273</v>
+        <v>2.88980709401473</v>
       </c>
       <c r="E2" t="n">
-        <v>4.827638655314767</v>
+        <v>2.913626928396273</v>
       </c>
       <c r="F2" t="n">
-        <v>4.952855351780408</v>
+        <v>3.0288364999871</v>
       </c>
       <c r="G2" t="n">
-        <v>4.98708268595042</v>
+        <v>3.094089904988322</v>
       </c>
       <c r="H2" t="n">
-        <v>5.200936119249</v>
+        <v>3.137737884187359</v>
       </c>
       <c r="I2" t="n">
-        <v>5.245253855494177</v>
+        <v>3.356497692875823</v>
       </c>
       <c r="J2" t="n">
-        <v>5.393645635434086</v>
+        <v>3.107907591783338</v>
       </c>
       <c r="K2" t="n">
-        <v>5.474960564364599</v>
+        <v>3.245131688632251</v>
       </c>
       <c r="L2" t="n">
-        <v>5.321331561357202</v>
+        <v>3.555322998312929</v>
       </c>
       <c r="M2" t="n">
-        <v>5.342235569465431</v>
+        <v>3.581908523208505</v>
       </c>
       <c r="N2" t="n">
-        <v>5.501877785801085</v>
+        <v>3.884168426468735</v>
       </c>
       <c r="O2" t="n">
-        <v>5.532088619668208</v>
+        <v>3.85557786875889</v>
       </c>
       <c r="P2" t="n">
-        <v>5.805768215344093</v>
+        <v>4.2528279185506</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.742851999692133</v>
+        <v>4.259179725892228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.836034522242078</v>
+        <v>2.918003587230528</v>
       </c>
       <c r="B3" t="n">
-        <v>4.802512691233791</v>
+        <v>2.885087229693196</v>
       </c>
       <c r="C3" t="n">
-        <v>4.81694263314199</v>
+        <v>2.87597381540742</v>
       </c>
       <c r="D3" t="n">
-        <v>4.801279008957709</v>
+        <v>2.830040336389638</v>
       </c>
       <c r="E3" t="n">
-        <v>4.834586849983697</v>
+        <v>2.855941677712414</v>
       </c>
       <c r="F3" t="n">
-        <v>4.947920306590433</v>
+        <v>2.964572246982474</v>
       </c>
       <c r="G3" t="n">
-        <v>4.992373643577716</v>
+        <v>3.015496590868804</v>
       </c>
       <c r="H3" t="n">
-        <v>5.182125546373794</v>
+        <v>3.278665222072883</v>
       </c>
       <c r="I3" t="n">
-        <v>5.27006120524405</v>
+        <v>3.164746986650253</v>
       </c>
       <c r="J3" t="n">
-        <v>5.352174566516194</v>
+        <v>3.218352379783879</v>
       </c>
       <c r="K3" t="n">
-        <v>5.548102150662539</v>
+        <v>3.158861819976564</v>
       </c>
       <c r="L3" t="n">
-        <v>5.309773573627963</v>
+        <v>3.508446585884992</v>
       </c>
       <c r="M3" t="n">
-        <v>5.336408846668276</v>
+        <v>3.545799370870374</v>
       </c>
       <c r="N3" t="n">
-        <v>5.526199944084449</v>
+        <v>3.845662218607232</v>
       </c>
       <c r="O3" t="n">
-        <v>5.53972714538786</v>
+        <v>3.822995435868185</v>
       </c>
       <c r="P3" t="n">
-        <v>5.764269963060651</v>
+        <v>4.17123076754594</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.797302809574677</v>
+        <v>4.265635478649147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.84663129352203</v>
+        <v>2.877104221798727</v>
       </c>
       <c r="B4" t="n">
-        <v>4.808865064460136</v>
+        <v>2.842199722577111</v>
       </c>
       <c r="C4" t="n">
-        <v>4.820205585264972</v>
+        <v>2.837405240296742</v>
       </c>
       <c r="D4" t="n">
-        <v>4.81307943437738</v>
+        <v>2.814321562195647</v>
       </c>
       <c r="E4" t="n">
-        <v>4.836036734841599</v>
+        <v>2.830893988112728</v>
       </c>
       <c r="F4" t="n">
-        <v>4.960814704430683</v>
+        <v>2.971871813771394</v>
       </c>
       <c r="G4" t="n">
-        <v>4.986188479658071</v>
+        <v>3.013718567416862</v>
       </c>
       <c r="H4" t="n">
-        <v>5.193919966166193</v>
+        <v>3.275718369549339</v>
       </c>
       <c r="I4" t="n">
-        <v>5.283663318845548</v>
+        <v>3.148559344386567</v>
       </c>
       <c r="J4" t="n">
-        <v>5.398560135057075</v>
+        <v>3.206633276676895</v>
       </c>
       <c r="K4" t="n">
-        <v>5.53866509761752</v>
+        <v>3.257173393760268</v>
       </c>
       <c r="L4" t="n">
-        <v>5.335647080261573</v>
+        <v>3.518404185436394</v>
       </c>
       <c r="M4" t="n">
-        <v>5.360594455952596</v>
+        <v>3.550463178914375</v>
       </c>
       <c r="N4" t="n">
-        <v>5.530251529894037</v>
+        <v>3.847366552184404</v>
       </c>
       <c r="O4" t="n">
-        <v>5.535061089082576</v>
+        <v>3.803592167935698</v>
       </c>
       <c r="P4" t="n">
-        <v>5.809755951853202</v>
+        <v>4.211274253852895</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.702181891801039</v>
+        <v>4.235406666947567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.845916307790926</v>
+        <v>2.888440583037259</v>
       </c>
       <c r="B5" t="n">
-        <v>4.808180422951042</v>
+        <v>2.850436839888608</v>
       </c>
       <c r="C5" t="n">
-        <v>4.819559822290328</v>
+        <v>2.859889932942214</v>
       </c>
       <c r="D5" t="n">
-        <v>4.812947626663026</v>
+        <v>2.848793017392481</v>
       </c>
       <c r="E5" t="n">
-        <v>4.83565648380954</v>
+        <v>2.875561560465698</v>
       </c>
       <c r="F5" t="n">
-        <v>4.957457242699568</v>
+        <v>3.013208306797863</v>
       </c>
       <c r="G5" t="n">
-        <v>4.980948095734124</v>
+        <v>3.067650460524594</v>
       </c>
       <c r="H5" t="n">
-        <v>5.182260514944608</v>
+        <v>3.144443848408234</v>
       </c>
       <c r="I5" t="n">
-        <v>5.281935278619224</v>
+        <v>3.336028613202961</v>
       </c>
       <c r="J5" t="n">
-        <v>5.35599540980425</v>
+        <v>3.22800779516368</v>
       </c>
       <c r="K5" t="n">
-        <v>5.518337629727475</v>
+        <v>3.371259055548244</v>
       </c>
       <c r="L5" t="n">
-        <v>5.329063016256759</v>
+        <v>3.53616585827451</v>
       </c>
       <c r="M5" t="n">
-        <v>5.35317466149993</v>
+        <v>3.568857433851272</v>
       </c>
       <c r="N5" t="n">
-        <v>5.518904687376282</v>
+        <v>3.842118051179381</v>
       </c>
       <c r="O5" t="n">
-        <v>5.533607095111277</v>
+        <v>3.807999082310476</v>
       </c>
       <c r="P5" t="n">
-        <v>5.825039325005425</v>
+        <v>4.230211994818321</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.687161501906234</v>
+        <v>4.232305381235588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.852818670041197</v>
+        <v>2.907945940216908</v>
       </c>
       <c r="B6" t="n">
-        <v>4.818289790164964</v>
+        <v>2.883267256841511</v>
       </c>
       <c r="C6" t="n">
-        <v>4.830930055145882</v>
+        <v>2.876450479383262</v>
       </c>
       <c r="D6" t="n">
-        <v>4.818517687915683</v>
+        <v>2.885330202101442</v>
       </c>
       <c r="E6" t="n">
-        <v>4.845896710480878</v>
+        <v>2.904213742957466</v>
       </c>
       <c r="F6" t="n">
-        <v>4.943681914164098</v>
+        <v>3.025650201774757</v>
       </c>
       <c r="G6" t="n">
-        <v>4.985224102352325</v>
+        <v>3.052798516847417</v>
       </c>
       <c r="H6" t="n">
-        <v>5.188421340269517</v>
+        <v>3.188567934732674</v>
       </c>
       <c r="I6" t="n">
-        <v>5.266220132474655</v>
+        <v>3.32036329665112</v>
       </c>
       <c r="J6" t="n">
-        <v>5.373415521922989</v>
+        <v>3.245955456048445</v>
       </c>
       <c r="K6" t="n">
-        <v>5.526320056629904</v>
+        <v>3.353822212132917</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2990920913949</v>
+        <v>3.533491491232483</v>
       </c>
       <c r="M6" t="n">
-        <v>5.317862837478717</v>
+        <v>3.550188466031102</v>
       </c>
       <c r="N6" t="n">
-        <v>5.491396385781899</v>
+        <v>3.876094095102259</v>
       </c>
       <c r="O6" t="n">
-        <v>5.498853478340784</v>
+        <v>3.834276854530062</v>
       </c>
       <c r="P6" t="n">
-        <v>5.801527610318237</v>
+        <v>4.263003803474116</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.684492474711963</v>
+        <v>4.259700195435943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.851962710112007</v>
+        <v>2.957271566492676</v>
       </c>
       <c r="B7" t="n">
-        <v>4.812435251830966</v>
+        <v>2.927876916748818</v>
       </c>
       <c r="C7" t="n">
-        <v>4.8253969759138</v>
+        <v>2.915609501576165</v>
       </c>
       <c r="D7" t="n">
-        <v>4.811592567498904</v>
+        <v>2.879468051912568</v>
       </c>
       <c r="E7" t="n">
-        <v>4.837209412588016</v>
+        <v>2.915714560692336</v>
       </c>
       <c r="F7" t="n">
-        <v>4.949626536907187</v>
+        <v>3.017649745899864</v>
       </c>
       <c r="G7" t="n">
-        <v>4.977455665432194</v>
+        <v>3.077711634257662</v>
       </c>
       <c r="H7" t="n">
-        <v>5.175460248357974</v>
+        <v>3.226515435986979</v>
       </c>
       <c r="I7" t="n">
-        <v>5.288404603534564</v>
+        <v>3.369398061380882</v>
       </c>
       <c r="J7" t="n">
-        <v>5.341015478872124</v>
+        <v>3.333431462755151</v>
       </c>
       <c r="K7" t="n">
-        <v>5.538801646616564</v>
+        <v>3.426227989790333</v>
       </c>
       <c r="L7" t="n">
-        <v>5.321208287955288</v>
+        <v>3.563414035192577</v>
       </c>
       <c r="M7" t="n">
-        <v>5.348078096544883</v>
+        <v>3.594665595533911</v>
       </c>
       <c r="N7" t="n">
-        <v>5.498448888713988</v>
+        <v>3.90367601105014</v>
       </c>
       <c r="O7" t="n">
-        <v>5.509837454537006</v>
+        <v>3.869641312214347</v>
       </c>
       <c r="P7" t="n">
-        <v>5.818264977441758</v>
+        <v>4.283202253833591</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.685593717102399</v>
+        <v>4.298058281080654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.849535804522522</v>
+        <v>2.915602819370896</v>
       </c>
       <c r="B8" t="n">
-        <v>4.81075241185201</v>
+        <v>2.87713206432068</v>
       </c>
       <c r="C8" t="n">
-        <v>4.823258656519053</v>
+        <v>2.887384237754349</v>
       </c>
       <c r="D8" t="n">
-        <v>4.810924678529044</v>
+        <v>2.869722612378451</v>
       </c>
       <c r="E8" t="n">
-        <v>4.835969092513369</v>
+        <v>2.901739099606251</v>
       </c>
       <c r="F8" t="n">
-        <v>4.948328373159335</v>
+        <v>3.025571685862848</v>
       </c>
       <c r="G8" t="n">
-        <v>4.978491478093922</v>
+        <v>3.089564381470022</v>
       </c>
       <c r="H8" t="n">
-        <v>5.160681663982309</v>
+        <v>3.183973547376743</v>
       </c>
       <c r="I8" t="n">
-        <v>5.28784987322595</v>
+        <v>3.358913310080497</v>
       </c>
       <c r="J8" t="n">
-        <v>5.303373471469082</v>
+        <v>3.242047850900696</v>
       </c>
       <c r="K8" t="n">
-        <v>5.517021449097805</v>
+        <v>3.340493811257029</v>
       </c>
       <c r="L8" t="n">
-        <v>5.326027961884496</v>
+        <v>3.578894848632273</v>
       </c>
       <c r="M8" t="n">
-        <v>5.354732963734388</v>
+        <v>3.611356259360888</v>
       </c>
       <c r="N8" t="n">
-        <v>5.515492226742774</v>
+        <v>3.916344358538921</v>
       </c>
       <c r="O8" t="n">
-        <v>5.529754643258628</v>
+        <v>3.897016079798895</v>
       </c>
       <c r="P8" t="n">
-        <v>5.837012649273422</v>
+        <v>4.297245279439616</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.685573487621059</v>
+        <v>4.315357768054344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.832514908574598</v>
+        <v>2.928004992349803</v>
       </c>
       <c r="B9" t="n">
-        <v>4.802804754370634</v>
+        <v>2.891086736323707</v>
       </c>
       <c r="C9" t="n">
-        <v>4.804138319710832</v>
+        <v>2.898865936957477</v>
       </c>
       <c r="D9" t="n">
-        <v>4.8068775179185</v>
+        <v>2.890962558675795</v>
       </c>
       <c r="E9" t="n">
-        <v>4.814869743475953</v>
+        <v>2.908770635717167</v>
       </c>
       <c r="F9" t="n">
-        <v>4.933187554633428</v>
+        <v>3.06360122974851</v>
       </c>
       <c r="G9" t="n">
-        <v>4.96884549243694</v>
+        <v>3.078271454565737</v>
       </c>
       <c r="H9" t="n">
-        <v>5.145340763242527</v>
+        <v>3.255027292168103</v>
       </c>
       <c r="I9" t="n">
-        <v>5.252083201960237</v>
+        <v>3.309730423133943</v>
       </c>
       <c r="J9" t="n">
-        <v>5.319998944273943</v>
+        <v>3.319594471811581</v>
       </c>
       <c r="K9" t="n">
-        <v>5.479836501538784</v>
+        <v>3.373645345296461</v>
       </c>
       <c r="L9" t="n">
-        <v>5.307131097627951</v>
+        <v>3.619346320694251</v>
       </c>
       <c r="M9" t="n">
-        <v>5.336668669069233</v>
+        <v>3.633793248485413</v>
       </c>
       <c r="N9" t="n">
-        <v>5.485752360488093</v>
+        <v>3.932184526128629</v>
       </c>
       <c r="O9" t="n">
-        <v>5.515249472966696</v>
+        <v>3.908107055610611</v>
       </c>
       <c r="P9" t="n">
-        <v>5.774928371041561</v>
+        <v>4.290877137818442</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.824364798237001</v>
+        <v>4.324461901499468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.835741826933942</v>
+        <v>2.984855895459126</v>
       </c>
       <c r="B10" t="n">
-        <v>4.798607136992625</v>
+        <v>2.95503209964356</v>
       </c>
       <c r="C10" t="n">
-        <v>4.811346652866368</v>
+        <v>2.946435999415678</v>
       </c>
       <c r="D10" t="n">
-        <v>4.830065244818606</v>
+        <v>2.938333454293623</v>
       </c>
       <c r="E10" t="n">
-        <v>4.799647374853396</v>
+        <v>2.960299719180324</v>
       </c>
       <c r="F10" t="n">
-        <v>4.9287076727736</v>
+        <v>3.102471060946724</v>
       </c>
       <c r="G10" t="n">
-        <v>4.974113375812084</v>
+        <v>3.130867463470147</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127268250350578</v>
+        <v>3.266432702861079</v>
       </c>
       <c r="I10" t="n">
-        <v>5.255932492956426</v>
+        <v>3.36640963069122</v>
       </c>
       <c r="J10" t="n">
-        <v>5.25550925427652</v>
+        <v>3.394931138946621</v>
       </c>
       <c r="K10" t="n">
-        <v>5.497209832981925</v>
+        <v>3.440989352462755</v>
       </c>
       <c r="L10" t="n">
-        <v>5.322632569875869</v>
+        <v>3.622711553514348</v>
       </c>
       <c r="M10" t="n">
-        <v>5.29041395998577</v>
+        <v>3.639850667561587</v>
       </c>
       <c r="N10" t="n">
-        <v>5.506196147895841</v>
+        <v>3.950849410378912</v>
       </c>
       <c r="O10" t="n">
-        <v>5.497922290027861</v>
+        <v>3.902333259024736</v>
       </c>
       <c r="P10" t="n">
-        <v>5.834987172454274</v>
+        <v>4.297005833750816</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.694345496467032</v>
+        <v>4.33156991173735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.832696025649718</v>
+        <v>2.885423567358393</v>
       </c>
       <c r="B11" t="n">
-        <v>4.795205739356724</v>
+        <v>2.85617054324287</v>
       </c>
       <c r="C11" t="n">
-        <v>4.808122895363482</v>
+        <v>2.850088622747378</v>
       </c>
       <c r="D11" t="n">
-        <v>4.82280254493197</v>
+        <v>2.867731872058786</v>
       </c>
       <c r="E11" t="n">
-        <v>4.793017794515566</v>
+        <v>2.888417195318818</v>
       </c>
       <c r="F11" t="n">
-        <v>4.916368953498902</v>
+        <v>3.069925751418623</v>
       </c>
       <c r="G11" t="n">
-        <v>4.967184146281908</v>
+        <v>3.097075180192162</v>
       </c>
       <c r="H11" t="n">
-        <v>5.121899851740028</v>
+        <v>3.253426904006223</v>
       </c>
       <c r="I11" t="n">
-        <v>5.248696976435341</v>
+        <v>3.359474986556702</v>
       </c>
       <c r="J11" t="n">
-        <v>5.259715722052616</v>
+        <v>3.330124142380718</v>
       </c>
       <c r="K11" t="n">
-        <v>5.478383771910069</v>
+        <v>3.419768153463526</v>
       </c>
       <c r="L11" t="n">
-        <v>5.311040444896868</v>
+        <v>3.614472394417908</v>
       </c>
       <c r="M11" t="n">
-        <v>5.275967897709628</v>
+        <v>3.628550315984782</v>
       </c>
       <c r="N11" t="n">
-        <v>5.505442599715934</v>
+        <v>3.938700789966595</v>
       </c>
       <c r="O11" t="n">
-        <v>5.486929463433553</v>
+        <v>3.900236160271208</v>
       </c>
       <c r="P11" t="n">
-        <v>5.827573699714527</v>
+        <v>4.289490580225165</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.709308990945568</v>
+        <v>4.328539902881571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.830609544300905</v>
+        <v>2.841598324102919</v>
       </c>
       <c r="B12" t="n">
-        <v>4.794774914621316</v>
+        <v>2.810394838516157</v>
       </c>
       <c r="C12" t="n">
-        <v>4.807064324535247</v>
+        <v>2.803221119926466</v>
       </c>
       <c r="D12" t="n">
-        <v>4.791173434771538</v>
+        <v>2.818734973158881</v>
       </c>
       <c r="E12" t="n">
-        <v>4.816988149475005</v>
+        <v>2.840687502401417</v>
       </c>
       <c r="F12" t="n">
-        <v>4.915893876773063</v>
+        <v>3.027236483058846</v>
       </c>
       <c r="G12" t="n">
-        <v>4.955209557671328</v>
+        <v>3.062969204500168</v>
       </c>
       <c r="H12" t="n">
-        <v>5.126002327338611</v>
+        <v>3.201889282169668</v>
       </c>
       <c r="I12" t="n">
-        <v>5.232263051531917</v>
+        <v>3.384188751509761</v>
       </c>
       <c r="J12" t="n">
-        <v>5.240574207506118</v>
+        <v>3.526321484979052</v>
       </c>
       <c r="K12" t="n">
-        <v>5.462616787719567</v>
+        <v>3.264952223160412</v>
       </c>
       <c r="L12" t="n">
-        <v>5.27888789690677</v>
+        <v>3.597023671526548</v>
       </c>
       <c r="M12" t="n">
-        <v>5.29536101643029</v>
+        <v>3.611766101284041</v>
       </c>
       <c r="N12" t="n">
-        <v>5.490624504634527</v>
+        <v>3.934320604412891</v>
       </c>
       <c r="O12" t="n">
-        <v>5.464182676009526</v>
+        <v>3.885533081278076</v>
       </c>
       <c r="P12" t="n">
-        <v>5.800712741523018</v>
+        <v>4.278711440659325</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.705962276126415</v>
+        <v>4.326595752381974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.824789459302314</v>
+        <v>2.853903048254988</v>
       </c>
       <c r="B13" t="n">
-        <v>4.78708771171219</v>
+        <v>2.823338641355463</v>
       </c>
       <c r="C13" t="n">
-        <v>4.799706166783539</v>
+        <v>2.814703004746407</v>
       </c>
       <c r="D13" t="n">
-        <v>4.781575178047094</v>
+        <v>2.816973469603298</v>
       </c>
       <c r="E13" t="n">
-        <v>4.807151564173525</v>
+        <v>2.844477797723336</v>
       </c>
       <c r="F13" t="n">
-        <v>4.906544379451968</v>
+        <v>3.014345024160813</v>
       </c>
       <c r="G13" t="n">
-        <v>4.949476396225369</v>
+        <v>3.050067722294231</v>
       </c>
       <c r="H13" t="n">
-        <v>5.116519441874932</v>
+        <v>3.374111985964399</v>
       </c>
       <c r="I13" t="n">
-        <v>5.238274684431945</v>
+        <v>3.203901739656457</v>
       </c>
       <c r="J13" t="n">
-        <v>5.208107786469606</v>
+        <v>3.567108181005349</v>
       </c>
       <c r="K13" t="n">
-        <v>5.466223324939679</v>
+        <v>3.324108301470661</v>
       </c>
       <c r="L13" t="n">
-        <v>5.27649797333786</v>
+        <v>3.572754644457491</v>
       </c>
       <c r="M13" t="n">
-        <v>5.299753026480549</v>
+        <v>3.59402930109887</v>
       </c>
       <c r="N13" t="n">
-        <v>5.49232694192353</v>
+        <v>3.917884606853381</v>
       </c>
       <c r="O13" t="n">
-        <v>5.486275166146469</v>
+        <v>3.867988580111196</v>
       </c>
       <c r="P13" t="n">
-        <v>5.771634126439632</v>
+        <v>4.243903462180482</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.742691428183998</v>
+        <v>4.308326603177054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.833814020579388</v>
+        <v>2.858135668442339</v>
       </c>
       <c r="B14" t="n">
-        <v>4.802080286070153</v>
+        <v>2.826364937874981</v>
       </c>
       <c r="C14" t="n">
-        <v>4.801939944043358</v>
+        <v>2.821612404994355</v>
       </c>
       <c r="D14" t="n">
-        <v>4.803010842211784</v>
+        <v>2.8305286942247</v>
       </c>
       <c r="E14" t="n">
-        <v>4.801588140719433</v>
+        <v>2.846965248634649</v>
       </c>
       <c r="F14" t="n">
-        <v>4.926247262105646</v>
+        <v>3.025434700654837</v>
       </c>
       <c r="G14" t="n">
-        <v>4.932702047081273</v>
+        <v>3.056299992408273</v>
       </c>
       <c r="H14" t="n">
-        <v>5.168923281114404</v>
+        <v>3.272399540932498</v>
       </c>
       <c r="I14" t="n">
-        <v>5.214632110287339</v>
+        <v>3.396925034752108</v>
       </c>
       <c r="J14" t="n">
-        <v>5.336577636403205</v>
+        <v>3.347129241088954</v>
       </c>
       <c r="K14" t="n">
-        <v>5.412368020414076</v>
+        <v>3.482503666396099</v>
       </c>
       <c r="L14" t="n">
-        <v>5.293677860365689</v>
+        <v>3.565258323846767</v>
       </c>
       <c r="M14" t="n">
-        <v>5.310659877779163</v>
+        <v>3.583804784570343</v>
       </c>
       <c r="N14" t="n">
-        <v>5.467564792421025</v>
+        <v>3.89080200013253</v>
       </c>
       <c r="O14" t="n">
-        <v>5.483818548506266</v>
+        <v>3.849441005686742</v>
       </c>
       <c r="P14" t="n">
-        <v>5.771495680926712</v>
+        <v>4.285972399151137</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.803706704761309</v>
+        <v>4.273031937414466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.82110611327024</v>
+        <v>2.960392156353209</v>
       </c>
       <c r="B15" t="n">
-        <v>4.789860414998327</v>
+        <v>2.930580240013676</v>
       </c>
       <c r="C15" t="n">
-        <v>4.788315388360999</v>
+        <v>2.927387816446503</v>
       </c>
       <c r="D15" t="n">
-        <v>4.796891424106493</v>
+        <v>2.93324643991593</v>
       </c>
       <c r="E15" t="n">
-        <v>4.794712329663421</v>
+        <v>2.910426708922953</v>
       </c>
       <c r="F15" t="n">
-        <v>4.929819978161643</v>
+        <v>3.07064780082128</v>
       </c>
       <c r="G15" t="n">
-        <v>4.93480148794157</v>
+        <v>2.991981168060618</v>
       </c>
       <c r="H15" t="n">
-        <v>5.170357993861301</v>
+        <v>3.061409466420341</v>
       </c>
       <c r="I15" t="n">
-        <v>5.214577111384947</v>
+        <v>2.877267378977374</v>
       </c>
       <c r="J15" t="n">
-        <v>5.337018259793637</v>
+        <v>2.866335662391231</v>
       </c>
       <c r="K15" t="n">
-        <v>5.42614682589165</v>
+        <v>2.774135336559477</v>
       </c>
       <c r="L15" t="n">
-        <v>5.3011757279729</v>
+        <v>3.548055357615849</v>
       </c>
       <c r="M15" t="n">
-        <v>5.314699452334206</v>
+        <v>3.527639364351511</v>
       </c>
       <c r="N15" t="n">
-        <v>5.490946279822088</v>
+        <v>3.864901401277006</v>
       </c>
       <c r="O15" t="n">
-        <v>5.483430395333059</v>
+        <v>3.847427434499075</v>
       </c>
       <c r="P15" t="n">
-        <v>5.804673926837868</v>
+        <v>4.241616663044045</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.780166542365986</v>
+        <v>4.26011337846173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.809078738356788</v>
+        <v>2.940004376844451</v>
       </c>
       <c r="B16" t="n">
-        <v>4.778231624084398</v>
+        <v>2.911532057044501</v>
       </c>
       <c r="C16" t="n">
-        <v>4.776024081933192</v>
+        <v>2.907257116223782</v>
       </c>
       <c r="D16" t="n">
-        <v>4.792196604007429</v>
+        <v>2.91658380422772</v>
       </c>
       <c r="E16" t="n">
-        <v>4.786693868997355</v>
+        <v>2.907973225888422</v>
       </c>
       <c r="F16" t="n">
-        <v>4.939902794181306</v>
+        <v>3.060792476133854</v>
       </c>
       <c r="G16" t="n">
-        <v>4.936178040929614</v>
+        <v>3.072706848128138</v>
       </c>
       <c r="H16" t="n">
-        <v>5.176574450259894</v>
+        <v>3.269144193265711</v>
       </c>
       <c r="I16" t="n">
-        <v>5.210281507456697</v>
+        <v>3.395198055923747</v>
       </c>
       <c r="J16" t="n">
-        <v>5.350171847863553</v>
+        <v>3.479477741110208</v>
       </c>
       <c r="K16" t="n">
-        <v>5.453343467039142</v>
+        <v>3.646982807985161</v>
       </c>
       <c r="L16" t="n">
-        <v>5.307301151705464</v>
+        <v>3.60218864496571</v>
       </c>
       <c r="M16" t="n">
-        <v>5.317546751832783</v>
+        <v>3.609993831953303</v>
       </c>
       <c r="N16" t="n">
-        <v>5.49548969489675</v>
+        <v>3.84839189945954</v>
       </c>
       <c r="O16" t="n">
-        <v>5.490796455225915</v>
+        <v>3.832089917239032</v>
       </c>
       <c r="P16" t="n">
-        <v>5.801735594673262</v>
+        <v>4.263590723836892</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.783272399922939</v>
+        <v>4.311038093581686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.805912192355816</v>
+        <v>2.841462452595786</v>
       </c>
       <c r="B17" t="n">
-        <v>4.768151968921195</v>
+        <v>2.80864781307199</v>
       </c>
       <c r="C17" t="n">
-        <v>4.779543379515027</v>
+        <v>2.804735938737542</v>
       </c>
       <c r="D17" t="n">
-        <v>4.776172958272427</v>
+        <v>2.806698836535254</v>
       </c>
       <c r="E17" t="n">
-        <v>4.800629452955314</v>
+        <v>2.837960048950866</v>
       </c>
       <c r="F17" t="n">
-        <v>4.928322996542497</v>
+        <v>2.971431345074092</v>
       </c>
       <c r="G17" t="n">
-        <v>4.939798485918147</v>
+        <v>3.075403303570915</v>
       </c>
       <c r="H17" t="n">
-        <v>5.162556367948347</v>
+        <v>3.092659727443984</v>
       </c>
       <c r="I17" t="n">
-        <v>5.219933814826597</v>
+        <v>3.462089900533519</v>
       </c>
       <c r="J17" t="n">
-        <v>5.290487607941272</v>
+        <v>3.173414920584775</v>
       </c>
       <c r="K17" t="n">
-        <v>5.373826433262704</v>
+        <v>3.664041735569175</v>
       </c>
       <c r="L17" t="n">
-        <v>5.314084981838509</v>
+        <v>3.558051194230733</v>
       </c>
       <c r="M17" t="n">
-        <v>5.296613663845128</v>
+        <v>3.606140426914958</v>
       </c>
       <c r="N17" t="n">
-        <v>5.508125534678626</v>
+        <v>3.886112948201958</v>
       </c>
       <c r="O17" t="n">
-        <v>5.539198650187857</v>
+        <v>3.879211715093784</v>
       </c>
       <c r="P17" t="n">
-        <v>5.851082885716548</v>
+        <v>4.306405840395898</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.702478380136925</v>
+        <v>4.347415276597822</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.798575844513678</v>
+        <v>2.872756890420929</v>
       </c>
       <c r="B18" t="n">
-        <v>4.761414603378102</v>
+        <v>2.840068099096362</v>
       </c>
       <c r="C18" t="n">
-        <v>4.771968387010207</v>
+        <v>2.833400928789409</v>
       </c>
       <c r="D18" t="n">
-        <v>4.770102533442256</v>
+        <v>2.831869033231535</v>
       </c>
       <c r="E18" t="n">
-        <v>4.792212724375371</v>
+        <v>2.865423726988852</v>
       </c>
       <c r="F18" t="n">
-        <v>4.924640598767361</v>
+        <v>3.020555762724543</v>
       </c>
       <c r="G18" t="n">
-        <v>4.931086217259256</v>
+        <v>3.114024037006053</v>
       </c>
       <c r="H18" t="n">
-        <v>5.148458632054024</v>
+        <v>3.23291476123274</v>
       </c>
       <c r="I18" t="n">
-        <v>5.21276846931891</v>
+        <v>3.489027726140212</v>
       </c>
       <c r="J18" t="n">
-        <v>5.250684522976977</v>
+        <v>3.448112583279304</v>
       </c>
       <c r="K18" t="n">
-        <v>5.330006847995519</v>
+        <v>3.711714444124977</v>
       </c>
       <c r="L18" t="n">
-        <v>5.318130245935178</v>
+        <v>3.599398453032357</v>
       </c>
       <c r="M18" t="n">
-        <v>5.303397493978173</v>
+        <v>3.64768406830476</v>
       </c>
       <c r="N18" t="n">
-        <v>5.520980737898779</v>
+        <v>3.906246432676875</v>
       </c>
       <c r="O18" t="n">
-        <v>5.573160156329639</v>
+        <v>3.909675146447025</v>
       </c>
       <c r="P18" t="n">
-        <v>5.856150370792169</v>
+        <v>4.324682414273339</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.713167764511137</v>
+        <v>4.345852383032173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.794689571496914</v>
+        <v>2.931233611195515</v>
       </c>
       <c r="B19" t="n">
-        <v>4.755063810579987</v>
+        <v>2.89979532034028</v>
       </c>
       <c r="C19" t="n">
-        <v>4.765808826027883</v>
+        <v>2.893382073833542</v>
       </c>
       <c r="D19" t="n">
-        <v>4.764644998679552</v>
+        <v>2.891790038428249</v>
       </c>
       <c r="E19" t="n">
-        <v>4.785781013651897</v>
+        <v>2.918873016382725</v>
       </c>
       <c r="F19" t="n">
-        <v>4.930657289037723</v>
+        <v>3.077396828142776</v>
       </c>
       <c r="G19" t="n">
-        <v>4.932022146856868</v>
+        <v>3.138345964866821</v>
       </c>
       <c r="H19" t="n">
-        <v>5.177708565557507</v>
+        <v>3.316139400453982</v>
       </c>
       <c r="I19" t="n">
-        <v>5.230077003204634</v>
+        <v>3.506325356945772</v>
       </c>
       <c r="J19" t="n">
-        <v>5.294123225040811</v>
+        <v>3.51895546737107</v>
       </c>
       <c r="K19" t="n">
-        <v>5.365173904790894</v>
+        <v>3.717523136671701</v>
       </c>
       <c r="L19" t="n">
-        <v>5.331618252618493</v>
+        <v>3.628920064676322</v>
       </c>
       <c r="M19" t="n">
-        <v>5.344363458033862</v>
+        <v>3.666789978102785</v>
       </c>
       <c r="N19" t="n">
-        <v>5.506099425688186</v>
+        <v>3.916557817873897</v>
       </c>
       <c r="O19" t="n">
-        <v>5.567332169189899</v>
+        <v>3.916104912850122</v>
       </c>
       <c r="P19" t="n">
-        <v>5.853927656529958</v>
+        <v>4.334102838767853</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.709334277797243</v>
+        <v>4.352828976566435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.797849163613675</v>
+        <v>2.949607819516606</v>
       </c>
       <c r="B20" t="n">
-        <v>4.758415898855122</v>
+        <v>2.917493697845156</v>
       </c>
       <c r="C20" t="n">
-        <v>4.76865928638292</v>
+        <v>2.92267110761079</v>
       </c>
       <c r="D20" t="n">
-        <v>4.767904473860428</v>
+        <v>2.915516321936028</v>
       </c>
       <c r="E20" t="n">
-        <v>4.787949361183007</v>
+        <v>2.938443339446932</v>
       </c>
       <c r="F20" t="n">
-        <v>4.933569702179363</v>
+        <v>3.076810835864064</v>
       </c>
       <c r="G20" t="n">
-        <v>4.934678214539655</v>
+        <v>3.14653537865737</v>
       </c>
       <c r="H20" t="n">
-        <v>5.176161958491949</v>
+        <v>3.287568518126317</v>
       </c>
       <c r="I20" t="n">
-        <v>5.230215448717553</v>
+        <v>3.507019935060102</v>
       </c>
       <c r="J20" t="n">
-        <v>5.294608732592966</v>
+        <v>3.4787735109216</v>
       </c>
       <c r="K20" t="n">
-        <v>5.350490462194656</v>
+        <v>3.74685579040001</v>
       </c>
       <c r="L20" t="n">
-        <v>5.348714693035795</v>
+        <v>3.627978244967046</v>
       </c>
       <c r="M20" t="n">
-        <v>5.362044656896143</v>
+        <v>3.668782388973767</v>
       </c>
       <c r="N20" t="n">
-        <v>5.495505499179046</v>
+        <v>3.91019747215887</v>
       </c>
       <c r="O20" t="n">
-        <v>5.557534146337224</v>
+        <v>3.887671015730468</v>
       </c>
       <c r="P20" t="n">
-        <v>5.85802791952902</v>
+        <v>4.348388651165312</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.718139791721685</v>
+        <v>4.325655046373576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.799207067548608</v>
+        <v>2.959093209895678</v>
       </c>
       <c r="B21" t="n">
-        <v>4.761071018280972</v>
+        <v>2.92482240647372</v>
       </c>
       <c r="C21" t="n">
-        <v>4.770543156832689</v>
+        <v>2.93246462189948</v>
       </c>
       <c r="D21" t="n">
-        <v>4.789511456445216</v>
+        <v>2.927106606974775</v>
       </c>
       <c r="E21" t="n">
-        <v>4.77045212416666</v>
+        <v>2.955709229777466</v>
       </c>
       <c r="F21" t="n">
-        <v>4.931294833785572</v>
+        <v>3.100327743606754</v>
       </c>
       <c r="G21" t="n">
-        <v>4.934337790298984</v>
+        <v>3.147758222221562</v>
       </c>
       <c r="H21" t="n">
-        <v>5.169270975324932</v>
+        <v>3.281362976833351</v>
       </c>
       <c r="I21" t="n">
-        <v>5.21260284044044</v>
+        <v>3.495869933101845</v>
       </c>
       <c r="J21" t="n">
-        <v>5.276937016300063</v>
+        <v>3.443878663774262</v>
       </c>
       <c r="K21" t="n">
-        <v>5.328792446943839</v>
+        <v>3.704098586286667</v>
       </c>
       <c r="L21" t="n">
-        <v>5.347787929921916</v>
+        <v>3.67117090612374</v>
       </c>
       <c r="M21" t="n">
-        <v>5.332924950678786</v>
+        <v>3.695885413544051</v>
       </c>
       <c r="N21" t="n">
-        <v>5.486165168341683</v>
+        <v>3.96981425139904</v>
       </c>
       <c r="O21" t="n">
-        <v>5.533590026486396</v>
+        <v>3.913339593569714</v>
       </c>
       <c r="P21" t="n">
-        <v>5.851244089395975</v>
+        <v>4.363944453797469</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.721357543597298</v>
+        <v>4.341940694314538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.790683185934695</v>
+        <v>3.023546792049586</v>
       </c>
       <c r="B22" t="n">
-        <v>4.753985010270413</v>
+        <v>2.986452756901558</v>
       </c>
       <c r="C22" t="n">
-        <v>4.763580106138399</v>
+        <v>2.99533136591886</v>
       </c>
       <c r="D22" t="n">
-        <v>4.78272067242796</v>
+        <v>2.964167231096459</v>
       </c>
       <c r="E22" t="n">
-        <v>4.763837083768544</v>
+        <v>2.995810257296458</v>
       </c>
       <c r="F22" t="n">
-        <v>4.921835970830984</v>
+        <v>3.111752644065097</v>
       </c>
       <c r="G22" t="n">
-        <v>4.925752904155404</v>
+        <v>3.170283936182712</v>
       </c>
       <c r="H22" t="n">
-        <v>5.149447664040153</v>
+        <v>3.251909672176578</v>
       </c>
       <c r="I22" t="n">
-        <v>5.196267850344194</v>
+        <v>3.523343448830921</v>
       </c>
       <c r="J22" t="n">
-        <v>5.259788105665535</v>
+        <v>3.434026865806283</v>
       </c>
       <c r="K22" t="n">
-        <v>5.29801139457145</v>
+        <v>3.78265347772589</v>
       </c>
       <c r="L22" t="n">
-        <v>5.329566224605086</v>
+        <v>3.682892979099733</v>
       </c>
       <c r="M22" t="n">
-        <v>5.312687251112187</v>
+        <v>3.707752638867826</v>
       </c>
       <c r="N22" t="n">
-        <v>5.496514444560869</v>
+        <v>3.979315976057658</v>
       </c>
       <c r="O22" t="n">
-        <v>5.541566131675907</v>
+        <v>3.900607765130879</v>
       </c>
       <c r="P22" t="n">
-        <v>5.847750078665815</v>
+        <v>4.355132481216042</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.712855471892953</v>
+        <v>4.314436366194501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.783227357718393</v>
+        <v>2.967041693062924</v>
       </c>
       <c r="B23" t="n">
-        <v>4.745547420037838</v>
+        <v>2.933392705964592</v>
       </c>
       <c r="C23" t="n">
-        <v>4.755190877009653</v>
+        <v>2.937555905463872</v>
       </c>
       <c r="D23" t="n">
-        <v>4.755742130376163</v>
+        <v>2.933466952689801</v>
       </c>
       <c r="E23" t="n">
-        <v>4.775085623650413</v>
+        <v>2.955415027128825</v>
       </c>
       <c r="F23" t="n">
-        <v>4.92109696259079</v>
+        <v>3.095810758461853</v>
       </c>
       <c r="G23" t="n">
-        <v>4.920429389706576</v>
+        <v>3.159770228659496</v>
       </c>
       <c r="H23" t="n">
-        <v>5.166518501520135</v>
+        <v>3.251218063931256</v>
       </c>
       <c r="I23" t="n">
-        <v>5.199945506834641</v>
+        <v>3.511025917118752</v>
       </c>
       <c r="J23" t="n">
-        <v>5.283612745142198</v>
+        <v>3.484856916351597</v>
       </c>
       <c r="K23" t="n">
-        <v>5.298377105663796</v>
+        <v>3.763781073878647</v>
       </c>
       <c r="L23" t="n">
-        <v>5.3316644011228</v>
+        <v>3.668371433349736</v>
       </c>
       <c r="M23" t="n">
-        <v>5.345955265346788</v>
+        <v>3.695311486358185</v>
       </c>
       <c r="N23" t="n">
-        <v>5.488243747549348</v>
+        <v>3.967158446038316</v>
       </c>
       <c r="O23" t="n">
-        <v>5.538616420428046</v>
+        <v>3.893420310897025</v>
       </c>
       <c r="P23" t="n">
-        <v>5.849851416039987</v>
+        <v>4.363830856307899</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.723680140923625</v>
+        <v>4.2953037275754</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.776733378122669</v>
+        <v>3.001646235514696</v>
       </c>
       <c r="B24" t="n">
-        <v>4.740016237319631</v>
+        <v>2.97231005506694</v>
       </c>
       <c r="C24" t="n">
-        <v>4.749130566920152</v>
+        <v>2.968556326257187</v>
       </c>
       <c r="D24" t="n">
-        <v>4.749255736835941</v>
+        <v>2.956575132210216</v>
       </c>
       <c r="E24" t="n">
-        <v>4.768097602190094</v>
+        <v>2.97766528573945</v>
       </c>
       <c r="F24" t="n">
-        <v>4.908821144359633</v>
+        <v>3.121050190229391</v>
       </c>
       <c r="G24" t="n">
-        <v>4.918507588979295</v>
+        <v>3.162880795212126</v>
       </c>
       <c r="H24" t="n">
-        <v>5.158686531385171</v>
+        <v>3.316916021199667</v>
       </c>
       <c r="I24" t="n">
-        <v>5.196979043047546</v>
+        <v>3.519874641829157</v>
       </c>
       <c r="J24" t="n">
-        <v>5.281271814848408</v>
+        <v>3.487296663741964</v>
       </c>
       <c r="K24" t="n">
-        <v>5.322469469682567</v>
+        <v>3.720792962449905</v>
       </c>
       <c r="L24" t="n">
-        <v>5.30774620029494</v>
+        <v>3.689251468646629</v>
       </c>
       <c r="M24" t="n">
-        <v>5.327785398075892</v>
+        <v>3.70796721190368</v>
       </c>
       <c r="N24" t="n">
-        <v>5.473578637920574</v>
+        <v>3.947818659055882</v>
       </c>
       <c r="O24" t="n">
-        <v>5.492344642719702</v>
+        <v>3.853125499425238</v>
       </c>
       <c r="P24" t="n">
-        <v>5.822685119114505</v>
+        <v>4.345236135212938</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.739738556079678</v>
+        <v>4.323178175620606</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.760853235270923</v>
+        <v>2.950849595995725</v>
       </c>
       <c r="B25" t="n">
-        <v>4.724424680662623</v>
+        <v>2.917948087803435</v>
       </c>
       <c r="C25" t="n">
-        <v>4.73293749927893</v>
+        <v>2.912289930492072</v>
       </c>
       <c r="D25" t="n">
-        <v>4.732377079428688</v>
+        <v>2.90903309789078</v>
       </c>
       <c r="E25" t="n">
-        <v>4.750658524932598</v>
+        <v>2.93530678654048</v>
       </c>
       <c r="F25" t="n">
-        <v>4.901703211698836</v>
+        <v>3.098616913441126</v>
       </c>
       <c r="G25" t="n">
-        <v>4.909746643130929</v>
+        <v>3.16478670864824</v>
       </c>
       <c r="H25" t="n">
-        <v>5.157391212408132</v>
+        <v>3.298191368335591</v>
       </c>
       <c r="I25" t="n">
-        <v>5.192649301869536</v>
+        <v>3.553154993936827</v>
       </c>
       <c r="J25" t="n">
-        <v>5.304044205209755</v>
+        <v>3.381832160451628</v>
       </c>
       <c r="K25" t="n">
-        <v>5.361344211104752</v>
+        <v>3.70286312077919</v>
       </c>
       <c r="L25" t="n">
-        <v>5.318482365344749</v>
+        <v>3.674518690963413</v>
       </c>
       <c r="M25" t="n">
-        <v>5.338311050085509</v>
+        <v>3.703456723347236</v>
       </c>
       <c r="N25" t="n">
-        <v>5.452623423937704</v>
+        <v>3.961849433952248</v>
       </c>
       <c r="O25" t="n">
-        <v>5.477655510581836</v>
+        <v>3.892567587258</v>
       </c>
       <c r="P25" t="n">
-        <v>5.831401496886794</v>
+        <v>4.350597491240278</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.70631249902211</v>
+        <v>4.329999222265553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.756583866451286</v>
+        <v>3.021744824028765</v>
       </c>
       <c r="B26" t="n">
-        <v>4.720849119835813</v>
+        <v>2.980850841484541</v>
       </c>
       <c r="C26" t="n">
-        <v>4.730926246313849</v>
+        <v>2.988512361058855</v>
       </c>
       <c r="D26" t="n">
-        <v>4.733046232741131</v>
+        <v>2.967120765825272</v>
       </c>
       <c r="E26" t="n">
-        <v>4.755574921069464</v>
+        <v>2.996568501977654</v>
       </c>
       <c r="F26" t="n">
-        <v>4.898499051505998</v>
+        <v>3.133146837934063</v>
       </c>
       <c r="G26" t="n">
-        <v>4.922523141025246</v>
+        <v>3.221779237385899</v>
       </c>
       <c r="H26" t="n">
-        <v>5.146654099101385</v>
+        <v>3.334388131809469</v>
       </c>
       <c r="I26" t="n">
-        <v>5.193030501158533</v>
+        <v>3.629672184002689</v>
       </c>
       <c r="J26" t="n">
-        <v>5.313225861052859</v>
+        <v>3.477257392792833</v>
       </c>
       <c r="K26" t="n">
-        <v>5.427614095460077</v>
+        <v>3.761588568083226</v>
       </c>
       <c r="L26" t="n">
-        <v>5.288861663378586</v>
+        <v>3.702487432349632</v>
       </c>
       <c r="M26" t="n">
-        <v>5.3116599727629</v>
+        <v>3.746065062776534</v>
       </c>
       <c r="N26" t="n">
-        <v>5.465832643081304</v>
+        <v>4.001628601917459</v>
       </c>
       <c r="O26" t="n">
-        <v>5.467575539332986</v>
+        <v>3.958700630336135</v>
       </c>
       <c r="P26" t="n">
-        <v>5.75969620376398</v>
+        <v>4.383496215180374</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.770964024870251</v>
+        <v>4.361214401711536</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.764797984132184</v>
+        <v>3.085647495481623</v>
       </c>
       <c r="B27" t="n">
-        <v>4.733432173314817</v>
+        <v>3.034617721245496</v>
       </c>
       <c r="C27" t="n">
-        <v>4.730749554437772</v>
+        <v>3.054613663661963</v>
       </c>
       <c r="D27" t="n">
-        <v>4.745520552757934</v>
+        <v>2.998874234029019</v>
       </c>
       <c r="E27" t="n">
-        <v>4.737323819787562</v>
+        <v>3.056589554636588</v>
       </c>
       <c r="F27" t="n">
-        <v>4.903744176714635</v>
+        <v>3.16162268445346</v>
       </c>
       <c r="G27" t="n">
-        <v>4.904313763048608</v>
+        <v>3.267947336055342</v>
       </c>
       <c r="H27" t="n">
-        <v>5.140307415416666</v>
+        <v>3.316248543140039</v>
       </c>
       <c r="I27" t="n">
-        <v>5.183931027583372</v>
+        <v>3.612456967062111</v>
       </c>
       <c r="J27" t="n">
-        <v>5.285986548343166</v>
+        <v>3.450914283455064</v>
       </c>
       <c r="K27" t="n">
-        <v>5.410699088203542</v>
+        <v>3.678212836776185</v>
       </c>
       <c r="L27" t="n">
-        <v>5.273911444497178</v>
+        <v>3.7276930818572</v>
       </c>
       <c r="M27" t="n">
-        <v>5.286915524056568</v>
+        <v>3.778135193263298</v>
       </c>
       <c r="N27" t="n">
-        <v>5.479062091706244</v>
+        <v>4.036687534327509</v>
       </c>
       <c r="O27" t="n">
-        <v>5.468290525064091</v>
+        <v>3.991565572016261</v>
       </c>
       <c r="P27" t="n">
-        <v>5.819229038661858</v>
+        <v>4.382516529641242</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.798747953147889</v>
+        <v>4.365110498616876</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.764797984132184</v>
+        <v>3.040479685817558</v>
       </c>
       <c r="B28" t="n">
-        <v>4.733432173314817</v>
+        <v>3.013330999511271</v>
       </c>
       <c r="C28" t="n">
-        <v>4.730749554437772</v>
+        <v>2.998801472238314</v>
       </c>
       <c r="D28" t="n">
-        <v>4.745520552757934</v>
+        <v>3.001611525170661</v>
       </c>
       <c r="E28" t="n">
-        <v>4.737323819787562</v>
+        <v>3.05083283479751</v>
       </c>
       <c r="F28" t="n">
-        <v>4.903744176714635</v>
+        <v>3.200688712623038</v>
       </c>
       <c r="G28" t="n">
-        <v>4.904313763048608</v>
+        <v>3.275948534397487</v>
       </c>
       <c r="H28" t="n">
-        <v>5.140307415416666</v>
+        <v>3.348143451355309</v>
       </c>
       <c r="I28" t="n">
-        <v>5.183931027583372</v>
+        <v>3.634613303565347</v>
       </c>
       <c r="J28" t="n">
-        <v>5.285986548343166</v>
+        <v>3.418314031350309</v>
       </c>
       <c r="K28" t="n">
-        <v>5.410699088203542</v>
+        <v>3.653320508448999</v>
       </c>
       <c r="L28" t="n">
-        <v>5.273911444497178</v>
+        <v>3.77507697065194</v>
       </c>
       <c r="M28" t="n">
-        <v>5.286915524056568</v>
+        <v>3.80545130593493</v>
       </c>
       <c r="N28" t="n">
-        <v>5.479062091706244</v>
+        <v>4.02173721373943</v>
       </c>
       <c r="O28" t="n">
-        <v>5.468290525064091</v>
+        <v>3.942106116018304</v>
       </c>
       <c r="P28" t="n">
-        <v>5.819229038661858</v>
+        <v>4.381774433622778</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.798747953147889</v>
+        <v>4.393951639024301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.764797984132184</v>
+        <v>3.049890272620982</v>
       </c>
       <c r="B29" t="n">
-        <v>4.733432173314817</v>
+        <v>3.009207522009977</v>
       </c>
       <c r="C29" t="n">
-        <v>4.730749554437772</v>
+        <v>3.025181333705062</v>
       </c>
       <c r="D29" t="n">
-        <v>4.745520552757934</v>
+        <v>3.008862831588195</v>
       </c>
       <c r="E29" t="n">
-        <v>4.737323819787562</v>
+        <v>3.061229603728522</v>
       </c>
       <c r="F29" t="n">
-        <v>4.903744176714635</v>
+        <v>3.180141302655081</v>
       </c>
       <c r="G29" t="n">
-        <v>4.904313763048608</v>
+        <v>3.282656354786492</v>
       </c>
       <c r="H29" t="n">
-        <v>5.140307415416666</v>
+        <v>3.220775421661074</v>
       </c>
       <c r="I29" t="n">
-        <v>5.183931027583372</v>
+        <v>3.620604431452918</v>
       </c>
       <c r="J29" t="n">
-        <v>5.285986548343166</v>
+        <v>3.216331012690065</v>
       </c>
       <c r="K29" t="n">
-        <v>5.410699088203542</v>
+        <v>3.523391709202306</v>
       </c>
       <c r="L29" t="n">
-        <v>5.273911444497178</v>
+        <v>3.778916268812496</v>
       </c>
       <c r="M29" t="n">
-        <v>5.286915524056568</v>
+        <v>3.814942636052019</v>
       </c>
       <c r="N29" t="n">
-        <v>5.479062091706244</v>
+        <v>4.016295300015239</v>
       </c>
       <c r="O29" t="n">
-        <v>5.468290525064091</v>
+        <v>3.908695832141519</v>
       </c>
       <c r="P29" t="n">
-        <v>5.819229038661858</v>
+        <v>4.37946907280504</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.798747953147889</v>
+        <v>4.386706272344784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.764797984132184</v>
+        <v>3.120272827016453</v>
       </c>
       <c r="B30" t="n">
-        <v>4.733432173314817</v>
+        <v>3.077605461440613</v>
       </c>
       <c r="C30" t="n">
-        <v>4.730749554437772</v>
+        <v>3.093765632415972</v>
       </c>
       <c r="D30" t="n">
-        <v>4.745520552757934</v>
+        <v>3.070137540202281</v>
       </c>
       <c r="E30" t="n">
-        <v>4.737323819787562</v>
+        <v>3.122558141218385</v>
       </c>
       <c r="F30" t="n">
-        <v>4.903744176714635</v>
+        <v>3.23585641648552</v>
       </c>
       <c r="G30" t="n">
-        <v>4.904313763048608</v>
+        <v>3.311413225160805</v>
       </c>
       <c r="H30" t="n">
-        <v>5.140307415416666</v>
+        <v>3.255409291569303</v>
       </c>
       <c r="I30" t="n">
-        <v>5.183931027583372</v>
+        <v>3.492578204539705</v>
       </c>
       <c r="J30" t="n">
-        <v>5.285986548343166</v>
+        <v>3.251090730797523</v>
       </c>
       <c r="K30" t="n">
-        <v>5.410699088203542</v>
+        <v>3.374610923957803</v>
       </c>
       <c r="L30" t="n">
-        <v>5.273911444497178</v>
+        <v>3.819773499227741</v>
       </c>
       <c r="M30" t="n">
-        <v>5.286915524056568</v>
+        <v>3.853036403354987</v>
       </c>
       <c r="N30" t="n">
-        <v>5.479062091706244</v>
+        <v>3.983345717068375</v>
       </c>
       <c r="O30" t="n">
-        <v>5.468290525064091</v>
+        <v>3.929512757721984</v>
       </c>
       <c r="P30" t="n">
-        <v>5.819229038661858</v>
+        <v>4.347898251545306</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.798747953147889</v>
+        <v>4.385699115517324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.34643950855636</v>
+        <v>3.139579574206168</v>
       </c>
       <c r="B31" t="n">
-        <v>5.2767163885192</v>
+        <v>3.098633247720672</v>
       </c>
       <c r="C31" t="n">
-        <v>5.29075217162692</v>
+        <v>3.106876861620624</v>
       </c>
       <c r="D31" t="n">
-        <v>5.267958919612941</v>
+        <v>3.093507439429057</v>
       </c>
       <c r="E31" t="n">
-        <v>5.319512172379204</v>
+        <v>3.123784697118837</v>
       </c>
       <c r="F31" t="n">
-        <v>5.545554500356308</v>
+        <v>3.256543039063244</v>
       </c>
       <c r="G31" t="n">
-        <v>5.596414577301037</v>
+        <v>3.286445907641157</v>
       </c>
       <c r="H31" t="n">
-        <v>5.540762641963942</v>
+        <v>3.253772151278445</v>
       </c>
       <c r="I31" t="n">
-        <v>5.723955135435587</v>
+        <v>3.361445494643748</v>
       </c>
       <c r="J31" t="n">
-        <v>5.501623652941753</v>
+        <v>3.230881514662893</v>
       </c>
       <c r="K31" t="n">
-        <v>5.501360037513044</v>
+        <v>3.230744900688508</v>
       </c>
       <c r="L31" t="n">
-        <v>6.529668826005757</v>
+        <v>3.834535975601041</v>
       </c>
       <c r="M31" t="n">
-        <v>6.565002776022186</v>
+        <v>3.855284594194314</v>
       </c>
       <c r="N31" t="n">
-        <v>6.920291892450595</v>
+        <v>4.063869260426514</v>
       </c>
       <c r="O31" t="n">
-        <v>6.812081235907519</v>
+        <v>4.000216057970358</v>
       </c>
       <c r="P31" t="n">
-        <v>7.461612583622433</v>
+        <v>4.38185684748776</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.539075692871589</v>
+        <v>4.427253151448656</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.623576607070299</v>
+        <v>2.71512552429789</v>
       </c>
       <c r="B32" t="n">
-        <v>4.554138596285773</v>
+        <v>2.67435516255114</v>
       </c>
       <c r="C32" t="n">
-        <v>4.560898719995373</v>
+        <v>2.678321051378177</v>
       </c>
       <c r="D32" t="n">
-        <v>4.636169459204327</v>
+        <v>2.722561333827569</v>
       </c>
       <c r="E32" t="n">
-        <v>4.615872335536293</v>
+        <v>2.710640465244829</v>
       </c>
       <c r="F32" t="n">
-        <v>5.104506922986839</v>
+        <v>2.997608327364206</v>
       </c>
       <c r="G32" t="n">
-        <v>5.075322419212065</v>
+        <v>2.98047125510191</v>
       </c>
       <c r="H32" t="n">
-        <v>5.798569680843582</v>
+        <v>3.405163080147669</v>
       </c>
       <c r="I32" t="n">
-        <v>5.74060526292083</v>
+        <v>3.371116873069469</v>
       </c>
       <c r="J32" t="n">
-        <v>6.221418943234021</v>
+        <v>3.653431507303186</v>
       </c>
       <c r="K32" t="n">
-        <v>5.879690533187492</v>
+        <v>3.452792725602851</v>
       </c>
       <c r="L32" t="n">
-        <v>6.168018802038563</v>
+        <v>3.622084168686332</v>
       </c>
       <c r="M32" t="n">
-        <v>6.16748335295435</v>
+        <v>3.621769733805072</v>
       </c>
       <c r="N32" t="n">
-        <v>6.882152998412144</v>
+        <v>4.041425960330346</v>
       </c>
       <c r="O32" t="n">
-        <v>6.786666053460514</v>
+        <v>3.985354090985278</v>
       </c>
       <c r="P32" t="n">
-        <v>7.802897209422071</v>
+        <v>4.582007085736221</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.532367723293568</v>
+        <v>4.423262389968674</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.776002588109269</v>
+        <v>2.80509510727074</v>
       </c>
       <c r="B33" t="n">
-        <v>4.699060071918967</v>
+        <v>2.75990669414043</v>
       </c>
       <c r="C33" t="n">
-        <v>4.706079069772588</v>
+        <v>2.764031470959414</v>
       </c>
       <c r="D33" t="n">
-        <v>4.748893818771347</v>
+        <v>2.789157490854195</v>
       </c>
       <c r="E33" t="n">
-        <v>4.732082171521031</v>
+        <v>2.779299196297761</v>
       </c>
       <c r="F33" t="n">
-        <v>5.252001651863585</v>
+        <v>3.084482007512655</v>
       </c>
       <c r="G33" t="n">
-        <v>5.179483702545074</v>
+        <v>3.04193287984671</v>
       </c>
       <c r="H33" t="n">
-        <v>5.905000775200047</v>
+        <v>3.467689588548779</v>
       </c>
       <c r="I33" t="n">
-        <v>5.801380314407231</v>
+        <v>3.406845882174531</v>
       </c>
       <c r="J33" t="n">
-        <v>6.304530502976025</v>
+        <v>3.702096894575033</v>
       </c>
       <c r="K33" t="n">
-        <v>6.037358478578638</v>
+        <v>3.545185350452896</v>
       </c>
       <c r="L33" t="n">
-        <v>6.330641073844086</v>
+        <v>3.717654924608947</v>
       </c>
       <c r="M33" t="n">
-        <v>6.328157905009625</v>
+        <v>3.716210083336381</v>
       </c>
       <c r="N33" t="n">
-        <v>7.085163429712588</v>
+        <v>4.160517336331911</v>
       </c>
       <c r="O33" t="n">
-        <v>7.111096360447634</v>
+        <v>4.175783205502128</v>
       </c>
       <c r="P33" t="n">
-        <v>7.79789104496176</v>
+        <v>4.578972250843304</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.028231505552281</v>
+        <v>4.714155490833035</v>
       </c>
     </row>
   </sheetData>
@@ -4027,1698 +4027,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.85259867443163</v>
+        <v>7.547585004611649</v>
       </c>
       <c r="B2" t="n">
-        <v>12.88900415478777</v>
+        <v>7.568954697061296</v>
       </c>
       <c r="C2" t="n">
-        <v>12.86430016504412</v>
+        <v>7.554454311627984</v>
       </c>
       <c r="D2" t="n">
-        <v>13.14253265836405</v>
+        <v>7.717791909816958</v>
       </c>
       <c r="E2" t="n">
-        <v>13.03717878388892</v>
+        <v>7.65594661511964</v>
       </c>
       <c r="F2" t="n">
-        <v>13.36007923634972</v>
+        <v>7.845498504578146</v>
       </c>
       <c r="G2" t="n">
-        <v>13.17430179446563</v>
+        <v>7.736447141992964</v>
       </c>
       <c r="H2" t="n">
-        <v>13.48803702753691</v>
+        <v>7.920648069965659</v>
       </c>
       <c r="I2" t="n">
-        <v>13.18861541685612</v>
+        <v>7.744874145304182</v>
       </c>
       <c r="J2" t="n">
-        <v>13.24120195359894</v>
+        <v>7.775765980261879</v>
       </c>
       <c r="K2" t="n">
-        <v>12.85260626048713</v>
+        <v>7.547583519677145</v>
       </c>
       <c r="L2" t="n">
-        <v>13.45675339898748</v>
+        <v>7.902284627419724</v>
       </c>
       <c r="M2" t="n">
-        <v>13.23782615890036</v>
+        <v>7.773730877523901</v>
       </c>
       <c r="N2" t="n">
-        <v>13.48164577577611</v>
+        <v>7.916997358487134</v>
       </c>
       <c r="O2" t="n">
-        <v>12.71307214860324</v>
+        <v>7.465560934937038</v>
       </c>
       <c r="P2" t="n">
-        <v>13.79237060915552</v>
+        <v>8.09955000916019</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.55656044450492</v>
+        <v>7.373654626137112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.69500090005388</v>
+        <v>7.455000823210566</v>
       </c>
       <c r="B3" t="n">
-        <v>12.72977664281959</v>
+        <v>7.475417930175781</v>
       </c>
       <c r="C3" t="n">
-        <v>12.72092498039084</v>
+        <v>7.470234023821691</v>
       </c>
       <c r="D3" t="n">
-        <v>13.00630353799405</v>
+        <v>7.637847490915449</v>
       </c>
       <c r="E3" t="n">
-        <v>12.81156317153383</v>
+        <v>7.523416210621625</v>
       </c>
       <c r="F3" t="n">
-        <v>13.15683237298612</v>
+        <v>7.726244899481999</v>
       </c>
       <c r="G3" t="n">
-        <v>12.94135931683777</v>
+        <v>7.599680961821777</v>
       </c>
       <c r="H3" t="n">
-        <v>13.25454456088513</v>
+        <v>7.783588615229896</v>
       </c>
       <c r="I3" t="n">
-        <v>13.04511000491671</v>
+        <v>7.660556594287866</v>
       </c>
       <c r="J3" t="n">
-        <v>13.0328888695023</v>
+        <v>7.653334615326789</v>
       </c>
       <c r="K3" t="n">
-        <v>12.87807770617911</v>
+        <v>7.562458851072763</v>
       </c>
       <c r="L3" t="n">
-        <v>13.30871658322796</v>
+        <v>7.815389972571404</v>
       </c>
       <c r="M3" t="n">
-        <v>13.06833850686514</v>
+        <v>7.674195717708754</v>
       </c>
       <c r="N3" t="n">
-        <v>13.17456098469529</v>
+        <v>7.736659487627062</v>
       </c>
       <c r="O3" t="n">
-        <v>12.45373146216953</v>
+        <v>7.313283128935193</v>
       </c>
       <c r="P3" t="n">
-        <v>13.52179876755046</v>
+        <v>7.940586285553277</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.46876575983275</v>
+        <v>7.322051667182372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.62251234670044</v>
+        <v>7.412368353595574</v>
       </c>
       <c r="B4" t="n">
-        <v>12.65143039027569</v>
+        <v>7.429366398864916</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6386478867541</v>
+        <v>7.421844463133995</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95928895901776</v>
+        <v>7.610137128132957</v>
       </c>
       <c r="E4" t="n">
-        <v>12.76107417913743</v>
+        <v>7.493753158966137</v>
       </c>
       <c r="F4" t="n">
-        <v>13.12226271806156</v>
+        <v>7.705822595246019</v>
       </c>
       <c r="G4" t="n">
-        <v>12.90114563661941</v>
+        <v>7.57606901827082</v>
       </c>
       <c r="H4" t="n">
-        <v>13.25358745354924</v>
+        <v>7.782889953545681</v>
       </c>
       <c r="I4" t="n">
-        <v>13.00656652125146</v>
+        <v>7.6379365869857</v>
       </c>
       <c r="J4" t="n">
-        <v>13.06636613243451</v>
+        <v>7.672929068576688</v>
       </c>
       <c r="K4" t="n">
-        <v>12.80765888163525</v>
+        <v>7.521177671856575</v>
       </c>
       <c r="L4" t="n">
-        <v>13.2374114545329</v>
+        <v>7.773423496081536</v>
       </c>
       <c r="M4" t="n">
-        <v>13.01478095501801</v>
+        <v>7.642724758294427</v>
       </c>
       <c r="N4" t="n">
-        <v>13.09280353586047</v>
+        <v>7.688630023556629</v>
       </c>
       <c r="O4" t="n">
-        <v>12.44255214504412</v>
+        <v>7.306649184037771</v>
       </c>
       <c r="P4" t="n">
-        <v>13.37487963063496</v>
+        <v>7.854197993370881</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.34442651712023</v>
+        <v>7.248983979969719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.53939699393068</v>
+        <v>7.363545192032658</v>
       </c>
       <c r="B5" t="n">
-        <v>12.57952469885335</v>
+        <v>7.387092540932684</v>
       </c>
       <c r="C5" t="n">
-        <v>12.55610528117478</v>
+        <v>7.37335912417078</v>
       </c>
       <c r="D5" t="n">
-        <v>12.84461814404307</v>
+        <v>7.542842866272553</v>
       </c>
       <c r="E5" t="n">
-        <v>12.72662463675833</v>
+        <v>7.473451134424995</v>
       </c>
       <c r="F5" t="n">
-        <v>13.06270586065459</v>
+        <v>7.670933316603072</v>
       </c>
       <c r="G5" t="n">
-        <v>12.82841053646214</v>
+        <v>7.533253159244562</v>
       </c>
       <c r="H5" t="n">
-        <v>13.22751670947257</v>
+        <v>7.767687936559144</v>
       </c>
       <c r="I5" t="n">
-        <v>12.92974380152097</v>
+        <v>7.592795320525897</v>
       </c>
       <c r="J5" t="n">
-        <v>13.09135207057434</v>
+        <v>7.687682635342964</v>
       </c>
       <c r="K5" t="n">
-        <v>12.80744900076635</v>
+        <v>7.520996509847064</v>
       </c>
       <c r="L5" t="n">
-        <v>13.18199911211542</v>
+        <v>7.740953175745896</v>
       </c>
       <c r="M5" t="n">
-        <v>12.94511820733922</v>
+        <v>7.60177471947267</v>
       </c>
       <c r="N5" t="n">
-        <v>13.09787481396384</v>
+        <v>7.691500401953209</v>
       </c>
       <c r="O5" t="n">
-        <v>12.39917634402382</v>
+        <v>7.281121674976422</v>
       </c>
       <c r="P5" t="n">
-        <v>13.33794312639364</v>
+        <v>7.832241751792083</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.19729370630807</v>
+        <v>7.16251995612761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.47041572690453</v>
+        <v>7.323107455614844</v>
       </c>
       <c r="B6" t="n">
-        <v>12.49365307925105</v>
+        <v>7.336752518773748</v>
       </c>
       <c r="C6" t="n">
-        <v>12.48890800153428</v>
+        <v>7.333965296709404</v>
       </c>
       <c r="D6" t="n">
-        <v>12.81889130114918</v>
+        <v>7.527755931710089</v>
       </c>
       <c r="E6" t="n">
-        <v>12.59636194904099</v>
+        <v>7.397031207569157</v>
       </c>
       <c r="F6" t="n">
-        <v>13.00092249595766</v>
+        <v>7.634603651491069</v>
       </c>
       <c r="G6" t="n">
-        <v>12.75054094107231</v>
+        <v>7.487521631319348</v>
       </c>
       <c r="H6" t="n">
-        <v>13.17158851528092</v>
+        <v>7.734852322335476</v>
       </c>
       <c r="I6" t="n">
-        <v>12.82905155815209</v>
+        <v>7.533637757281144</v>
       </c>
       <c r="J6" t="n">
-        <v>13.01776606785821</v>
+        <v>7.64447772347661</v>
       </c>
       <c r="K6" t="n">
-        <v>12.7339502376885</v>
+        <v>7.477885148854475</v>
       </c>
       <c r="L6" t="n">
-        <v>13.14596155545114</v>
+        <v>7.719758705567743</v>
       </c>
       <c r="M6" t="n">
-        <v>12.89054538839735</v>
+        <v>7.569743197283016</v>
       </c>
       <c r="N6" t="n">
-        <v>13.06768231306418</v>
+        <v>7.673782905916592</v>
       </c>
       <c r="O6" t="n">
-        <v>12.371608618328</v>
+        <v>7.265067305584486</v>
       </c>
       <c r="P6" t="n">
-        <v>13.40038394923412</v>
+        <v>7.869195089395841</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.06935740894481</v>
+        <v>7.087582736374195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.38514593437209</v>
+        <v>7.272991658566039</v>
       </c>
       <c r="B7" t="n">
-        <v>12.42771508482395</v>
+        <v>7.298000183018178</v>
       </c>
       <c r="C7" t="n">
-        <v>12.40599241489275</v>
+        <v>7.285226776413226</v>
       </c>
       <c r="D7" t="n">
-        <v>12.70464909831038</v>
+        <v>7.460599768758574</v>
       </c>
       <c r="E7" t="n">
-        <v>12.57560523684377</v>
+        <v>7.384862911774658</v>
       </c>
       <c r="F7" t="n">
-        <v>12.91342746047784</v>
+        <v>7.583255358803796</v>
       </c>
       <c r="G7" t="n">
-        <v>12.64724162329576</v>
+        <v>7.426894725382709</v>
       </c>
       <c r="H7" t="n">
-        <v>13.06048314639238</v>
+        <v>7.669668894872762</v>
       </c>
       <c r="I7" t="n">
-        <v>12.74056022071628</v>
+        <v>7.481668019503872</v>
       </c>
       <c r="J7" t="n">
-        <v>12.87875286511883</v>
+        <v>7.562943682188378</v>
       </c>
       <c r="K7" t="n">
-        <v>12.67251962457243</v>
+        <v>7.441753722498781</v>
       </c>
       <c r="L7" t="n">
-        <v>13.06732197542782</v>
+        <v>7.673605456243342</v>
       </c>
       <c r="M7" t="n">
-        <v>12.78647608598731</v>
+        <v>7.508652991781073</v>
       </c>
       <c r="N7" t="n">
-        <v>13.07610536335704</v>
+        <v>7.678792332466441</v>
       </c>
       <c r="O7" t="n">
-        <v>12.25024437371501</v>
+        <v>7.193780054842343</v>
       </c>
       <c r="P7" t="n">
-        <v>13.38958140619866</v>
+        <v>7.862878178015063</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.03948352237626</v>
+        <v>7.070021900927768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.32938589774408</v>
+        <v>7.240281521307975</v>
       </c>
       <c r="B8" t="n">
-        <v>12.36578379204473</v>
+        <v>7.261666063102663</v>
       </c>
       <c r="C8" t="n">
-        <v>12.35526319740544</v>
+        <v>7.25548650816352</v>
       </c>
       <c r="D8" t="n">
-        <v>12.68101727107774</v>
+        <v>7.446772801122908</v>
       </c>
       <c r="E8" t="n">
-        <v>12.48300605035339</v>
+        <v>7.330503171912909</v>
       </c>
       <c r="F8" t="n">
-        <v>12.87394077724512</v>
+        <v>7.560042862634464</v>
       </c>
       <c r="G8" t="n">
-        <v>12.57803277460454</v>
+        <v>7.386301813309208</v>
       </c>
       <c r="H8" t="n">
-        <v>12.91277632404721</v>
+        <v>7.582785377033224</v>
       </c>
       <c r="I8" t="n">
-        <v>12.63685504897036</v>
+        <v>7.420848814548942</v>
       </c>
       <c r="J8" t="n">
-        <v>12.66611446504322</v>
+        <v>7.437898090058679</v>
       </c>
       <c r="K8" t="n">
-        <v>12.52840100647991</v>
+        <v>7.357198581961796</v>
       </c>
       <c r="L8" t="n">
-        <v>13.00470414462562</v>
+        <v>7.636810264164279</v>
       </c>
       <c r="M8" t="n">
-        <v>12.68927595683471</v>
+        <v>7.45157359437492</v>
       </c>
       <c r="N8" t="n">
-        <v>13.03859358324013</v>
+        <v>7.656839060756652</v>
       </c>
       <c r="O8" t="n">
-        <v>12.13850430484943</v>
+        <v>7.128132585347075</v>
       </c>
       <c r="P8" t="n">
-        <v>13.36372433601864</v>
+        <v>7.847800895526876</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.02663780172548</v>
+        <v>7.062502192598604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.2348901973781</v>
+        <v>7.184797686026562</v>
       </c>
       <c r="B9" t="n">
-        <v>12.27812818505677</v>
+        <v>7.210187838646275</v>
       </c>
       <c r="C9" t="n">
-        <v>12.26194586432751</v>
+        <v>7.200674605745249</v>
       </c>
       <c r="D9" t="n">
-        <v>12.57601235515573</v>
+        <v>7.385150989068469</v>
       </c>
       <c r="E9" t="n">
-        <v>12.39664639451376</v>
+        <v>7.27981344767824</v>
       </c>
       <c r="F9" t="n">
-        <v>12.77348749462457</v>
+        <v>7.501103584761825</v>
       </c>
       <c r="G9" t="n">
-        <v>12.4673863620739</v>
+        <v>7.321331473947845</v>
       </c>
       <c r="H9" t="n">
-        <v>12.86629024027092</v>
+        <v>7.555563557702606</v>
       </c>
       <c r="I9" t="n">
-        <v>12.56484441711357</v>
+        <v>7.378517044171048</v>
       </c>
       <c r="J9" t="n">
-        <v>12.64403525050341</v>
+        <v>7.424971735199797</v>
       </c>
       <c r="K9" t="n">
-        <v>12.45838677156285</v>
+        <v>7.31601095361937</v>
       </c>
       <c r="L9" t="n">
-        <v>12.92895485174872</v>
+        <v>7.592357264847164</v>
       </c>
       <c r="M9" t="n">
-        <v>12.6089484794621</v>
+        <v>7.404464789697079</v>
       </c>
       <c r="N9" t="n">
-        <v>12.95817254451632</v>
+        <v>7.609367932059792</v>
       </c>
       <c r="O9" t="n">
-        <v>12.06000380251032</v>
+        <v>7.082150103490654</v>
       </c>
       <c r="P9" t="n">
-        <v>13.3279636703802</v>
+        <v>7.826447537356776</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.01921231773119</v>
+        <v>7.05816247151014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.18940420858555</v>
+        <v>7.158024316916207</v>
       </c>
       <c r="B10" t="n">
-        <v>12.21831087307755</v>
+        <v>7.175017907382037</v>
       </c>
       <c r="C10" t="n">
-        <v>12.21338246568614</v>
+        <v>7.172095556277811</v>
       </c>
       <c r="D10" t="n">
-        <v>12.51454254741956</v>
+        <v>7.348969074939633</v>
       </c>
       <c r="E10" t="n">
-        <v>12.30785793657078</v>
+        <v>7.227631364266871</v>
       </c>
       <c r="F10" t="n">
-        <v>12.72623901227029</v>
+        <v>7.473278139555259</v>
       </c>
       <c r="G10" t="n">
-        <v>12.40593299079132</v>
+        <v>7.285203017461159</v>
       </c>
       <c r="H10" t="n">
-        <v>12.88256106498105</v>
+        <v>7.565108716695471</v>
       </c>
       <c r="I10" t="n">
-        <v>12.48220192847013</v>
+        <v>7.330028735338824</v>
       </c>
       <c r="J10" t="n">
-        <v>12.72808368809996</v>
+        <v>7.474416341852712</v>
       </c>
       <c r="K10" t="n">
-        <v>12.37004968392226</v>
+        <v>7.264204558637558</v>
       </c>
       <c r="L10" t="n">
-        <v>12.84581168344212</v>
+        <v>7.543511829266685</v>
       </c>
       <c r="M10" t="n">
-        <v>12.52783205231723</v>
+        <v>7.356813241457961</v>
       </c>
       <c r="N10" t="n">
-        <v>12.87192794385181</v>
+        <v>7.558730923000021</v>
       </c>
       <c r="O10" t="n">
-        <v>12.02123273718</v>
+        <v>7.059336312235693</v>
       </c>
       <c r="P10" t="n">
-        <v>13.25168208927555</v>
+        <v>7.781707945680354</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.01273003330436</v>
+        <v>7.054394450205784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.10191675916123</v>
+        <v>7.10671389005879</v>
       </c>
       <c r="B11" t="n">
-        <v>12.13201949173744</v>
+        <v>7.12438609559303</v>
       </c>
       <c r="C11" t="n">
-        <v>12.12092867859289</v>
+        <v>7.117883567399228</v>
       </c>
       <c r="D11" t="n">
-        <v>12.42722451990146</v>
+        <v>7.297740319479947</v>
       </c>
       <c r="E11" t="n">
-        <v>12.23202519708335</v>
+        <v>7.183095951084773</v>
       </c>
       <c r="F11" t="n">
-        <v>12.64994099471205</v>
+        <v>7.428537062944332</v>
       </c>
       <c r="G11" t="n">
-        <v>12.34512316988387</v>
+        <v>7.24949628237366</v>
       </c>
       <c r="H11" t="n">
-        <v>12.78933350022655</v>
+        <v>7.510379228142182</v>
       </c>
       <c r="I11" t="n">
-        <v>12.43611664129289</v>
+        <v>7.302987335550465</v>
       </c>
       <c r="J11" t="n">
-        <v>12.64814689258572</v>
+        <v>7.42746345529781</v>
       </c>
       <c r="K11" t="n">
-        <v>12.30751909275834</v>
+        <v>7.227453914593621</v>
       </c>
       <c r="L11" t="n">
-        <v>12.76805587888483</v>
+        <v>7.49781890963858</v>
       </c>
       <c r="M11" t="n">
-        <v>12.46928666897725</v>
+        <v>7.322341229410687</v>
       </c>
       <c r="N11" t="n">
-        <v>12.75427201603692</v>
+        <v>7.489732698796071</v>
       </c>
       <c r="O11" t="n">
-        <v>11.96106014493475</v>
+        <v>7.023965914813391</v>
       </c>
       <c r="P11" t="n">
-        <v>13.10656843356962</v>
+        <v>7.696630850665149</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.99687264861912</v>
+        <v>7.045025255951664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.05721972014093</v>
+        <v>7.080408275317252</v>
       </c>
       <c r="B12" t="n">
-        <v>12.09793787305021</v>
+        <v>7.104318690703549</v>
       </c>
       <c r="C12" t="n">
-        <v>12.08340299070756</v>
+        <v>7.095808531060096</v>
       </c>
       <c r="D12" t="n">
-        <v>12.39635686006209</v>
+        <v>7.279594419838873</v>
       </c>
       <c r="E12" t="n">
-        <v>12.21178180797513</v>
+        <v>7.171171927016212</v>
       </c>
       <c r="F12" t="n">
-        <v>12.61018247782383</v>
+        <v>7.405158254110531</v>
       </c>
       <c r="G12" t="n">
-        <v>12.29282111022238</v>
+        <v>7.218772987482188</v>
       </c>
       <c r="H12" t="n">
-        <v>12.75026278570389</v>
+        <v>7.487460006537424</v>
       </c>
       <c r="I12" t="n">
-        <v>12.33076655984552</v>
+        <v>7.241076703734963</v>
       </c>
       <c r="J12" t="n">
-        <v>12.62091674635976</v>
+        <v>7.411471453155049</v>
       </c>
       <c r="K12" t="n">
-        <v>12.17720456699506</v>
+        <v>7.15093375465875</v>
       </c>
       <c r="L12" t="n">
-        <v>12.68723151487681</v>
+        <v>7.450409405723643</v>
       </c>
       <c r="M12" t="n">
-        <v>12.38954837524866</v>
+        <v>7.27557841447232</v>
       </c>
       <c r="N12" t="n">
-        <v>12.65642327913887</v>
+        <v>7.432350374751064</v>
       </c>
       <c r="O12" t="n">
-        <v>11.89870909041772</v>
+        <v>6.987327383324519</v>
       </c>
       <c r="P12" t="n">
-        <v>12.99126165427532</v>
+        <v>7.629133152777672</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.97551410935204</v>
+        <v>7.03243598122523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.02482979183073</v>
+        <v>7.061455313773157</v>
       </c>
       <c r="B13" t="n">
-        <v>12.05132409067296</v>
+        <v>7.07702188218047</v>
       </c>
       <c r="C13" t="n">
-        <v>12.04778898880883</v>
+        <v>7.074938519071106</v>
       </c>
       <c r="D13" t="n">
-        <v>12.36323487739591</v>
+        <v>7.260178901196728</v>
       </c>
       <c r="E13" t="n">
-        <v>12.13507540776234</v>
+        <v>7.126190291015608</v>
       </c>
       <c r="F13" t="n">
-        <v>12.56805711161885</v>
+        <v>7.380469733044043</v>
       </c>
       <c r="G13" t="n">
-        <v>12.23157888415129</v>
+        <v>7.182853906760592</v>
       </c>
       <c r="H13" t="n">
-        <v>12.70651400362139</v>
+        <v>7.461786231427414</v>
       </c>
       <c r="I13" t="n">
-        <v>12.25539404105858</v>
+        <v>7.196862036405768</v>
       </c>
       <c r="J13" t="n">
-        <v>12.53963216165126</v>
+        <v>7.363809510374402</v>
       </c>
       <c r="K13" t="n">
-        <v>12.06763790303093</v>
+        <v>7.086664304383359</v>
       </c>
       <c r="L13" t="n">
-        <v>12.64382284094934</v>
+        <v>7.424930899500932</v>
       </c>
       <c r="M13" t="n">
-        <v>12.34370331316233</v>
+        <v>7.248669916322084</v>
       </c>
       <c r="N13" t="n">
-        <v>12.55818386038244</v>
+        <v>7.374653987058425</v>
       </c>
       <c r="O13" t="n">
-        <v>11.85440905496872</v>
+        <v>6.961393002209026</v>
       </c>
       <c r="P13" t="n">
-        <v>12.83903101416554</v>
+        <v>7.539526265057468</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.9230767650341</v>
+        <v>7.001725308277043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.04352815430163</v>
+        <v>7.072507681287765</v>
       </c>
       <c r="B14" t="n">
-        <v>12.05945381348639</v>
+        <v>7.081856828926079</v>
       </c>
       <c r="C14" t="n">
-        <v>12.05871796610266</v>
+        <v>7.081405408836808</v>
       </c>
       <c r="D14" t="n">
-        <v>12.32792811074503</v>
+        <v>7.239407637352265</v>
       </c>
       <c r="E14" t="n">
-        <v>12.11106554209715</v>
+        <v>7.1121532051476</v>
       </c>
       <c r="F14" t="n">
-        <v>12.54494240050296</v>
+        <v>7.366895204274087</v>
       </c>
       <c r="G14" t="n">
-        <v>12.21085125183349</v>
+        <v>7.17069526304037</v>
       </c>
       <c r="H14" t="n">
-        <v>12.61207772735685</v>
+        <v>7.406323927696311</v>
       </c>
       <c r="I14" t="n">
-        <v>12.20453838931289</v>
+        <v>7.166977729509156</v>
       </c>
       <c r="J14" t="n">
-        <v>12.40400107532337</v>
+        <v>7.284176185251519</v>
       </c>
       <c r="K14" t="n">
-        <v>12.00442203818662</v>
+        <v>7.049520152695815</v>
       </c>
       <c r="L14" t="n">
-        <v>12.6231609544459</v>
+        <v>7.412794529798274</v>
       </c>
       <c r="M14" t="n">
-        <v>12.31224773402151</v>
+        <v>7.230197331090093</v>
       </c>
       <c r="N14" t="n">
-        <v>12.48564473332565</v>
+        <v>7.332057898338785</v>
       </c>
       <c r="O14" t="n">
-        <v>11.78037673932053</v>
+        <v>6.91784952527572</v>
       </c>
       <c r="P14" t="n">
-        <v>12.70147939145295</v>
+        <v>7.458809680213786</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.8375161737074</v>
+        <v>6.951443198563771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.89153521059759</v>
+        <v>6.983084925446079</v>
       </c>
       <c r="B15" t="n">
-        <v>11.90804752474121</v>
+        <v>6.99278451762738</v>
       </c>
       <c r="C15" t="n">
-        <v>11.90608652939383</v>
+        <v>6.991657452338707</v>
       </c>
       <c r="D15" t="n">
-        <v>12.22606002877328</v>
+        <v>7.179524683602221</v>
       </c>
       <c r="E15" t="n">
-        <v>12.01034674753402</v>
+        <v>7.052931047251915</v>
       </c>
       <c r="F15" t="n">
-        <v>12.47966818593232</v>
+        <v>7.32844282528836</v>
       </c>
       <c r="G15" t="n">
-        <v>12.16619340743329</v>
+        <v>7.144412664783646</v>
       </c>
       <c r="H15" t="n">
-        <v>12.55567034732597</v>
+        <v>7.373176477226766</v>
       </c>
       <c r="I15" t="n">
-        <v>12.11355376830195</v>
+        <v>7.113570575131839</v>
       </c>
       <c r="J15" t="n">
-        <v>12.25021276515042</v>
+        <v>7.193661260082009</v>
       </c>
       <c r="K15" t="n">
-        <v>11.84238642133995</v>
+        <v>6.954239330235141</v>
       </c>
       <c r="L15" t="n">
-        <v>12.57346723353466</v>
+        <v>7.383572503690527</v>
       </c>
       <c r="M15" t="n">
-        <v>12.30546453605976</v>
+        <v>7.226236268300194</v>
       </c>
       <c r="N15" t="n">
-        <v>12.34133646384557</v>
+        <v>7.247276305289912</v>
       </c>
       <c r="O15" t="n">
-        <v>11.76373546223338</v>
+        <v>6.908048957548136</v>
       </c>
       <c r="P15" t="n">
-        <v>12.58899968217588</v>
+        <v>7.392701881022221</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.71126018763792</v>
+        <v>6.877208352830833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.80595565413213</v>
+        <v>6.932890426868553</v>
       </c>
       <c r="B16" t="n">
-        <v>11.82649616374754</v>
+        <v>6.944945125173482</v>
       </c>
       <c r="C16" t="n">
-        <v>11.82478297954657</v>
+        <v>6.943951703990186</v>
       </c>
       <c r="D16" t="n">
-        <v>12.15869079854139</v>
+        <v>7.139983847624931</v>
       </c>
       <c r="E16" t="n">
-        <v>11.952706633484</v>
+        <v>7.019059691211583</v>
       </c>
       <c r="F16" t="n">
-        <v>12.39964794380756</v>
+        <v>7.281478801724677</v>
       </c>
       <c r="G16" t="n">
-        <v>12.11154219925123</v>
+        <v>7.11233436715711</v>
       </c>
       <c r="H16" t="n">
-        <v>12.45916687093701</v>
+        <v>7.316529195761329</v>
       </c>
       <c r="I16" t="n">
-        <v>12.05381990293326</v>
+        <v>7.078477860461819</v>
       </c>
       <c r="J16" t="n">
-        <v>12.0761456642769</v>
+        <v>7.09160319654426</v>
       </c>
       <c r="K16" t="n">
-        <v>11.74363241515194</v>
+        <v>6.896295700947555</v>
       </c>
       <c r="L16" t="n">
-        <v>12.48664229962422</v>
+        <v>7.332634795393659</v>
       </c>
       <c r="M16" t="n">
-        <v>12.22213424505077</v>
+        <v>7.177331435339548</v>
       </c>
       <c r="N16" t="n">
-        <v>12.31866047960623</v>
+        <v>7.233979459272238</v>
       </c>
       <c r="O16" t="n">
-        <v>11.67517205727029</v>
+        <v>6.856041353941007</v>
       </c>
       <c r="P16" t="n">
-        <v>12.61064396286689</v>
+        <v>7.405490879439466</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.48517171115651</v>
+        <v>6.744496786323308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.75495333864673</v>
+        <v>6.90298755829064</v>
       </c>
       <c r="B17" t="n">
-        <v>11.79671836721534</v>
+        <v>6.927501599552886</v>
       </c>
       <c r="C17" t="n">
-        <v>11.77405502640184</v>
+        <v>6.914208465871472</v>
       </c>
       <c r="D17" t="n">
-        <v>12.09574044563967</v>
+        <v>7.103115893755164</v>
       </c>
       <c r="E17" t="n">
-        <v>11.94205960458634</v>
+        <v>7.012805889547231</v>
       </c>
       <c r="F17" t="n">
-        <v>12.3339324736752</v>
+        <v>7.242952918480993</v>
       </c>
       <c r="G17" t="n">
-        <v>11.99090874465163</v>
+        <v>7.041448048731096</v>
       </c>
       <c r="H17" t="n">
-        <v>12.41009267789182</v>
+        <v>7.287714041707726</v>
       </c>
       <c r="I17" t="n">
-        <v>11.92257734971352</v>
+        <v>7.001348877380234</v>
       </c>
       <c r="J17" t="n">
-        <v>11.92121312406567</v>
+        <v>7.000585621045086</v>
       </c>
       <c r="K17" t="n">
-        <v>11.58236804728135</v>
+        <v>6.80163261124062</v>
       </c>
       <c r="L17" t="n">
-        <v>12.4675646343782</v>
+        <v>7.321410175476567</v>
       </c>
       <c r="M17" t="n">
-        <v>12.15381928656625</v>
+        <v>7.137111984293848</v>
       </c>
       <c r="N17" t="n">
-        <v>12.34366158985706</v>
+        <v>7.248728571235</v>
       </c>
       <c r="O17" t="n">
-        <v>11.58792103990913</v>
+        <v>6.804840069769647</v>
       </c>
       <c r="P17" t="n">
-        <v>12.62418886496647</v>
+        <v>7.413401868010483</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.31404799981794</v>
+        <v>6.644056558927862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.72886615811647</v>
+        <v>6.887625168377651</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7428738096017</v>
+        <v>6.895856160334318</v>
       </c>
       <c r="C18" t="n">
-        <v>11.74053224713662</v>
+        <v>6.894487793188717</v>
       </c>
       <c r="D18" t="n">
-        <v>12.0551310261926</v>
+        <v>7.079214387975892</v>
       </c>
       <c r="E18" t="n">
-        <v>11.83239558624326</v>
+        <v>6.948413932175245</v>
       </c>
       <c r="F18" t="n">
-        <v>12.24242947220493</v>
+        <v>7.189109935826699</v>
       </c>
       <c r="G18" t="n">
-        <v>11.93491227596047</v>
+        <v>7.008601297498647</v>
       </c>
       <c r="H18" t="n">
-        <v>12.34977595059202</v>
+        <v>7.252172876817443</v>
       </c>
       <c r="I18" t="n">
-        <v>11.82070168168627</v>
+        <v>6.941568384110978</v>
       </c>
       <c r="J18" t="n">
-        <v>11.9697562932257</v>
+        <v>7.029063694966239</v>
       </c>
       <c r="K18" t="n">
-        <v>11.42137172003852</v>
+        <v>6.70709202863028</v>
       </c>
       <c r="L18" t="n">
-        <v>12.38485007820749</v>
+        <v>7.272756296447128</v>
       </c>
       <c r="M18" t="n">
-        <v>12.09181719060233</v>
+        <v>7.100738513613972</v>
       </c>
       <c r="N18" t="n">
-        <v>12.2722401416443</v>
+        <v>7.206648497255562</v>
       </c>
       <c r="O18" t="n">
-        <v>11.53197893794907</v>
+        <v>6.772054943319122</v>
       </c>
       <c r="P18" t="n">
-        <v>12.62188649712149</v>
+        <v>7.411901341694009</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.16249884036079</v>
+        <v>6.555161697302412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.61904536129301</v>
+        <v>6.823122583385105</v>
       </c>
       <c r="B19" t="n">
-        <v>11.64040895793042</v>
+        <v>6.835680674486951</v>
       </c>
       <c r="C19" t="n">
-        <v>11.63917748825386</v>
+        <v>6.834943404505625</v>
       </c>
       <c r="D19" t="n">
-        <v>11.98120744400661</v>
+        <v>7.035862467593625</v>
       </c>
       <c r="E19" t="n">
-        <v>11.74481836849549</v>
+        <v>6.896955754334663</v>
       </c>
       <c r="F19" t="n">
-        <v>12.15803839776818</v>
+        <v>7.139663101772028</v>
       </c>
       <c r="G19" t="n">
-        <v>11.83079239984708</v>
+        <v>6.947442785009512</v>
       </c>
       <c r="H19" t="n">
-        <v>12.18691092501042</v>
+        <v>7.156586900316161</v>
       </c>
       <c r="I19" t="n">
-        <v>11.71205166609534</v>
+        <v>6.877724367571035</v>
       </c>
       <c r="J19" t="n">
-        <v>11.68423107188278</v>
+        <v>6.861396027763078</v>
       </c>
       <c r="K19" t="n">
-        <v>11.28066935560726</v>
+        <v>6.624431664520627</v>
       </c>
       <c r="L19" t="n">
-        <v>12.32748938386847</v>
+        <v>7.239194549250915</v>
       </c>
       <c r="M19" t="n">
-        <v>12.00701014745554</v>
+        <v>7.050975388509911</v>
       </c>
       <c r="N19" t="n">
-        <v>12.26779977049021</v>
+        <v>7.204038724864467</v>
       </c>
       <c r="O19" t="n">
-        <v>11.44369368835441</v>
+        <v>6.720227759254251</v>
       </c>
       <c r="P19" t="n">
-        <v>12.62327221659326</v>
+        <v>7.412699493990006</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.05900354948376</v>
+        <v>6.494327643002441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.5098807582705</v>
+        <v>6.759012763568914</v>
       </c>
       <c r="B20" t="n">
-        <v>11.53186894014428</v>
+        <v>6.771962877379862</v>
       </c>
       <c r="C20" t="n">
-        <v>11.53006472327729</v>
+        <v>6.770887784798837</v>
       </c>
       <c r="D20" t="n">
-        <v>11.87221858460325</v>
+        <v>6.971785316336526</v>
       </c>
       <c r="E20" t="n">
-        <v>11.62707899407008</v>
+        <v>6.827938968449411</v>
       </c>
       <c r="F20" t="n">
-        <v>12.06785916298308</v>
+        <v>7.086663561916107</v>
       </c>
       <c r="G20" t="n">
-        <v>11.7101109002293</v>
+        <v>6.87658542280633</v>
       </c>
       <c r="H20" t="n">
-        <v>11.96784840026684</v>
+        <v>7.028104427276539</v>
       </c>
       <c r="I20" t="n">
-        <v>11.52908738646006</v>
+        <v>6.770309402809459</v>
       </c>
       <c r="J20" t="n">
-        <v>11.36684694611483</v>
+        <v>6.675335219323898</v>
       </c>
       <c r="K20" t="n">
-        <v>11.09585660711455</v>
+        <v>6.515963881195588</v>
       </c>
       <c r="L20" t="n">
-        <v>12.25945637378013</v>
+        <v>7.199167397223507</v>
       </c>
       <c r="M20" t="n">
-        <v>11.8978480731182</v>
+        <v>6.986843294676157</v>
       </c>
       <c r="N20" t="n">
-        <v>12.24398967095326</v>
+        <v>7.190079598057928</v>
       </c>
       <c r="O20" t="n">
-        <v>11.30047907520926</v>
+        <v>6.636098052452713</v>
       </c>
       <c r="P20" t="n">
-        <v>12.6043070778372</v>
+        <v>7.401774830842758</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.98965688745091</v>
+        <v>6.453529067500111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.37632572246511</v>
+        <v>6.680605994346483</v>
       </c>
       <c r="B21" t="n">
-        <v>11.42486509859738</v>
+        <v>6.709127131368257</v>
       </c>
       <c r="C21" t="n">
-        <v>11.4026050830681</v>
+        <v>6.696043373451933</v>
       </c>
       <c r="D21" t="n">
-        <v>11.72338902604372</v>
+        <v>6.884454090743977</v>
       </c>
       <c r="E21" t="n">
-        <v>11.55766658622287</v>
+        <v>6.787167864235408</v>
       </c>
       <c r="F21" t="n">
-        <v>11.95762492613474</v>
+        <v>7.022045894499487</v>
       </c>
       <c r="G21" t="n">
-        <v>11.58728886861726</v>
+        <v>6.804532688327282</v>
       </c>
       <c r="H21" t="n">
-        <v>12.08490250101187</v>
+        <v>7.096616335430371</v>
       </c>
       <c r="I21" t="n">
-        <v>11.36408309322677</v>
+        <v>6.673470141586649</v>
       </c>
       <c r="J21" t="n">
-        <v>12.02004172646612</v>
+        <v>7.058154304370366</v>
       </c>
       <c r="K21" t="n">
-        <v>10.90378526784861</v>
+        <v>6.403008625798918</v>
       </c>
       <c r="L21" t="n">
-        <v>12.10902236448183</v>
+        <v>7.110954863002727</v>
       </c>
       <c r="M21" t="n">
-        <v>11.7613003384171</v>
+        <v>6.906704349354601</v>
       </c>
       <c r="N21" t="n">
-        <v>12.18402063786399</v>
+        <v>7.154945305221791</v>
       </c>
       <c r="O21" t="n">
-        <v>11.1709648783015</v>
+        <v>6.560004068720541</v>
       </c>
       <c r="P21" t="n">
-        <v>12.56929237432316</v>
+        <v>7.381268627807292</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.95411242439429</v>
+        <v>6.432657570576617</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.26760616803208</v>
+        <v>6.616770887413566</v>
       </c>
       <c r="B22" t="n">
-        <v>11.31077588121122</v>
+        <v>6.642128371474185</v>
       </c>
       <c r="C22" t="n">
-        <v>11.29632950284943</v>
+        <v>6.633636031044783</v>
       </c>
       <c r="D22" t="n">
-        <v>11.63605961944237</v>
+        <v>6.833145891288316</v>
       </c>
       <c r="E22" t="n">
-        <v>11.4493857586664</v>
+        <v>6.723551785141857</v>
       </c>
       <c r="F22" t="n">
-        <v>11.79861993846129</v>
+        <v>6.928647226522861</v>
       </c>
       <c r="G22" t="n">
-        <v>11.46665162098992</v>
+        <v>6.733654537041041</v>
       </c>
       <c r="H22" t="n">
-        <v>11.66636085380422</v>
+        <v>6.851130675535686</v>
       </c>
       <c r="I22" t="n">
-        <v>11.13346068424008</v>
+        <v>6.538001051704863</v>
       </c>
       <c r="J22" t="n">
-        <v>11.23886007504822</v>
+        <v>6.599901288978835</v>
       </c>
       <c r="K22" t="n">
-        <v>10.69003551064189</v>
+        <v>6.277596254846687</v>
       </c>
       <c r="L22" t="n">
-        <v>11.94815500018254</v>
+        <v>7.016434327008193</v>
       </c>
       <c r="M22" t="n">
-        <v>11.62331251751312</v>
+        <v>6.825644744640454</v>
       </c>
       <c r="N22" t="n">
-        <v>12.03031956732933</v>
+        <v>7.064786764333284</v>
       </c>
       <c r="O22" t="n">
-        <v>11.07739341236423</v>
+        <v>6.505158012808674</v>
       </c>
       <c r="P22" t="n">
-        <v>12.49460260053143</v>
+        <v>7.337407374890091</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.94801450011292</v>
+        <v>6.429219947199441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11.05547350498997</v>
+        <v>6.492227203146279</v>
       </c>
       <c r="B23" t="n">
-        <v>11.08489222822838</v>
+        <v>6.509488081822861</v>
       </c>
       <c r="C23" t="n">
-        <v>11.06418356104933</v>
+        <v>6.497338347709665</v>
       </c>
       <c r="D23" t="n">
-        <v>11.43998790024147</v>
+        <v>6.718059754878149</v>
       </c>
       <c r="E23" t="n">
-        <v>11.14730902855976</v>
+        <v>6.546139235255018</v>
       </c>
       <c r="F23" t="n">
-        <v>11.67040169270185</v>
+        <v>6.853387775982038</v>
       </c>
       <c r="G23" t="n">
-        <v>11.24124209647598</v>
+        <v>6.601294157543755</v>
       </c>
       <c r="H23" t="n">
-        <v>11.60614148088338</v>
+        <v>6.816003807372069</v>
       </c>
       <c r="I23" t="n">
-        <v>10.95940369810723</v>
+        <v>6.435902152468249</v>
       </c>
       <c r="J23" t="n">
-        <v>11.1887453280566</v>
+        <v>6.571047526628124</v>
       </c>
       <c r="K23" t="n">
-        <v>10.51321151076453</v>
+        <v>6.173739935624377</v>
       </c>
       <c r="L23" t="n">
-        <v>11.85828805801562</v>
+        <v>6.96366495200042</v>
       </c>
       <c r="M23" t="n">
-        <v>11.47947711215936</v>
+        <v>6.741183897444484</v>
       </c>
       <c r="N23" t="n">
-        <v>11.93530422216143</v>
+        <v>7.008896799464978</v>
       </c>
       <c r="O23" t="n">
-        <v>10.97432926230826</v>
+        <v>6.444622430344043</v>
       </c>
       <c r="P23" t="n">
-        <v>12.37202205835289</v>
+        <v>7.26515046191672</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.95336899095505</v>
+        <v>6.432244016317203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.90498133593282</v>
+        <v>6.403809005496671</v>
       </c>
       <c r="B24" t="n">
-        <v>10.94394711002104</v>
+        <v>6.426701498280353</v>
       </c>
       <c r="C24" t="n">
-        <v>10.9224065054219</v>
+        <v>6.414061735780778</v>
       </c>
       <c r="D24" t="n">
-        <v>11.30929154301791</v>
+        <v>6.641288641012072</v>
       </c>
       <c r="E24" t="n">
-        <v>11.07708744145896</v>
+        <v>6.504881072523644</v>
       </c>
       <c r="F24" t="n">
-        <v>11.56945278778847</v>
+        <v>6.794011927365172</v>
       </c>
       <c r="G24" t="n">
-        <v>11.09489823543608</v>
+        <v>6.515330556629555</v>
       </c>
       <c r="H24" t="n">
-        <v>11.75473334303716</v>
+        <v>6.902763333180509</v>
       </c>
       <c r="I24" t="n">
-        <v>10.72682661548608</v>
+        <v>6.299223583432808</v>
       </c>
       <c r="J24" t="n">
-        <v>11.86704868777834</v>
+        <v>6.968607556497582</v>
       </c>
       <c r="K24" t="n">
-        <v>10.28492813555775</v>
+        <v>6.039763204919291</v>
       </c>
       <c r="L24" t="n">
-        <v>11.66394722381187</v>
+        <v>6.849479428367038</v>
       </c>
       <c r="M24" t="n">
-        <v>11.27611392927805</v>
+        <v>6.621715719312482</v>
       </c>
       <c r="N24" t="n">
-        <v>11.79427945037131</v>
+        <v>6.92606047061658</v>
       </c>
       <c r="O24" t="n">
-        <v>10.71463961732143</v>
+        <v>6.292124854035579</v>
       </c>
       <c r="P24" t="n">
-        <v>12.16946931906776</v>
+        <v>7.146430690774825</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.83838588336218</v>
+        <v>6.364736666355449</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.82752012319754</v>
+        <v>6.358333628773427</v>
       </c>
       <c r="B25" t="n">
-        <v>10.86163461479195</v>
+        <v>6.378347576020758</v>
       </c>
       <c r="C25" t="n">
-        <v>10.8460275699383</v>
+        <v>6.369204834278525</v>
       </c>
       <c r="D25" t="n">
-        <v>11.27072530118616</v>
+        <v>6.618621858273025</v>
       </c>
       <c r="E25" t="n">
-        <v>10.93989994941049</v>
+        <v>6.424355301763749</v>
       </c>
       <c r="F25" t="n">
-        <v>11.47426675637177</v>
+        <v>6.738125674833126</v>
       </c>
       <c r="G25" t="n">
-        <v>10.9095936576783</v>
+        <v>6.406595485093764</v>
       </c>
       <c r="H25" t="n">
-        <v>11.64082619098306</v>
+        <v>6.835901187260821</v>
       </c>
       <c r="I25" t="n">
-        <v>10.4067311070473</v>
+        <v>6.111475889396881</v>
       </c>
       <c r="J25" t="n">
-        <v>11.73948284279212</v>
+        <v>6.893826997334357</v>
       </c>
       <c r="K25" t="n">
-        <v>10.06140817103521</v>
+        <v>5.908603394968633</v>
       </c>
       <c r="L25" t="n">
-        <v>11.52285797054998</v>
+        <v>6.766687647553765</v>
       </c>
       <c r="M25" t="n">
-        <v>11.11850983318738</v>
+        <v>6.52925627240975</v>
       </c>
       <c r="N25" t="n">
-        <v>11.52816062334618</v>
+        <v>6.769860210121944</v>
       </c>
       <c r="O25" t="n">
-        <v>10.58669573390267</v>
+        <v>6.21707997653061</v>
       </c>
       <c r="P25" t="n">
-        <v>11.91921799146853</v>
+        <v>6.999305607502483</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.72822750706886</v>
+        <v>6.300058116624157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.69452392681416</v>
+        <v>6.280235725927866</v>
       </c>
       <c r="B26" t="n">
-        <v>10.73446577337702</v>
+        <v>6.30369397875764</v>
       </c>
       <c r="C26" t="n">
-        <v>10.70979212785538</v>
+        <v>6.289212897472883</v>
       </c>
       <c r="D26" t="n">
-        <v>11.14599664095784</v>
+        <v>6.545378206321626</v>
       </c>
       <c r="E26" t="n">
-        <v>10.80834383922999</v>
+        <v>6.34711791846336</v>
       </c>
       <c r="F26" t="n">
-        <v>11.38378660805174</v>
+        <v>6.685013279954887</v>
       </c>
       <c r="G26" t="n">
-        <v>10.73201168442199</v>
+        <v>6.302212014122469</v>
       </c>
       <c r="H26" t="n">
-        <v>11.53016966371174</v>
+        <v>6.770868480650282</v>
       </c>
       <c r="I26" t="n">
-        <v>10.32767113311489</v>
+        <v>6.064848574732021</v>
       </c>
       <c r="J26" t="n">
-        <v>11.57834238049473</v>
+        <v>6.798895876949417</v>
       </c>
       <c r="K26" t="n">
-        <v>9.832379465875315</v>
+        <v>5.773928002579331</v>
       </c>
       <c r="L26" t="n">
-        <v>11.40561042538964</v>
+        <v>6.697791883830604</v>
       </c>
       <c r="M26" t="n">
-        <v>10.93972673447652</v>
+        <v>6.424190474033786</v>
       </c>
       <c r="N26" t="n">
-        <v>11.28237242506755</v>
+        <v>6.62541320622789</v>
       </c>
       <c r="O26" t="n">
-        <v>10.40101311771235</v>
+        <v>6.107935805538917</v>
       </c>
       <c r="P26" t="n">
-        <v>11.58652773438185</v>
+        <v>6.803929804918586</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.59652346880606</v>
+        <v>6.22279808807258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.56134692944131</v>
+        <v>6.201972252885088</v>
       </c>
       <c r="B27" t="n">
-        <v>10.59263371884719</v>
+        <v>6.220383584568784</v>
       </c>
       <c r="C27" t="n">
-        <v>10.58008195784713</v>
+        <v>6.212987497037092</v>
       </c>
       <c r="D27" t="n">
-        <v>10.97838906634464</v>
+        <v>6.44697011179515</v>
       </c>
       <c r="E27" t="n">
-        <v>10.68071477711458</v>
+        <v>6.272133180805811</v>
       </c>
       <c r="F27" t="n">
-        <v>11.26450094264642</v>
+        <v>6.614867943846459</v>
       </c>
       <c r="G27" t="n">
-        <v>10.63893078340721</v>
+        <v>6.247573849041187</v>
       </c>
       <c r="H27" t="n">
-        <v>11.44362667819747</v>
+        <v>6.719943394296701</v>
       </c>
       <c r="I27" t="n">
-        <v>10.20247150527413</v>
+        <v>5.991260046742026</v>
       </c>
       <c r="J27" t="n">
-        <v>11.47993101114692</v>
+        <v>6.741457125393253</v>
       </c>
       <c r="K27" t="n">
-        <v>9.72939876242987</v>
+        <v>5.713468894241665</v>
       </c>
       <c r="L27" t="n">
-        <v>11.26300522536986</v>
+        <v>6.614046775065648</v>
       </c>
       <c r="M27" t="n">
-        <v>10.80055928194192</v>
+        <v>6.34251684890216</v>
       </c>
       <c r="N27" t="n">
-        <v>11.18376887564701</v>
+        <v>6.567483683818093</v>
       </c>
       <c r="O27" t="n">
-        <v>10.17728706534865</v>
+        <v>5.97644745382921</v>
       </c>
       <c r="P27" t="n">
-        <v>11.44859048718123</v>
+        <v>6.723007556646075</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.30863455900284</v>
+        <v>6.05354673822071</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.40167879408269</v>
+        <v>6.108282908979269</v>
       </c>
       <c r="B28" t="n">
-        <v>10.44309676061206</v>
+        <v>6.132617644400136</v>
       </c>
       <c r="C28" t="n">
-        <v>10.42943806767994</v>
+        <v>6.124594543274054</v>
       </c>
       <c r="D28" t="n">
-        <v>10.85730297710007</v>
+        <v>6.375838036708695</v>
       </c>
       <c r="E28" t="n">
-        <v>10.54563620849578</v>
+        <v>6.192829511142856</v>
       </c>
       <c r="F28" t="n">
-        <v>11.08792665042935</v>
+        <v>6.511221000389239</v>
       </c>
       <c r="G28" t="n">
-        <v>10.51170883960376</v>
+        <v>6.172918024376314</v>
       </c>
       <c r="H28" t="n">
-        <v>11.37558228902587</v>
+        <v>6.680093691942541</v>
       </c>
       <c r="I28" t="n">
-        <v>10.09252996373391</v>
+        <v>5.926887764752221</v>
       </c>
       <c r="J28" t="n">
-        <v>11.4532420035468</v>
+        <v>6.725716819648951</v>
       </c>
       <c r="K28" t="n">
-        <v>9.612947753097284</v>
+        <v>5.645178983796209</v>
       </c>
       <c r="L28" t="n">
-        <v>11.06147154620722</v>
+        <v>6.495644037440396</v>
       </c>
       <c r="M28" t="n">
-        <v>10.61919818870281</v>
+        <v>6.235975025629042</v>
       </c>
       <c r="N28" t="n">
-        <v>11.12056186120079</v>
+        <v>6.53028310461939</v>
       </c>
       <c r="O28" t="n">
-        <v>9.987497864446354</v>
+        <v>5.865105208537705</v>
       </c>
       <c r="P28" t="n">
-        <v>11.4625867595832</v>
+        <v>6.731086342816063</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.958344020979236</v>
+        <v>5.848003217853071</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.12610837407282</v>
+        <v>5.946285835413943</v>
       </c>
       <c r="B29" t="n">
-        <v>10.16966497608259</v>
+        <v>5.971874226789963</v>
       </c>
       <c r="C29" t="n">
-        <v>10.16673106911703</v>
+        <v>5.970137224653699</v>
       </c>
       <c r="D29" t="n">
-        <v>10.55181252201734</v>
+        <v>6.196296461976488</v>
       </c>
       <c r="E29" t="n">
-        <v>10.35738950554564</v>
+        <v>6.082150660341093</v>
       </c>
       <c r="F29" t="n">
-        <v>10.85350742066369</v>
+        <v>6.373533418358208</v>
       </c>
       <c r="G29" t="n">
-        <v>10.3288052484125</v>
+        <v>6.065365331939475</v>
       </c>
       <c r="H29" t="n">
-        <v>11.20297171080882</v>
+        <v>6.5787669586481</v>
       </c>
       <c r="I29" t="n">
-        <v>9.932210059773377</v>
+        <v>5.832509411236463</v>
       </c>
       <c r="J29" t="n">
-        <v>11.39612659166903</v>
+        <v>6.692111266884865</v>
       </c>
       <c r="K29" t="n">
-        <v>9.488875918841217</v>
+        <v>5.572185543308764</v>
       </c>
       <c r="L29" t="n">
-        <v>10.87765762835566</v>
+        <v>6.387739044292441</v>
       </c>
       <c r="M29" t="n">
-        <v>10.45189532065229</v>
+        <v>6.137662338144459</v>
       </c>
       <c r="N29" t="n">
-        <v>11.04552945056887</v>
+        <v>6.486419624300433</v>
       </c>
       <c r="O29" t="n">
-        <v>9.809860260116361</v>
+        <v>5.760697978614345</v>
       </c>
       <c r="P29" t="n">
-        <v>11.42489670716198</v>
+        <v>6.709409268924052</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.558356601187946</v>
+        <v>5.61299302841812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.990379933365984</v>
+        <v>5.866675526775875</v>
       </c>
       <c r="B30" t="n">
-        <v>10.02492114058241</v>
+        <v>5.886970497878122</v>
       </c>
       <c r="C30" t="n">
-        <v>10.02368651004939</v>
+        <v>5.886252160811725</v>
       </c>
       <c r="D30" t="n">
-        <v>10.3773503140864</v>
+        <v>6.09397185269524</v>
       </c>
       <c r="E30" t="n">
-        <v>10.18758007832286</v>
+        <v>5.982532344193711</v>
       </c>
       <c r="F30" t="n">
-        <v>10.67554867331742</v>
+        <v>6.269061593783916</v>
       </c>
       <c r="G30" t="n">
-        <v>10.17393655750175</v>
+        <v>5.974516667740151</v>
       </c>
       <c r="H30" t="n">
-        <v>11.08051507420348</v>
+        <v>6.506831533994884</v>
       </c>
       <c r="I30" t="n">
-        <v>9.778211868731528</v>
+        <v>5.742236159157508</v>
       </c>
       <c r="J30" t="n">
-        <v>11.28933136664844</v>
+        <v>6.629430696528947</v>
       </c>
       <c r="K30" t="n">
-        <v>9.420424411357653</v>
+        <v>5.532026232110484</v>
       </c>
       <c r="L30" t="n">
-        <v>10.65364014502642</v>
+        <v>6.256152315671832</v>
       </c>
       <c r="M30" t="n">
-        <v>10.22396090399863</v>
+        <v>6.003834472123417</v>
       </c>
       <c r="N30" t="n">
-        <v>10.92044424573193</v>
+        <v>6.412798056517721</v>
       </c>
       <c r="O30" t="n">
-        <v>9.619376302964298</v>
+        <v>5.648928443419262</v>
       </c>
       <c r="P30" t="n">
-        <v>11.37933232912924</v>
+        <v>6.68225352917887</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.220165821690713</v>
+        <v>5.414431298855505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.881341764601853</v>
+        <v>5.802637726283137</v>
       </c>
       <c r="B31" t="n">
-        <v>9.916619451373306</v>
+        <v>5.82338263254015</v>
       </c>
       <c r="C31" t="n">
-        <v>9.916525890022109</v>
+        <v>5.823311355683948</v>
       </c>
       <c r="D31" t="n">
-        <v>10.23041853374507</v>
+        <v>6.007673770283973</v>
       </c>
       <c r="E31" t="n">
-        <v>10.06141259623425</v>
+        <v>5.908452674116459</v>
       </c>
       <c r="F31" t="n">
-        <v>10.49693878954054</v>
+        <v>6.164225217788847</v>
       </c>
       <c r="G31" t="n">
-        <v>9.998558333368893</v>
+        <v>5.871507874886101</v>
       </c>
       <c r="H31" t="n">
-        <v>10.90955572740079</v>
+        <v>6.406595485093764</v>
       </c>
       <c r="I31" t="n">
-        <v>9.551039218484561</v>
+        <v>5.608852659786842</v>
       </c>
       <c r="J31" t="n">
-        <v>11.14742914110522</v>
+        <v>6.546181555888387</v>
       </c>
       <c r="K31" t="n">
-        <v>9.137500574880768</v>
+        <v>5.366043965569566</v>
       </c>
       <c r="L31" t="n">
-        <v>10.44777166731543</v>
+        <v>6.135327649870263</v>
       </c>
       <c r="M31" t="n">
-        <v>10.0304494785298</v>
+        <v>5.890229186647543</v>
       </c>
       <c r="N31" t="n">
-        <v>10.73259581069567</v>
+        <v>6.302569140870725</v>
       </c>
       <c r="O31" t="n">
-        <v>9.509731249759973</v>
+        <v>5.584577321746142</v>
       </c>
       <c r="P31" t="n">
-        <v>11.2620531754043</v>
+        <v>6.613579763164084</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.095016767553302</v>
+        <v>5.340965649195732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.945678311103821</v>
+        <v>5.253144395216803</v>
       </c>
       <c r="B32" t="n">
-        <v>8.977203429086739</v>
+        <v>5.271648164073383</v>
       </c>
       <c r="C32" t="n">
-        <v>8.94849273769522</v>
+        <v>5.254832765748056</v>
       </c>
       <c r="D32" t="n">
-        <v>9.312759950810753</v>
+        <v>5.46866184941539</v>
       </c>
       <c r="E32" t="n">
-        <v>9.049127453476538</v>
+        <v>5.313945780957683</v>
       </c>
       <c r="F32" t="n">
-        <v>9.459263751187494</v>
+        <v>5.5546198818252</v>
       </c>
       <c r="G32" t="n">
-        <v>9.245152392001833</v>
+        <v>5.429171501211242</v>
       </c>
       <c r="H32" t="n">
-        <v>9.708370216577144</v>
+        <v>5.70104221984344</v>
       </c>
       <c r="I32" t="n">
-        <v>9.47989592564022</v>
+        <v>5.567115234444244</v>
       </c>
       <c r="J32" t="n">
-        <v>9.805263742653182</v>
+        <v>5.757972381331923</v>
       </c>
       <c r="K32" t="n">
-        <v>9.708833598134083</v>
+        <v>5.701403801395207</v>
       </c>
       <c r="L32" t="n">
-        <v>9.36108628521767</v>
+        <v>5.497039319023886</v>
       </c>
       <c r="M32" t="n">
-        <v>9.191659321626469</v>
+        <v>5.397737293925894</v>
       </c>
       <c r="N32" t="n">
-        <v>9.388415050165163</v>
+        <v>5.513228446222076</v>
       </c>
       <c r="O32" t="n">
-        <v>9.070410132188597</v>
+        <v>5.326391759504462</v>
       </c>
       <c r="P32" t="n">
-        <v>9.620664668057127</v>
+        <v>5.649684275081889</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.911766114322806</v>
+        <v>5.233301215437454</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.88143959310927</v>
+        <v>5.215441908155687</v>
       </c>
       <c r="B33" t="n">
-        <v>8.915354318575453</v>
+        <v>5.235368986734524</v>
       </c>
       <c r="C33" t="n">
-        <v>8.894007790562915</v>
+        <v>5.222848761462534</v>
       </c>
       <c r="D33" t="n">
-        <v>9.152830096537297</v>
+        <v>5.374900114952492</v>
       </c>
       <c r="E33" t="n">
-        <v>9.056988503490929</v>
+        <v>5.318588799918626</v>
       </c>
       <c r="F33" t="n">
-        <v>9.299744176082463</v>
+        <v>5.461214902876931</v>
       </c>
       <c r="G33" t="n">
-        <v>9.267865674347389</v>
+        <v>5.442448300613111</v>
       </c>
       <c r="H33" t="n">
-        <v>9.470977885225825</v>
+        <v>5.56170636051277</v>
       </c>
       <c r="I33" t="n">
-        <v>9.216310841152897</v>
+        <v>5.41212742297227</v>
       </c>
       <c r="J33" t="n">
-        <v>9.41605673990213</v>
+        <v>5.52939938297259</v>
       </c>
       <c r="K33" t="n">
-        <v>9.048907457866969</v>
+        <v>5.313732692856333</v>
       </c>
       <c r="L33" t="n">
-        <v>9.236178088342461</v>
+        <v>5.423860261723418</v>
       </c>
       <c r="M33" t="n">
-        <v>9.18046988976039</v>
+        <v>5.391107432598359</v>
       </c>
       <c r="N33" t="n">
-        <v>9.199365489674351</v>
+        <v>5.402274511303414</v>
       </c>
       <c r="O33" t="n">
-        <v>9.048456087564574</v>
+        <v>5.313587911742175</v>
       </c>
       <c r="P33" t="n">
-        <v>9.666928227538678</v>
+        <v>5.67671528032872</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.104634621587795</v>
+        <v>5.346572019416261</v>
       </c>
     </row>
   </sheetData>
@@ -5795,1698 +5795,1698 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.913953110907025</v>
+        <v>2.885773269434127</v>
       </c>
       <c r="B2" t="n">
-        <v>4.853112945777562</v>
+        <v>2.850039248675114</v>
       </c>
       <c r="C2" t="n">
-        <v>4.840865891340186</v>
+        <v>2.842833975227209</v>
       </c>
       <c r="D2" t="n">
-        <v>4.820620605718084</v>
+        <v>2.83088062370219</v>
       </c>
       <c r="E2" t="n">
-        <v>4.876277598425514</v>
+        <v>2.863575540381587</v>
       </c>
       <c r="F2" t="n">
-        <v>5.145258264888938</v>
+        <v>3.021518000283251</v>
       </c>
       <c r="G2" t="n">
-        <v>5.24820957236931</v>
+        <v>3.081960774341371</v>
       </c>
       <c r="H2" t="n">
-        <v>5.574325880191845</v>
+        <v>3.273509158240746</v>
       </c>
       <c r="I2" t="n">
-        <v>5.798145493906738</v>
+        <v>3.404903587843064</v>
       </c>
       <c r="J2" t="n">
-        <v>5.920647646845094</v>
+        <v>3.476791865825773</v>
       </c>
       <c r="K2" t="n">
-        <v>6.1758216922941</v>
+        <v>3.626665191631726</v>
       </c>
       <c r="L2" t="n">
-        <v>5.932622867626966</v>
+        <v>3.483928089819234</v>
       </c>
       <c r="M2" t="n">
-        <v>6.003240193956474</v>
+        <v>3.525394143381192</v>
       </c>
       <c r="N2" t="n">
-        <v>6.387714762416595</v>
+        <v>3.75111235515624</v>
       </c>
       <c r="O2" t="n">
-        <v>6.43776186707998</v>
+        <v>3.780514058338993</v>
       </c>
       <c r="P2" t="n">
-        <v>6.833377190216707</v>
+        <v>4.012775262773082</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.113539070319415</v>
+        <v>4.177401412878058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.798931124779708</v>
+        <v>2.81805691494091</v>
       </c>
       <c r="B3" t="n">
-        <v>4.751381096719204</v>
+        <v>2.790144786682662</v>
       </c>
       <c r="C3" t="n">
-        <v>4.738629885676563</v>
+        <v>2.782657375678963</v>
       </c>
       <c r="D3" t="n">
-        <v>4.748125730651726</v>
+        <v>2.788242028732369</v>
       </c>
       <c r="E3" t="n">
-        <v>4.809145748513726</v>
+        <v>2.824078695588983</v>
       </c>
       <c r="F3" t="n">
-        <v>5.079786180703951</v>
+        <v>2.982993973207698</v>
       </c>
       <c r="G3" t="n">
-        <v>5.172728320120163</v>
+        <v>3.03751724148172</v>
       </c>
       <c r="H3" t="n">
-        <v>5.499591222238395</v>
+        <v>3.229597046316778</v>
       </c>
       <c r="I3" t="n">
-        <v>5.72948663423944</v>
+        <v>3.364455828117346</v>
       </c>
       <c r="J3" t="n">
-        <v>5.872426252872626</v>
+        <v>3.448541358117385</v>
       </c>
       <c r="K3" t="n">
-        <v>6.094496648622918</v>
+        <v>3.578906728108306</v>
       </c>
       <c r="L3" t="n">
-        <v>5.916888756343641</v>
+        <v>3.474471284429367</v>
       </c>
       <c r="M3" t="n">
-        <v>5.976918477876929</v>
+        <v>3.50971768982057</v>
       </c>
       <c r="N3" t="n">
-        <v>6.350140397341783</v>
+        <v>3.72886358148012</v>
       </c>
       <c r="O3" t="n">
-        <v>6.384189775293134</v>
+        <v>3.748870104054929</v>
       </c>
       <c r="P3" t="n">
-        <v>6.84772368551438</v>
+        <v>4.020942773779694</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.091083081689648</v>
+        <v>4.163955330942713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.839184947875107</v>
+        <v>2.841678510566144</v>
       </c>
       <c r="B4" t="n">
-        <v>4.787790054017456</v>
+        <v>2.811488121544859</v>
       </c>
       <c r="C4" t="n">
-        <v>4.775461133397783</v>
+        <v>2.804255005575001</v>
       </c>
       <c r="D4" t="n">
-        <v>4.783184370070545</v>
+        <v>2.808805401746246</v>
       </c>
       <c r="E4" t="n">
-        <v>4.842281638948326</v>
+        <v>2.843481035437405</v>
       </c>
       <c r="F4" t="n">
-        <v>5.112640122742378</v>
+        <v>3.002317425910585</v>
       </c>
       <c r="G4" t="n">
-        <v>5.22669299027926</v>
+        <v>3.069223191781333</v>
       </c>
       <c r="H4" t="n">
-        <v>5.515480215488228</v>
+        <v>3.238930230909172</v>
       </c>
       <c r="I4" t="n">
-        <v>5.775291869534385</v>
+        <v>3.391462703178484</v>
       </c>
       <c r="J4" t="n">
-        <v>5.872832106842005</v>
+        <v>3.448778576404428</v>
       </c>
       <c r="K4" t="n">
-        <v>6.115394335018228</v>
+        <v>3.591218691316084</v>
       </c>
       <c r="L4" t="n">
-        <v>5.93167713937433</v>
+        <v>3.483347851661725</v>
       </c>
       <c r="M4" t="n">
-        <v>6.010272467407224</v>
+        <v>3.529472515996921</v>
       </c>
       <c r="N4" t="n">
-        <v>6.388879221936217</v>
+        <v>3.751832919624393</v>
       </c>
       <c r="O4" t="n">
-        <v>6.46245447774038</v>
+        <v>3.794995882091003</v>
       </c>
       <c r="P4" t="n">
-        <v>6.900824177517491</v>
+        <v>4.052404081119745</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.135156799816165</v>
+        <v>4.190042660312137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.838246805677973</v>
+        <v>2.841245837774989</v>
       </c>
       <c r="B5" t="n">
-        <v>4.786793435975826</v>
+        <v>2.811023337045051</v>
       </c>
       <c r="C5" t="n">
-        <v>4.779379331064787</v>
+        <v>2.806676005667252</v>
       </c>
       <c r="D5" t="n">
-        <v>4.801809084585941</v>
+        <v>2.819832154140656</v>
       </c>
       <c r="E5" t="n">
-        <v>4.844430705255035</v>
+        <v>2.844843648461803</v>
       </c>
       <c r="F5" t="n">
-        <v>5.132607885167349</v>
+        <v>3.014074394847426</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2191211586309</v>
+        <v>3.064840221975434</v>
       </c>
       <c r="H5" t="n">
-        <v>5.574500991639693</v>
+        <v>3.273544796668846</v>
       </c>
       <c r="I5" t="n">
-        <v>5.777264876136308</v>
+        <v>3.392575661589366</v>
       </c>
       <c r="J5" t="n">
-        <v>5.930258546995376</v>
+        <v>3.482416055260352</v>
       </c>
       <c r="K5" t="n">
-        <v>6.140929630010689</v>
+        <v>3.606068036357879</v>
       </c>
       <c r="L5" t="n">
-        <v>5.953190560607921</v>
+        <v>3.495905571529945</v>
       </c>
       <c r="M5" t="n">
-        <v>6.021519426860864</v>
+        <v>3.536013652487831</v>
       </c>
       <c r="N5" t="n">
-        <v>6.434492277158435</v>
+        <v>3.778543179018321</v>
       </c>
       <c r="O5" t="n">
-        <v>6.494894347582632</v>
+        <v>3.813994505371101</v>
       </c>
       <c r="P5" t="n">
-        <v>6.966795677023055</v>
+        <v>4.091169781285853</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.165152695444053</v>
+        <v>4.207537044939501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.879477965590601</v>
+        <v>2.865417044783583</v>
       </c>
       <c r="B6" t="n">
-        <v>4.817303602949648</v>
+        <v>2.828917725904478</v>
       </c>
       <c r="C6" t="n">
-        <v>4.829429280498985</v>
+        <v>2.836032603964441</v>
       </c>
       <c r="D6" t="n">
-        <v>4.820541900392247</v>
+        <v>2.83087876753406</v>
       </c>
       <c r="E6" t="n">
-        <v>4.882576869263342</v>
+        <v>2.867289175959727</v>
       </c>
       <c r="F6" t="n">
-        <v>5.135289239701812</v>
+        <v>3.01578559624668</v>
       </c>
       <c r="G6" t="n">
-        <v>5.246075994259252</v>
+        <v>3.080814776137771</v>
       </c>
       <c r="H6" t="n">
-        <v>5.560360584183169</v>
+        <v>3.265469351601493</v>
       </c>
       <c r="I6" t="n">
-        <v>5.761618004491261</v>
+        <v>3.383643409313101</v>
       </c>
       <c r="J6" t="n">
-        <v>5.936247737814543</v>
+        <v>3.48613878606233</v>
       </c>
       <c r="K6" t="n">
-        <v>6.10985777884404</v>
+        <v>3.588092161717535</v>
       </c>
       <c r="L6" t="n">
-        <v>5.965464166239556</v>
+        <v>3.503260452129145</v>
       </c>
       <c r="M6" t="n">
-        <v>6.037553819507826</v>
+        <v>3.545581827965512</v>
       </c>
       <c r="N6" t="n">
-        <v>6.476320522856232</v>
+        <v>3.80309731351218</v>
       </c>
       <c r="O6" t="n">
-        <v>6.54156312886227</v>
+        <v>3.841416048392531</v>
       </c>
       <c r="P6" t="n">
-        <v>6.971346045981927</v>
+        <v>4.09358317108877</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.236589315767822</v>
+        <v>4.249432244573168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.868884987338399</v>
+        <v>2.859354614053457</v>
       </c>
       <c r="B7" t="n">
-        <v>4.817639285905631</v>
+        <v>2.829248309448471</v>
       </c>
       <c r="C7" t="n">
-        <v>4.804617189464423</v>
+        <v>2.821608507041281</v>
       </c>
       <c r="D7" t="n">
-        <v>4.811414927365889</v>
+        <v>2.825583862325782</v>
       </c>
       <c r="E7" t="n">
-        <v>4.872908441525499</v>
+        <v>2.861664800908335</v>
       </c>
       <c r="F7" t="n">
-        <v>5.138142544827661</v>
+        <v>3.017422550920724</v>
       </c>
       <c r="G7" t="n">
-        <v>5.25198268672483</v>
+        <v>3.084237550169904</v>
       </c>
       <c r="H7" t="n">
-        <v>5.550725029352503</v>
+        <v>3.259647294644231</v>
       </c>
       <c r="I7" t="n">
-        <v>5.77802664254301</v>
+        <v>3.393123231187782</v>
       </c>
       <c r="J7" t="n">
-        <v>5.889210400671745</v>
+        <v>3.458492646697144</v>
       </c>
       <c r="K7" t="n">
-        <v>6.111548204878497</v>
+        <v>3.58906405135052</v>
       </c>
       <c r="L7" t="n">
-        <v>5.995220468947825</v>
+        <v>3.520597433699066</v>
       </c>
       <c r="M7" t="n">
-        <v>6.061044672542383</v>
+        <v>3.559241740469458</v>
       </c>
       <c r="N7" t="n">
-        <v>6.475655478657186</v>
+        <v>3.802657772898943</v>
       </c>
       <c r="O7" t="n">
-        <v>6.548964590347471</v>
+        <v>3.845724214622781</v>
       </c>
       <c r="P7" t="n">
-        <v>6.965855638312045</v>
+        <v>4.090467407265376</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.232070555373543</v>
+        <v>4.246834722891732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.906406882195986</v>
+        <v>2.881170343704797</v>
       </c>
       <c r="B8" t="n">
-        <v>4.856076880879489</v>
+        <v>2.851608267595592</v>
       </c>
       <c r="C8" t="n">
-        <v>4.840911723758846</v>
+        <v>2.842710725663362</v>
       </c>
       <c r="D8" t="n">
-        <v>4.837495786183233</v>
+        <v>2.840739660725877</v>
       </c>
       <c r="E8" t="n">
-        <v>4.909482711616574</v>
+        <v>2.882991801490986</v>
       </c>
       <c r="F8" t="n">
-        <v>5.158972272809096</v>
+        <v>3.029551495950862</v>
       </c>
       <c r="G8" t="n">
-        <v>5.292794084899656</v>
+        <v>3.108111584660849</v>
       </c>
       <c r="H8" t="n">
-        <v>5.517734538315032</v>
+        <v>3.240135255259313</v>
       </c>
       <c r="I8" t="n">
-        <v>5.820834753743204</v>
+        <v>3.418182614646688</v>
       </c>
       <c r="J8" t="n">
-        <v>5.810998168441724</v>
+        <v>3.412379861837981</v>
       </c>
       <c r="K8" t="n">
-        <v>6.114848139022053</v>
+        <v>3.590898316696808</v>
       </c>
       <c r="L8" t="n">
-        <v>6.021158457053207</v>
+        <v>3.535830263076565</v>
       </c>
       <c r="M8" t="n">
-        <v>6.095280541024835</v>
+        <v>3.579346268721544</v>
       </c>
       <c r="N8" t="n">
-        <v>6.484341512207465</v>
+        <v>3.807839451851277</v>
       </c>
       <c r="O8" t="n">
-        <v>6.552994682333136</v>
+        <v>3.848193289469605</v>
       </c>
       <c r="P8" t="n">
-        <v>6.952951125731126</v>
+        <v>4.082954009907854</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.222014606633785</v>
+        <v>4.241033083783902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.850821640930183</v>
+        <v>2.84843923174686</v>
       </c>
       <c r="B9" t="n">
-        <v>4.801672535586897</v>
+        <v>2.819571548135173</v>
       </c>
       <c r="C9" t="n">
-        <v>4.786937887116017</v>
+        <v>2.810932570423483</v>
       </c>
       <c r="D9" t="n">
-        <v>4.791375413499291</v>
+        <v>2.813572041504662</v>
       </c>
       <c r="E9" t="n">
-        <v>4.858110892011077</v>
+        <v>2.852728650678996</v>
       </c>
       <c r="F9" t="n">
-        <v>5.124637469519466</v>
+        <v>3.009322233200426</v>
       </c>
       <c r="G9" t="n">
-        <v>5.235293364619491</v>
+        <v>3.074286075973333</v>
       </c>
       <c r="H9" t="n">
-        <v>5.502638287865204</v>
+        <v>3.231364118376751</v>
       </c>
       <c r="I9" t="n">
-        <v>5.774915095444431</v>
+        <v>3.391223628723311</v>
       </c>
       <c r="J9" t="n">
-        <v>5.810304044363253</v>
+        <v>3.412078791367259</v>
       </c>
       <c r="K9" t="n">
-        <v>6.12796442898575</v>
+        <v>3.59859473223197</v>
       </c>
       <c r="L9" t="n">
-        <v>5.992277079412884</v>
+        <v>3.51888419051487</v>
       </c>
       <c r="M9" t="n">
-        <v>6.053035694445696</v>
+        <v>3.554564568014919</v>
       </c>
       <c r="N9" t="n">
-        <v>6.47992895659022</v>
+        <v>3.805281280934202</v>
       </c>
       <c r="O9" t="n">
-        <v>6.534443615773243</v>
+        <v>3.837346214150201</v>
       </c>
       <c r="P9" t="n">
-        <v>6.953293130400027</v>
+        <v>4.08329888594645</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.228469707695058</v>
+        <v>4.244916929979584</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.851972824852677</v>
+        <v>2.849145874954037</v>
       </c>
       <c r="B10" t="n">
-        <v>4.798689635346214</v>
+        <v>2.817843084372308</v>
       </c>
       <c r="C10" t="n">
-        <v>4.787500203480135</v>
+        <v>2.811284685517787</v>
       </c>
       <c r="D10" t="n">
-        <v>4.77666257493798</v>
+        <v>2.804987820752813</v>
       </c>
       <c r="E10" t="n">
-        <v>4.830823850368848</v>
+        <v>2.836749270479521</v>
       </c>
       <c r="F10" t="n">
-        <v>5.110348185723708</v>
+        <v>3.001061356936862</v>
       </c>
       <c r="G10" t="n">
-        <v>5.183912378530262</v>
+        <v>3.044177729583403</v>
       </c>
       <c r="H10" t="n">
-        <v>5.554750696139124</v>
+        <v>3.262111543453917</v>
       </c>
       <c r="I10" t="n">
-        <v>5.729993003444227</v>
+        <v>3.364942886634717</v>
       </c>
       <c r="J10" t="n">
-        <v>5.873208248760668</v>
+        <v>3.449086329080419</v>
       </c>
       <c r="K10" t="n">
-        <v>6.053373906086845</v>
+        <v>3.554833712393802</v>
       </c>
       <c r="L10" t="n">
-        <v>5.971378128674989</v>
+        <v>3.506757472886488</v>
       </c>
       <c r="M10" t="n">
-        <v>6.020717833662774</v>
+        <v>3.535701073774701</v>
       </c>
       <c r="N10" t="n">
-        <v>6.491948429362523</v>
+        <v>3.812297967700076</v>
       </c>
       <c r="O10" t="n">
-        <v>6.526657794142586</v>
+        <v>3.83274143225274</v>
       </c>
       <c r="P10" t="n">
-        <v>6.956769440334014</v>
+        <v>4.085147258170528</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.223913649194558</v>
+        <v>4.242143072325777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.774180670446103</v>
+        <v>2.803367385975128</v>
       </c>
       <c r="B11" t="n">
-        <v>4.722577476147782</v>
+        <v>2.773058387810321</v>
       </c>
       <c r="C11" t="n">
-        <v>4.711657349252039</v>
+        <v>2.76663938718238</v>
       </c>
       <c r="D11" t="n">
-        <v>4.7171648255468</v>
+        <v>2.769850186814041</v>
       </c>
       <c r="E11" t="n">
-        <v>4.774650373715962</v>
+        <v>2.80360887344887</v>
       </c>
       <c r="F11" t="n">
-        <v>5.047042868641602</v>
+        <v>2.963584023069942</v>
       </c>
       <c r="G11" t="n">
-        <v>5.152539297743038</v>
+        <v>3.025528065911788</v>
       </c>
       <c r="H11" t="n">
-        <v>5.48523398002876</v>
+        <v>3.220979971389025</v>
       </c>
       <c r="I11" t="n">
-        <v>5.70560889237426</v>
+        <v>3.350347094159511</v>
       </c>
       <c r="J11" t="n">
-        <v>5.849478434977785</v>
+        <v>3.435008778747172</v>
       </c>
       <c r="K11" t="n">
-        <v>6.064789023104122</v>
+        <v>3.561441299703774</v>
       </c>
       <c r="L11" t="n">
-        <v>5.941042757063369</v>
+        <v>3.488764521499346</v>
       </c>
       <c r="M11" t="n">
-        <v>6.003179505512454</v>
+        <v>3.525262726677572</v>
       </c>
       <c r="N11" t="n">
-        <v>6.455393756581496</v>
+        <v>3.79073300636313</v>
       </c>
       <c r="O11" t="n">
-        <v>6.510109446235333</v>
+        <v>3.82290856719969</v>
       </c>
       <c r="P11" t="n">
-        <v>6.997732875704535</v>
+        <v>4.109183521756054</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.222404656320867</v>
+        <v>4.241136286731943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.747529909209139</v>
+        <v>2.788117851084457</v>
       </c>
       <c r="B12" t="n">
-        <v>4.697647801252931</v>
+        <v>2.75883809814786</v>
       </c>
       <c r="C12" t="n">
-        <v>4.686049670646659</v>
+        <v>2.752035613184214</v>
       </c>
       <c r="D12" t="n">
-        <v>4.704836537098419</v>
+        <v>2.76306700599895</v>
       </c>
       <c r="E12" t="n">
-        <v>4.766351861167598</v>
+        <v>2.799165206945113</v>
       </c>
       <c r="F12" t="n">
-        <v>5.054923515966039</v>
+        <v>2.968559667359822</v>
       </c>
       <c r="G12" t="n">
-        <v>5.167639341220618</v>
+        <v>3.034689554952136</v>
       </c>
       <c r="H12" t="n">
-        <v>5.478420437844997</v>
+        <v>3.217267635128576</v>
       </c>
       <c r="I12" t="n">
-        <v>5.74515120668066</v>
+        <v>3.373783072971723</v>
       </c>
       <c r="J12" t="n">
-        <v>5.854204547555796</v>
+        <v>3.437755165112652</v>
       </c>
       <c r="K12" t="n">
-        <v>6.111985035241179</v>
+        <v>3.589104515815759</v>
       </c>
       <c r="L12" t="n">
-        <v>5.922723065196299</v>
+        <v>3.478008398418322</v>
       </c>
       <c r="M12" t="n">
-        <v>5.982159810057814</v>
+        <v>3.512898790762148</v>
       </c>
       <c r="N12" t="n">
-        <v>6.452484504296315</v>
+        <v>3.789125935995982</v>
       </c>
       <c r="O12" t="n">
-        <v>6.488768607764422</v>
+        <v>3.810483006502343</v>
       </c>
       <c r="P12" t="n">
-        <v>7.013619972440493</v>
+        <v>4.118621022997366</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.195895185367637</v>
+        <v>4.22573862962448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.781751869923171</v>
+        <v>2.80809263318424</v>
       </c>
       <c r="B13" t="n">
-        <v>4.731979759771749</v>
+        <v>2.778853715946508</v>
       </c>
       <c r="C13" t="n">
-        <v>4.720193558206145</v>
+        <v>2.771932993072966</v>
       </c>
       <c r="D13" t="n">
-        <v>4.726351538760239</v>
+        <v>2.775525606489015</v>
       </c>
       <c r="E13" t="n">
-        <v>4.792010113476327</v>
+        <v>2.814077476086522</v>
       </c>
       <c r="F13" t="n">
-        <v>5.065713099490011</v>
+        <v>2.974827019051524</v>
       </c>
       <c r="G13" t="n">
-        <v>5.182763723292936</v>
+        <v>3.043511365224653</v>
       </c>
       <c r="H13" t="n">
-        <v>5.501992208804913</v>
+        <v>3.231013673833765</v>
       </c>
       <c r="I13" t="n">
-        <v>5.767159618035784</v>
+        <v>3.386654485253951</v>
       </c>
       <c r="J13" t="n">
-        <v>5.853395368302205</v>
+        <v>3.437360915001792</v>
       </c>
       <c r="K13" t="n">
-        <v>6.119132363867049</v>
+        <v>3.593395976532837</v>
       </c>
       <c r="L13" t="n">
-        <v>5.911244731049836</v>
+        <v>3.47134252742906</v>
       </c>
       <c r="M13" t="n">
-        <v>5.972620977434803</v>
+        <v>3.507364068631445</v>
       </c>
       <c r="N13" t="n">
-        <v>6.436441261251266</v>
+        <v>3.779699200529825</v>
       </c>
       <c r="O13" t="n">
-        <v>6.456139086534609</v>
+        <v>3.791237141627299</v>
       </c>
       <c r="P13" t="n">
-        <v>7.039132509266445</v>
+        <v>4.133580995659722</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.161846439587578</v>
+        <v>4.205661943894349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.978596734614017</v>
+        <v>2.923869820989289</v>
       </c>
       <c r="B14" t="n">
-        <v>4.920630736263036</v>
+        <v>2.889816189238568</v>
       </c>
       <c r="C14" t="n">
-        <v>4.906308895645746</v>
+        <v>2.881413687346669</v>
       </c>
       <c r="D14" t="n">
-        <v>4.821906442125745</v>
+        <v>2.831766015900307</v>
       </c>
       <c r="E14" t="n">
-        <v>4.889152398955717</v>
+        <v>2.87121608525603</v>
       </c>
       <c r="F14" t="n">
-        <v>5.075073975894361</v>
+        <v>2.980370465172439</v>
       </c>
       <c r="G14" t="n">
-        <v>5.193798905363799</v>
+        <v>3.050025216044049</v>
       </c>
       <c r="H14" t="n">
-        <v>5.49651128370441</v>
+        <v>3.227851505807115</v>
       </c>
       <c r="I14" t="n">
-        <v>5.774533896155434</v>
+        <v>3.391005343351197</v>
       </c>
       <c r="J14" t="n">
-        <v>5.85269049731177</v>
+        <v>3.436910979847026</v>
       </c>
       <c r="K14" t="n">
-        <v>6.156457653452864</v>
+        <v>3.615232309650422</v>
       </c>
       <c r="L14" t="n">
-        <v>5.936721234112152</v>
+        <v>3.48631623573558</v>
       </c>
       <c r="M14" t="n">
-        <v>5.999494579052151</v>
+        <v>3.523151149812629</v>
       </c>
       <c r="N14" t="n">
-        <v>6.440351240691475</v>
+        <v>3.781931428323233</v>
       </c>
       <c r="O14" t="n">
-        <v>6.429904610093342</v>
+        <v>3.775791595382076</v>
       </c>
       <c r="P14" t="n">
-        <v>7.051947885695212</v>
+        <v>4.141000470909854</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.144732930545395</v>
+        <v>4.195504249418509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.826192563484617</v>
+        <v>2.834004183431732</v>
       </c>
       <c r="B15" t="n">
-        <v>4.75526578930774</v>
+        <v>2.792364021299158</v>
       </c>
       <c r="C15" t="n">
-        <v>4.77210809686571</v>
+        <v>2.802239578219203</v>
       </c>
       <c r="D15" t="n">
-        <v>4.734202474033959</v>
+        <v>2.780067649903674</v>
       </c>
       <c r="E15" t="n">
-        <v>4.8012252743979</v>
+        <v>2.819387973107094</v>
       </c>
       <c r="F15" t="n">
-        <v>5.033917096108527</v>
+        <v>2.956103294271513</v>
       </c>
       <c r="G15" t="n">
-        <v>5.189948982196318</v>
+        <v>3.047673265406242</v>
       </c>
       <c r="H15" t="n">
-        <v>5.464370430883212</v>
+        <v>3.208895945627638</v>
       </c>
       <c r="I15" t="n">
-        <v>5.805945855477108</v>
+        <v>3.409430039445429</v>
       </c>
       <c r="J15" t="n">
-        <v>5.936644109214544</v>
+        <v>3.486227882132581</v>
       </c>
       <c r="K15" t="n">
-        <v>6.215135792764136</v>
+        <v>3.64980344107585</v>
       </c>
       <c r="L15" t="n">
-        <v>5.916750310830722</v>
+        <v>3.474559266798739</v>
       </c>
       <c r="M15" t="n">
-        <v>6.018343398290514</v>
+        <v>3.534192380318455</v>
       </c>
       <c r="N15" t="n">
-        <v>6.372862530085427</v>
+        <v>3.742470407575542</v>
       </c>
       <c r="O15" t="n">
-        <v>6.433014260678044</v>
+        <v>3.77774539795595</v>
       </c>
       <c r="P15" t="n">
-        <v>7.022222559380245</v>
+        <v>4.123812354023977</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.19642051971118</v>
+        <v>4.22616294965905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.79509574155194</v>
+        <v>2.815838422791666</v>
       </c>
       <c r="B16" t="n">
-        <v>4.727480280601871</v>
+        <v>2.776133687168477</v>
       </c>
       <c r="C16" t="n">
-        <v>4.737582693931582</v>
+        <v>2.782065629279048</v>
       </c>
       <c r="D16" t="n">
-        <v>4.740899064528727</v>
+        <v>2.784009779778644</v>
       </c>
       <c r="E16" t="n">
-        <v>4.792528810021306</v>
+        <v>2.814324717681468</v>
       </c>
       <c r="F16" t="n">
-        <v>5.060860868739272</v>
+        <v>2.971930468684309</v>
       </c>
       <c r="G16" t="n">
-        <v>5.204768973791601</v>
+        <v>3.056405608374882</v>
       </c>
       <c r="H16" t="n">
-        <v>5.497181385273791</v>
+        <v>3.228128074858518</v>
       </c>
       <c r="I16" t="n">
-        <v>5.817912858032186</v>
+        <v>3.416507608525974</v>
       </c>
       <c r="J16" t="n">
-        <v>5.966194324081664</v>
+        <v>3.50341674148571</v>
       </c>
       <c r="K16" t="n">
-        <v>6.239595132217835</v>
+        <v>3.664023173887872</v>
       </c>
       <c r="L16" t="n">
-        <v>5.935181897016451</v>
+        <v>3.485315018646137</v>
       </c>
       <c r="M16" t="n">
-        <v>6.034614855171927</v>
+        <v>3.543686680304553</v>
       </c>
       <c r="N16" t="n">
-        <v>6.441723052394831</v>
+        <v>3.782823131492992</v>
       </c>
       <c r="O16" t="n">
-        <v>6.501960126111851</v>
+        <v>3.818132275366997</v>
       </c>
       <c r="P16" t="n">
-        <v>7.081689648463769</v>
+        <v>4.158603255756024</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.265867696979438</v>
+        <v>4.266775165881105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.770796341435083</v>
+        <v>2.801558735749037</v>
       </c>
       <c r="B17" t="n">
-        <v>4.717320655770246</v>
+        <v>2.770162023059919</v>
       </c>
       <c r="C17" t="n">
-        <v>4.704803664191242</v>
+        <v>2.762821806188947</v>
       </c>
       <c r="D17" t="n">
-        <v>4.732233892631079</v>
+        <v>2.778943183250384</v>
       </c>
       <c r="E17" t="n">
-        <v>4.79797623004334</v>
+        <v>2.817524565921162</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115779801463445</v>
+        <v>3.004158744695768</v>
       </c>
       <c r="G17" t="n">
-        <v>5.247002757373132</v>
+        <v>3.08115742477461</v>
       </c>
       <c r="H17" t="n">
-        <v>5.622645892885845</v>
+        <v>3.301776371462306</v>
       </c>
       <c r="I17" t="n">
-        <v>5.878723311110932</v>
+        <v>3.452092950217756</v>
       </c>
       <c r="J17" t="n">
-        <v>5.98568669369515</v>
+        <v>3.515074219810771</v>
       </c>
       <c r="K17" t="n">
-        <v>6.230926167292437</v>
+        <v>3.659119548921446</v>
       </c>
       <c r="L17" t="n">
-        <v>5.993774693203321</v>
+        <v>3.519680486642736</v>
       </c>
       <c r="M17" t="n">
-        <v>6.074064872469715</v>
+        <v>3.566804140665618</v>
       </c>
       <c r="N17" t="n">
-        <v>6.489802207826628</v>
+        <v>3.81087465797782</v>
       </c>
       <c r="O17" t="n">
-        <v>6.557653784754209</v>
+        <v>3.85072621650011</v>
       </c>
       <c r="P17" t="n">
-        <v>7.089900921373854</v>
+        <v>4.163215462326005</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.268501322581364</v>
+        <v>4.268123115177274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.929892993945853</v>
+        <v>2.894988958583877</v>
       </c>
       <c r="B18" t="n">
-        <v>4.857609264090979</v>
+        <v>2.852551386622559</v>
       </c>
       <c r="C18" t="n">
-        <v>4.874447462535554</v>
+        <v>2.862434553831938</v>
       </c>
       <c r="D18" t="n">
-        <v>4.837252084150217</v>
+        <v>2.840610471424013</v>
       </c>
       <c r="E18" t="n">
-        <v>4.912404291241947</v>
+        <v>2.884729546094502</v>
       </c>
       <c r="F18" t="n">
-        <v>5.154738937753096</v>
+        <v>3.027041585405173</v>
       </c>
       <c r="G18" t="n">
-        <v>5.316556771589717</v>
+        <v>3.122038785375548</v>
       </c>
       <c r="H18" t="n">
-        <v>5.642733135684979</v>
+        <v>3.313619837834015</v>
       </c>
       <c r="I18" t="n">
-        <v>5.920064784913991</v>
+        <v>3.476521236512386</v>
       </c>
       <c r="J18" t="n">
-        <v>6.017998864936446</v>
+        <v>3.533884256408838</v>
       </c>
       <c r="K18" t="n">
-        <v>6.24573604414705</v>
+        <v>3.667716948467019</v>
       </c>
       <c r="L18" t="n">
-        <v>6.026595762334571</v>
+        <v>3.539056654520521</v>
       </c>
       <c r="M18" t="n">
-        <v>6.124968569233582</v>
+        <v>3.596806128621686</v>
       </c>
       <c r="N18" t="n">
-        <v>6.506473829135795</v>
+        <v>3.820754298467752</v>
       </c>
       <c r="O18" t="n">
-        <v>6.586600908208887</v>
+        <v>3.867788113953131</v>
       </c>
       <c r="P18" t="n">
-        <v>7.118112829616087</v>
+        <v>4.179804779373072</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.304961169668611</v>
+        <v>4.28958672973431</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.941127309973655</v>
+        <v>2.901640722695349</v>
       </c>
       <c r="B19" t="n">
-        <v>4.869275669196774</v>
+        <v>2.85944872177766</v>
       </c>
       <c r="C19" t="n">
-        <v>4.888724418991121</v>
+        <v>2.870873622236003</v>
       </c>
       <c r="D19" t="n">
-        <v>4.85795442961634</v>
+        <v>2.852783778872463</v>
       </c>
       <c r="E19" t="n">
-        <v>4.94296566409041</v>
+        <v>2.902729365303726</v>
       </c>
       <c r="F19" t="n">
-        <v>5.181171599894364</v>
+        <v>3.042566575646369</v>
       </c>
       <c r="G19" t="n">
-        <v>5.351615727094182</v>
+        <v>3.142665639339479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.652555813218038</v>
+        <v>3.319297113677119</v>
       </c>
       <c r="I19" t="n">
-        <v>5.953571759896918</v>
+        <v>3.496078566399682</v>
       </c>
       <c r="J19" t="n">
-        <v>5.960050251295991</v>
+        <v>3.499855497311062</v>
       </c>
       <c r="K19" t="n">
-        <v>6.205719601371748</v>
+        <v>3.644163659828976</v>
       </c>
       <c r="L19" t="n">
-        <v>6.038478053936538</v>
+        <v>3.545890694342381</v>
       </c>
       <c r="M19" t="n">
-        <v>6.133412481179075</v>
+        <v>3.601638476731912</v>
       </c>
       <c r="N19" t="n">
-        <v>6.528941829020107</v>
+        <v>3.833987663535373</v>
       </c>
       <c r="O19" t="n">
-        <v>6.579220308376317</v>
+        <v>3.863497766936931</v>
       </c>
       <c r="P19" t="n">
-        <v>7.143866223704243</v>
+        <v>4.195005311425104</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.286113614772832</v>
+        <v>4.278595615767999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.94623809878277</v>
+        <v>2.904578665611868</v>
       </c>
       <c r="B20" t="n">
-        <v>4.891757892935154</v>
+        <v>2.872573686626476</v>
       </c>
       <c r="C20" t="n">
-        <v>4.870636733988168</v>
+        <v>2.860178195852838</v>
       </c>
       <c r="D20" t="n">
-        <v>4.852586347091435</v>
+        <v>2.84960360601495</v>
       </c>
       <c r="E20" t="n">
-        <v>4.945842043468414</v>
+        <v>2.904312491101994</v>
       </c>
       <c r="F20" t="n">
-        <v>5.197440212004964</v>
+        <v>3.052110620938356</v>
       </c>
       <c r="G20" t="n">
-        <v>5.36762483288947</v>
+        <v>3.15197654991431</v>
       </c>
       <c r="H20" t="n">
-        <v>5.676599816132979</v>
+        <v>3.333412901073849</v>
       </c>
       <c r="I20" t="n">
-        <v>5.956047342675877</v>
+        <v>3.497616587312386</v>
       </c>
       <c r="J20" t="n">
-        <v>5.974665419392708</v>
+        <v>3.508394613177346</v>
       </c>
       <c r="K20" t="n">
-        <v>6.172691812228058</v>
+        <v>3.624860996209148</v>
       </c>
       <c r="L20" t="n">
-        <v>6.058153121053374</v>
+        <v>3.557542975396677</v>
       </c>
       <c r="M20" t="n">
-        <v>6.153182373989692</v>
+        <v>3.613305607131249</v>
       </c>
       <c r="N20" t="n">
-        <v>6.523548143557882</v>
+        <v>3.83083329141487</v>
       </c>
       <c r="O20" t="n">
-        <v>6.569311023376272</v>
+        <v>3.857677194914173</v>
       </c>
       <c r="P20" t="n">
-        <v>7.142240911312848</v>
+        <v>4.194075742425488</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.299236226449446</v>
+        <v>4.286320245058741</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.840788134271286</v>
+        <v>2.842674159151196</v>
       </c>
       <c r="B21" t="n">
-        <v>4.794314061749543</v>
+        <v>2.815375680076801</v>
       </c>
       <c r="C21" t="n">
-        <v>4.780307674606896</v>
+        <v>2.807159351848363</v>
       </c>
       <c r="D21" t="n">
-        <v>4.824752161196093</v>
+        <v>2.833258931927447</v>
       </c>
       <c r="E21" t="n">
-        <v>4.891915619672475</v>
+        <v>2.872685056714289</v>
       </c>
       <c r="F21" t="n">
-        <v>5.214049880527528</v>
+        <v>3.061869239266197</v>
       </c>
       <c r="G21" t="n">
-        <v>5.322759636305534</v>
+        <v>3.125671677640023</v>
       </c>
       <c r="H21" t="n">
-        <v>5.716083970680527</v>
+        <v>3.356770920824592</v>
       </c>
       <c r="I21" t="n">
-        <v>5.897921088902407</v>
+        <v>3.463524347264556</v>
       </c>
       <c r="J21" t="n">
-        <v>6.053079946436126</v>
+        <v>3.554478070580051</v>
       </c>
       <c r="K21" t="n">
-        <v>6.131005805070931</v>
+        <v>3.600368857730838</v>
       </c>
       <c r="L21" t="n">
-        <v>6.091162577229601</v>
+        <v>3.576997102335932</v>
       </c>
       <c r="M21" t="n">
-        <v>6.153218407753328</v>
+        <v>3.61342848546147</v>
       </c>
       <c r="N21" t="n">
-        <v>6.552535725975239</v>
+        <v>3.847796069489738</v>
       </c>
       <c r="O21" t="n">
-        <v>6.581868473917956</v>
+        <v>3.86500905902856</v>
       </c>
       <c r="P21" t="n">
-        <v>7.113288730487835</v>
+        <v>4.177008647701702</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.317410518919385</v>
+        <v>4.296926018521217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.864492029031203</v>
+        <v>2.856627903070158</v>
       </c>
       <c r="B22" t="n">
-        <v>4.814502768041023</v>
+        <v>2.827264993801327</v>
       </c>
       <c r="C22" t="n">
-        <v>4.800647785922778</v>
+        <v>2.819129594503366</v>
       </c>
       <c r="D22" t="n">
-        <v>4.821296712914738</v>
+        <v>2.831249258692853</v>
       </c>
       <c r="E22" t="n">
-        <v>4.888285692114564</v>
+        <v>2.870580347671428</v>
       </c>
       <c r="F22" t="n">
-        <v>5.153980648288499</v>
+        <v>3.026646964060687</v>
       </c>
       <c r="G22" t="n">
-        <v>5.280199336251752</v>
+        <v>3.100740369782103</v>
       </c>
       <c r="H22" t="n">
-        <v>5.510700368350408</v>
+        <v>3.236244726858363</v>
       </c>
       <c r="I22" t="n">
-        <v>5.784333183350694</v>
+        <v>3.396802527655513</v>
       </c>
       <c r="J22" t="n">
-        <v>5.802562474723026</v>
+        <v>3.407781019678538</v>
       </c>
       <c r="K22" t="n">
-        <v>6.064747299798859</v>
+        <v>3.561526312204138</v>
       </c>
       <c r="L22" t="n">
-        <v>6.064711898206514</v>
+        <v>3.561377818753721</v>
       </c>
       <c r="M22" t="n">
-        <v>6.140396077440351</v>
+        <v>3.60581448379129</v>
       </c>
       <c r="N22" t="n">
-        <v>6.582185191735182</v>
+        <v>3.865310871966534</v>
       </c>
       <c r="O22" t="n">
-        <v>6.623538676792786</v>
+        <v>3.889638925182132</v>
       </c>
       <c r="P22" t="n">
-        <v>7.111125440327061</v>
+        <v>4.17592093317739</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.34756129651378</v>
+        <v>4.31475933944916</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.933611109398981</v>
+        <v>2.89721227677026</v>
       </c>
       <c r="B23" t="n">
-        <v>4.862030354020665</v>
+        <v>2.855190857703738</v>
       </c>
       <c r="C23" t="n">
-        <v>4.877265682154706</v>
+        <v>2.864125151764947</v>
       </c>
       <c r="D23" t="n">
-        <v>4.827638971400413</v>
+        <v>2.835012825193696</v>
       </c>
       <c r="E23" t="n">
-        <v>4.901485428688787</v>
+        <v>2.878361404473328</v>
       </c>
       <c r="F23" t="n">
-        <v>5.132869604082183</v>
+        <v>3.014246461633098</v>
       </c>
       <c r="G23" t="n">
-        <v>5.243378519356848</v>
+        <v>3.079107287074777</v>
       </c>
       <c r="H23" t="n">
-        <v>5.499482488776194</v>
+        <v>3.229616721698958</v>
       </c>
       <c r="I23" t="n">
-        <v>5.734668542318889</v>
+        <v>3.367593865958304</v>
       </c>
       <c r="J23" t="n">
-        <v>5.827394163067637</v>
+        <v>3.422144048670213</v>
       </c>
       <c r="K23" t="n">
-        <v>6.044870570039917</v>
+        <v>3.54975597885676</v>
       </c>
       <c r="L23" t="n">
-        <v>6.06000854379501</v>
+        <v>3.558648137901413</v>
       </c>
       <c r="M23" t="n">
-        <v>6.127186226125459</v>
+        <v>3.598086142164288</v>
       </c>
       <c r="N23" t="n">
-        <v>6.633550373542114</v>
+        <v>3.895335876407416</v>
       </c>
       <c r="O23" t="n">
-        <v>6.629931825067457</v>
+        <v>3.893244717391906</v>
       </c>
       <c r="P23" t="n">
-        <v>7.116432518322299</v>
+        <v>4.178866672000057</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.353920939709982</v>
+        <v>4.318388519377375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.916144216604643</v>
+        <v>2.886932075197826</v>
       </c>
       <c r="B24" t="n">
-        <v>4.859965682581421</v>
+        <v>2.85394982369187</v>
       </c>
       <c r="C24" t="n">
-        <v>4.839350576753576</v>
+        <v>2.841843895146547</v>
       </c>
       <c r="D24" t="n">
-        <v>4.808540128416116</v>
+        <v>2.823798228584506</v>
       </c>
       <c r="E24" t="n">
-        <v>4.886356621417426</v>
+        <v>2.86947871188614</v>
       </c>
       <c r="F24" t="n">
-        <v>5.111824937861513</v>
+        <v>3.001949533387175</v>
       </c>
       <c r="G24" t="n">
-        <v>5.254003738344935</v>
+        <v>3.085379464803618</v>
       </c>
       <c r="H24" t="n">
-        <v>5.503235057564727</v>
+        <v>3.231728669797527</v>
       </c>
       <c r="I24" t="n">
-        <v>5.696422179160821</v>
+        <v>3.345172468646072</v>
       </c>
       <c r="J24" t="n">
-        <v>5.817367294207304</v>
+        <v>3.416084030958657</v>
       </c>
       <c r="K24" t="n">
-        <v>5.996592912822472</v>
+        <v>3.521387790088916</v>
       </c>
       <c r="L24" t="n">
-        <v>6.058306106506007</v>
+        <v>3.55766845236228</v>
       </c>
       <c r="M24" t="n">
-        <v>6.13945540655805</v>
+        <v>3.605298097817462</v>
       </c>
       <c r="N24" t="n">
-        <v>6.496207999527136</v>
+        <v>3.814753678136363</v>
       </c>
       <c r="O24" t="n">
-        <v>6.599888516592679</v>
+        <v>3.87563970514398</v>
       </c>
       <c r="P24" t="n">
-        <v>7.104254370555737</v>
+        <v>4.171734902810108</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.32322017309166</v>
+        <v>4.300401136494623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.927121555002301</v>
+        <v>2.893409359505057</v>
       </c>
       <c r="B25" t="n">
-        <v>4.865606863104413</v>
+        <v>2.857299835933299</v>
       </c>
       <c r="C25" t="n">
-        <v>4.878231323803035</v>
+        <v>2.864693696063235</v>
       </c>
       <c r="D25" t="n">
-        <v>4.875424483267137</v>
+        <v>2.863078087322687</v>
       </c>
       <c r="E25" t="n">
-        <v>4.936269389681289</v>
+        <v>2.898766260728884</v>
       </c>
       <c r="F25" t="n">
-        <v>5.191873627694413</v>
+        <v>3.048875876737814</v>
       </c>
       <c r="G25" t="n">
-        <v>5.306070314200195</v>
+        <v>3.115899694901644</v>
       </c>
       <c r="H25" t="n">
-        <v>5.573327049550692</v>
+        <v>3.272859870628793</v>
       </c>
       <c r="I25" t="n">
-        <v>5.741480820160069</v>
+        <v>3.371592794578059</v>
       </c>
       <c r="J25" t="n">
-        <v>5.868107890777869</v>
+        <v>3.445964996752634</v>
       </c>
       <c r="K25" t="n">
-        <v>5.935759069405928</v>
+        <v>3.485626483658389</v>
       </c>
       <c r="L25" t="n">
-        <v>6.082374764101331</v>
+        <v>3.571760109573317</v>
       </c>
       <c r="M25" t="n">
-        <v>6.146042631419324</v>
+        <v>3.60912403156748</v>
       </c>
       <c r="N25" t="n">
-        <v>6.558138660135073</v>
+        <v>3.851284923107307</v>
       </c>
       <c r="O25" t="n">
-        <v>6.585590066313188</v>
+        <v>3.867407228252809</v>
       </c>
       <c r="P25" t="n">
-        <v>7.216805515188785</v>
+        <v>4.238020894142175</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.294290118261864</v>
+        <v>4.283558638114593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.927414566396082</v>
+        <v>2.893308383958772</v>
       </c>
       <c r="B26" t="n">
-        <v>4.862699823418754</v>
+        <v>2.855304826426934</v>
       </c>
       <c r="C26" t="n">
-        <v>4.870479955507784</v>
+        <v>2.859868587008716</v>
       </c>
       <c r="D26" t="n">
-        <v>4.882009811614536</v>
+        <v>2.866712278904854</v>
       </c>
       <c r="E26" t="n">
-        <v>4.909389150265378</v>
+        <v>2.882776300371066</v>
       </c>
       <c r="F26" t="n">
-        <v>5.235477326465425</v>
+        <v>3.07440691251861</v>
       </c>
       <c r="G26" t="n">
-        <v>5.252179924167892</v>
+        <v>3.084206366545317</v>
       </c>
       <c r="H26" t="n">
-        <v>5.680877087093765</v>
+        <v>3.336060539294801</v>
       </c>
       <c r="I26" t="n">
-        <v>5.698431851697673</v>
+        <v>3.346348165539756</v>
       </c>
       <c r="J26" t="n">
-        <v>5.865548229217092</v>
+        <v>3.444399133317976</v>
       </c>
       <c r="K26" t="n">
-        <v>5.964135974355339</v>
+        <v>3.502323087223382</v>
       </c>
       <c r="L26" t="n">
-        <v>6.172007170718964</v>
+        <v>3.624387673335941</v>
       </c>
       <c r="M26" t="n">
-        <v>6.187544676730518</v>
+        <v>3.633508883527863</v>
       </c>
       <c r="N26" t="n">
-        <v>6.544930705334056</v>
+        <v>3.843440014121727</v>
       </c>
       <c r="O26" t="n">
-        <v>6.529010735690921</v>
+        <v>3.834149892629954</v>
       </c>
       <c r="P26" t="n">
-        <v>7.256547595623415</v>
+        <v>4.261360352211615</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.20066554993608</v>
+        <v>4.228558891481543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.008628980091188</v>
+        <v>2.941306664404617</v>
       </c>
       <c r="B27" t="n">
-        <v>4.944537241921997</v>
+        <v>2.903667101443115</v>
       </c>
       <c r="C27" t="n">
-        <v>4.955113783720609</v>
+        <v>2.909883594128049</v>
       </c>
       <c r="D27" t="n">
-        <v>4.92643975826402</v>
+        <v>2.893055759476249</v>
       </c>
       <c r="E27" t="n">
-        <v>4.959000688908666</v>
+        <v>2.912192667282048</v>
       </c>
       <c r="F27" t="n">
-        <v>5.239985656033388</v>
+        <v>3.077217893535022</v>
       </c>
       <c r="G27" t="n">
-        <v>5.272264954367506</v>
+        <v>3.096196470199314</v>
       </c>
       <c r="H27" t="n">
-        <v>5.673708264643971</v>
+        <v>3.331883418534544</v>
       </c>
       <c r="I27" t="n">
-        <v>5.716282472466174</v>
+        <v>3.356948741731467</v>
       </c>
       <c r="J27" t="n">
-        <v>5.876052387402786</v>
+        <v>3.450886440933111</v>
       </c>
       <c r="K27" t="n">
-        <v>5.818175209118312</v>
+        <v>3.416902601104086</v>
       </c>
       <c r="L27" t="n">
-        <v>6.191336440139147</v>
+        <v>3.635859163614353</v>
       </c>
       <c r="M27" t="n">
-        <v>6.218105101322044</v>
+        <v>3.651585733714491</v>
       </c>
       <c r="N27" t="n">
-        <v>6.566934059318845</v>
+        <v>3.856293978423531</v>
       </c>
       <c r="O27" t="n">
-        <v>6.530258009649779</v>
+        <v>3.834772822654458</v>
       </c>
       <c r="P27" t="n">
-        <v>7.272563655302913</v>
+        <v>4.27059107632322</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.236844712969737</v>
+        <v>4.249671319028341</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.982872109060927</v>
+        <v>2.926172768788458</v>
       </c>
       <c r="B28" t="n">
-        <v>4.91826388694628</v>
+        <v>2.888232877823487</v>
       </c>
       <c r="C28" t="n">
-        <v>4.930902255413322</v>
+        <v>2.895656807877132</v>
       </c>
       <c r="D28" t="n">
-        <v>4.925760806296553</v>
+        <v>2.89264925865573</v>
       </c>
       <c r="E28" t="n">
-        <v>4.96177434045174</v>
+        <v>2.91379194174305</v>
       </c>
       <c r="F28" t="n">
-        <v>5.282706211509658</v>
+        <v>3.10225221872417</v>
       </c>
       <c r="G28" t="n">
-        <v>5.324251560554345</v>
+        <v>3.126578230154825</v>
       </c>
       <c r="H28" t="n">
-        <v>5.62713620557199</v>
+        <v>3.304539834574584</v>
       </c>
       <c r="I28" t="n">
-        <v>5.736750282383014</v>
+        <v>3.368738750461026</v>
       </c>
       <c r="J28" t="n">
-        <v>5.788870908883729</v>
+        <v>3.399524412601674</v>
       </c>
       <c r="K28" t="n">
-        <v>5.754645155141947</v>
+        <v>3.379234267536566</v>
       </c>
       <c r="L28" t="n">
-        <v>6.236587893382415</v>
+        <v>3.662322552646961</v>
       </c>
       <c r="M28" t="n">
-        <v>6.26093723503133</v>
+        <v>3.676599084203768</v>
       </c>
       <c r="N28" t="n">
-        <v>6.637242886057921</v>
+        <v>3.897516502726804</v>
       </c>
       <c r="O28" t="n">
-        <v>6.557153737262341</v>
+        <v>3.850452988551341</v>
       </c>
       <c r="P28" t="n">
-        <v>7.272328487582338</v>
+        <v>4.270400633473059</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.255445721061688</v>
+        <v>4.260494635395679</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.034770211266904</v>
+        <v>2.956604830900299</v>
       </c>
       <c r="B29" t="n">
-        <v>4.980543506107328</v>
+        <v>2.924763751560806</v>
       </c>
       <c r="C29" t="n">
-        <v>4.961888131284277</v>
+        <v>2.913819413031377</v>
       </c>
       <c r="D29" t="n">
-        <v>4.947322272548325</v>
+        <v>2.905309995855176</v>
       </c>
       <c r="E29" t="n">
-        <v>4.995091664047107</v>
+        <v>2.933340733256946</v>
       </c>
       <c r="F29" t="n">
-        <v>5.253684807928186</v>
+        <v>3.085246563165494</v>
       </c>
       <c r="G29" t="n">
-        <v>5.351916008457819</v>
+        <v>3.1429039713274</v>
       </c>
       <c r="H29" t="n">
-        <v>5.56619236435066</v>
+        <v>3.268677181364146</v>
       </c>
       <c r="I29" t="n">
-        <v>5.779347248371725</v>
+        <v>3.393828946310894</v>
       </c>
       <c r="J29" t="n">
-        <v>5.822426561056131</v>
+        <v>3.41910327403928</v>
       </c>
       <c r="K29" t="n">
-        <v>5.757837620165885</v>
+        <v>3.381089321965912</v>
       </c>
       <c r="L29" t="n">
-        <v>6.227319630072325</v>
+        <v>3.656947460975457</v>
       </c>
       <c r="M29" t="n">
-        <v>6.2752995346113</v>
+        <v>3.685110728781725</v>
       </c>
       <c r="N29" t="n">
-        <v>6.685576806520341</v>
+        <v>3.925981212237419</v>
       </c>
       <c r="O29" t="n">
-        <v>6.643647413415844</v>
+        <v>3.901394037950842</v>
       </c>
       <c r="P29" t="n">
-        <v>7.281659335850323</v>
+        <v>4.275978418704383</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.35024676016164</v>
+        <v>4.316302557632628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.090962336972901</v>
+        <v>2.98963348660951</v>
       </c>
       <c r="B30" t="n">
-        <v>5.036056363760212</v>
+        <v>2.957366973534569</v>
       </c>
       <c r="C30" t="n">
-        <v>5.023252682500345</v>
+        <v>2.94985803098056</v>
       </c>
       <c r="D30" t="n">
-        <v>5.019343335231428</v>
+        <v>2.947558981134464</v>
       </c>
       <c r="E30" t="n">
-        <v>5.05245804792775</v>
+        <v>2.966973200458919</v>
       </c>
       <c r="F30" t="n">
-        <v>5.300016957994904</v>
+        <v>3.112402488527489</v>
       </c>
       <c r="G30" t="n">
-        <v>5.381370133288575</v>
+        <v>3.160155940396956</v>
       </c>
       <c r="H30" t="n">
-        <v>5.585510886858882</v>
+        <v>3.280053635834291</v>
       </c>
       <c r="I30" t="n">
-        <v>5.744829431493098</v>
+        <v>3.373667990547649</v>
       </c>
       <c r="J30" t="n">
-        <v>5.838159407996872</v>
+        <v>3.428502538217109</v>
       </c>
       <c r="K30" t="n">
-        <v>5.716577064288185</v>
+        <v>3.357201180597178</v>
       </c>
       <c r="L30" t="n">
-        <v>6.221460666539284</v>
+        <v>3.653573318548335</v>
       </c>
       <c r="M30" t="n">
-        <v>6.269857804130892</v>
+        <v>3.681982343015044</v>
       </c>
       <c r="N30" t="n">
-        <v>6.715981084802776</v>
+        <v>3.943845345556324</v>
       </c>
       <c r="O30" t="n">
-        <v>6.714844440819996</v>
+        <v>3.94319902781338</v>
       </c>
       <c r="P30" t="n">
-        <v>7.282279495887646</v>
+        <v>4.276356705769323</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.426170532315095</v>
+        <v>4.360910361371805</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.067558091405331</v>
+        <v>2.975854408111603</v>
       </c>
       <c r="B31" t="n">
-        <v>5.005192496948588</v>
+        <v>2.939242048593368</v>
       </c>
       <c r="C31" t="n">
-        <v>5.015031610935236</v>
+        <v>2.945013060927048</v>
       </c>
       <c r="D31" t="n">
-        <v>5.028288242925727</v>
+        <v>2.952830869857927</v>
       </c>
       <c r="E31" t="n">
-        <v>5.048742777245437</v>
+        <v>2.964828212567632</v>
       </c>
       <c r="F31" t="n">
-        <v>5.32008618391222</v>
+        <v>3.124195652742869</v>
       </c>
       <c r="G31" t="n">
-        <v>5.387970001575687</v>
+        <v>3.164043127695272</v>
       </c>
       <c r="H31" t="n">
-        <v>5.614303128347051</v>
+        <v>3.296929545240664</v>
       </c>
       <c r="I31" t="n">
-        <v>5.735090200570566</v>
+        <v>3.367933544726134</v>
       </c>
       <c r="J31" t="n">
-        <v>5.876382380817142</v>
+        <v>3.45091651085682</v>
       </c>
       <c r="K31" t="n">
-        <v>5.669907650837255</v>
+        <v>3.329862422674356</v>
       </c>
       <c r="L31" t="n">
-        <v>6.249217411451372</v>
+        <v>3.669868618563575</v>
       </c>
       <c r="M31" t="n">
-        <v>6.297388863891783</v>
+        <v>3.698144370158533</v>
       </c>
       <c r="N31" t="n">
-        <v>6.755478514947453</v>
+        <v>3.967084199313106</v>
       </c>
       <c r="O31" t="n">
-        <v>6.795411511112228</v>
+        <v>3.990504586313024</v>
       </c>
       <c r="P31" t="n">
-        <v>7.31231774699209</v>
+        <v>4.293955407045606</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.50020664099103</v>
+        <v>4.404342468217298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.799008249677316</v>
+        <v>2.818091996518571</v>
       </c>
       <c r="B32" t="n">
-        <v>4.723709694931519</v>
+        <v>2.773863593545213</v>
       </c>
       <c r="C32" t="n">
-        <v>4.744397816543575</v>
+        <v>2.786005531752262</v>
       </c>
       <c r="D32" t="n">
-        <v>4.722961520207592</v>
+        <v>2.773449853668986</v>
       </c>
       <c r="E32" t="n">
-        <v>4.77390409550591</v>
+        <v>2.803333789331971</v>
       </c>
       <c r="F32" t="n">
-        <v>5.044178184432497</v>
+        <v>2.962131942741668</v>
       </c>
       <c r="G32" t="n">
-        <v>5.066120849973267</v>
+        <v>2.975005211192026</v>
       </c>
       <c r="H32" t="n">
-        <v>5.424323011714608</v>
+        <v>3.185147388102296</v>
       </c>
       <c r="I32" t="n">
-        <v>5.282767216039324</v>
+        <v>3.102213053576623</v>
       </c>
       <c r="J32" t="n">
-        <v>5.669694609111896</v>
+        <v>3.328389738879836</v>
       </c>
       <c r="K32" t="n">
-        <v>5.583939309027295</v>
+        <v>3.278617332935124</v>
       </c>
       <c r="L32" t="n">
-        <v>5.966386504154393</v>
+        <v>3.503772383299461</v>
       </c>
       <c r="M32" t="n">
-        <v>6.012800520403408</v>
+        <v>3.531020931451154</v>
       </c>
       <c r="N32" t="n">
-        <v>6.740958172544516</v>
+        <v>3.958533575204415</v>
       </c>
       <c r="O32" t="n">
-        <v>6.79391705817825</v>
+        <v>3.989596920097345</v>
       </c>
       <c r="P32" t="n">
-        <v>7.38674833055415</v>
+        <v>4.337651460999216</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.564250018056392</v>
+        <v>4.441959200310797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.756284533344586</v>
+        <v>2.792947414942488</v>
       </c>
       <c r="B33" t="n">
-        <v>4.699182080978297</v>
+        <v>2.75942520412745</v>
       </c>
       <c r="C33" t="n">
-        <v>4.682360002901667</v>
+        <v>2.749540366366753</v>
       </c>
       <c r="D33" t="n">
-        <v>4.674516021512157</v>
+        <v>2.744971965364645</v>
       </c>
       <c r="E33" t="n">
-        <v>4.724645940614777</v>
+        <v>2.774417659732084</v>
       </c>
       <c r="F33" t="n">
-        <v>5.100266317960982</v>
+        <v>2.995083010623036</v>
       </c>
       <c r="G33" t="n">
-        <v>5.027016630372132</v>
+        <v>2.952104180034944</v>
       </c>
       <c r="H33" t="n">
-        <v>5.622888646661922</v>
+        <v>3.302061850120734</v>
       </c>
       <c r="I33" t="n">
-        <v>5.497501263947477</v>
+        <v>3.228383483593237</v>
       </c>
       <c r="J33" t="n">
-        <v>6.088513779516671</v>
+        <v>3.575523304840534</v>
       </c>
       <c r="K33" t="n">
-        <v>5.736919072117943</v>
+        <v>3.368900979555607</v>
       </c>
       <c r="L33" t="n">
-        <v>6.062181948696455</v>
+        <v>3.560023558485909</v>
       </c>
       <c r="M33" t="n">
-        <v>6.018708161125923</v>
+        <v>3.534493450789178</v>
       </c>
       <c r="N33" t="n">
-        <v>6.762895148543659</v>
+        <v>3.971455846493411</v>
       </c>
       <c r="O33" t="n">
-        <v>6.784315640597345</v>
+        <v>3.983987580007807</v>
       </c>
       <c r="P33" t="n">
-        <v>7.315292112920333</v>
+        <v>4.295852410874695</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.467872343754519</v>
+        <v>4.385370573758275</v>
       </c>
     </row>
   </sheetData>
